--- a/media/docx_org_templates/excellar/Алмалык v1.xlsx
+++ b/media/docx_org_templates/excellar/Алмалык v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\payup\media\docx_org_templates\excellar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.3.211\mko\SUHROB\Template - puyup\excellar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33906021-F304-43C3-A95F-9F513D359169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED017A3-50ED-42F8-B325-72A361D56DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="915" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4668,383 +4668,383 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1786">
@@ -7350,7 +7350,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="63.75" customHeight="1">
-      <c r="A1" s="234" t="str">
+      <c r="A1" s="235" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"
 mikromoliya tashkiloti
 Kredit qo‘mitasining yig‘ilishi"</f>
@@ -7358,20 +7358,20 @@
 mikromoliya tashkiloti
 Kredit qo‘mitasining yig‘ilishi</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
     </row>
     <row r="2" spans="1:33" ht="29.25" customHeight="1">
-      <c r="A2" s="234" t="str">
+      <c r="A2" s="235" t="str">
         <f>""&amp;H7&amp;" protokolidan ko'chirma"</f>
         <v>№ -AL protokolidan ko'chirma</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
     </row>
     <row r="3" spans="1:33" ht="29.25" customHeight="1">
       <c r="A3" s="132" t="s">
@@ -7387,32 +7387,32 @@
     </row>
     <row r="4" spans="1:33" ht="29.25" customHeight="1">
       <c r="A4" s="50"/>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="235" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:33" ht="36" customHeight="1">
-      <c r="A5" s="233" t="str">
+      <c r="A5" s="234" t="str">
         <f>"         "&amp;H8&amp;"."&amp;'Общие данные'!B5&amp;" ga "&amp;'Общие данные'!B65&amp;" berish masalasini ko‘rib chiqish to‘g‘risida."</f>
         <v xml:space="preserve">         1.NUTFULLAYEV AKBARJON AXMEDOVICH ga mikroqarz berish masalasini ko‘rib chiqish to‘g‘risida.</v>
       </c>
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
+      <c r="B5" s="234"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1">
-      <c r="A7" s="235" t="str">
+      <c r="A7" s="233" t="str">
         <f>"      "&amp;H9&amp;" masala yuzasidan: «Clever Mikromoliya Tashkiloti» MChJ mikromoliya tashkiloti kredit bo‘yicha menejeri  "&amp;'Общие данные'!B5&amp;"ga "&amp;FIXED('Общие данные'!B75)&amp;" ("&amp;'Общие данные'!B76&amp;") so‘m miqdorida, muddati "&amp;'Общие данные'!B81&amp;" ("&amp;'Общие данные'!B82&amp;") oyga va yillik 60 (Oltmish) foiz miqdorida "&amp;'Общие данные'!B65&amp;" berich bo‘yicha "&amp;'Общие данные'!B5&amp;"ning kredit arizasi va "&amp;'Общие данные'!B147&amp;"ning xulosasi bilan ishtirokchilarni tanishtirdi."</f>
         <v xml:space="preserve">      Birinchi masala yuzasidan: «Clever Mikromoliya Tashkiloti» MChJ mikromoliya tashkiloti kredit bo‘yicha menejeri  NUTFULLAYEV AKBARJON AXMEDOVICHga 27 000 000,00 (yigirma yetti million so'm) so‘m miqdorida, muddati 36 (o'ttiz olti) oyga va yillik 60 (Oltmish) foiz miqdorida mikroqarz berich bo‘yicha NUTFULLAYEV AKBARJON AXMEDOVICHning kredit arizasi va «CLEVER MIKROMOLIYA TASHKILOTI» MChJning xulosasi bilan ishtirokchilarni tanishtirdi.</v>
       </c>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="235"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="233"/>
       <c r="G7" s="62" t="s">
         <v>258</v>
       </c>
@@ -7422,11 +7422,11 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="23.25">
-      <c r="A8" s="235"/>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
+      <c r="A8" s="233"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
       <c r="G8" s="62" t="s">
         <v>259</v>
       </c>
@@ -7510,11 +7510,11 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="24" customHeight="1">
-      <c r="A9" s="235"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
+      <c r="A9" s="233"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
       <c r="G9" s="62" t="s">
         <v>260</v>
       </c>
@@ -7599,25 +7599,25 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="10.5" hidden="1" customHeight="1">
-      <c r="A10" s="235"/>
-      <c r="B10" s="235"/>
-      <c r="C10" s="235"/>
-      <c r="D10" s="235"/>
-      <c r="E10" s="235"/>
+      <c r="A10" s="233"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
     </row>
     <row r="11" spans="1:33" ht="9" hidden="1" customHeight="1">
-      <c r="A11" s="235"/>
-      <c r="B11" s="235"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
+      <c r="A11" s="233"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
     </row>
     <row r="12" spans="1:33" ht="3" hidden="1" customHeight="1">
-      <c r="A12" s="235"/>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
+      <c r="A12" s="233"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="233"/>
     </row>
     <row r="13" spans="1:33" ht="7.5" customHeight="1"/>
     <row r="14" spans="1:33" ht="15.75" customHeight="1">
@@ -7632,14 +7632,14 @@
     </row>
     <row r="15" spans="1:33" ht="7.5" customHeight="1"/>
     <row r="16" spans="1:33" ht="57" customHeight="1">
-      <c r="A16" s="235" t="str">
+      <c r="A16" s="233" t="str">
         <f>'Заключение КК'!A18:E18</f>
         <v xml:space="preserve">  Egalik huquqi NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli bo'lgan garovga olingan avtomobil markasi   CHANGAN CHANGAN SC 1027SB, rangi -  OQ BELIY, ishlab chiqarilgan yili - 2014, davlat raqam belgisi 80T312WA, kuzov turi - YUK BORTLI TENT, kuzov raqami LSCAB23D8EG228387, dvigatel raqami JL466Q1%E61H022801, shassi raqami - URINDIKLAR SONI 5TA</v>
       </c>
-      <c r="B16" s="235"/>
-      <c r="C16" s="235"/>
-      <c r="D16" s="235"/>
-      <c r="E16" s="235"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="233"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" customHeight="1">
       <c r="C17" s="153" t="s">
@@ -7655,14 +7655,14 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="54" customHeight="1">
-      <c r="A18" s="235" t="str">
+      <c r="A18" s="233" t="str">
         <f>CONCATENATE(H9,E17)</f>
         <v>Birinchi masala yuzasidan berilgan ma’lumotlarni muhokama qilib, Kredit qo‘mitasi a’zolariga taqdim etilgan zarur hujjatlarni o‘rganib, majlisda ishtirok etgan Kredit qo‘mitasi a’zolarining taklif va mulohazalarini inobatga olgan holda «CLEVER MIKROMOLIYA TASHKILOTI» MChJ kredit qo‘mitasi</v>
       </c>
-      <c r="B18" s="235"/>
-      <c r="C18" s="235"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="235"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="233"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="233"/>
     </row>
     <row r="19" spans="1:5" ht="24" customHeight="1">
       <c r="A19" s="237" t="s">
@@ -7674,74 +7674,74 @@
       <c r="E19" s="237"/>
     </row>
     <row r="20" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A20" s="235" t="str">
+      <c r="A20" s="233" t="str">
         <f>"       "&amp;'Общие данные'!B5&amp;"ga quyidagi shartlarda "&amp;'Общие данные'!B65&amp;" berish masalasi ma’qullansin:"</f>
         <v xml:space="preserve">       NUTFULLAYEV AKBARJON AXMEDOVICHga quyidagi shartlarda mikroqarz berish masalasi ma’qullansin:</v>
       </c>
-      <c r="B20" s="235"/>
-      <c r="C20" s="235"/>
-      <c r="D20" s="235"/>
-      <c r="E20" s="235"/>
+      <c r="B20" s="233"/>
+      <c r="C20" s="233"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="233"/>
     </row>
     <row r="21" spans="1:5" s="134" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A21" s="233" t="str">
+      <c r="A21" s="234" t="str">
         <f>"1. "&amp;'Общие данные'!C64&amp;" summasi: "&amp;FIXED('Общие данные'!B75)&amp;" ("&amp;'Общие данные'!B76&amp;") so'm."</f>
         <v>1. Mikroqarz summasi: 27 000 000,00 (yigirma yetti million so'm) so'm.</v>
       </c>
-      <c r="B21" s="233"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="233"/>
+      <c r="B21" s="234"/>
+      <c r="C21" s="234"/>
+      <c r="D21" s="234"/>
+      <c r="E21" s="234"/>
     </row>
     <row r="22" spans="1:5" s="134" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A22" s="233" t="str">
+      <c r="A22" s="234" t="str">
         <f>"2. "&amp;'Общие данные'!C64&amp;" muddati: "&amp;'Общие данные'!B81&amp;" ("&amp;'Общие данные'!B82&amp;") oy "</f>
         <v xml:space="preserve">2. Mikroqarz muddati: 36 (o'ttiz olti) oy </v>
       </c>
-      <c r="B22" s="233"/>
-      <c r="C22" s="233"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="233"/>
+      <c r="B22" s="234"/>
+      <c r="C22" s="234"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="234"/>
     </row>
     <row r="23" spans="1:5" s="134" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A23" s="233" t="str">
+      <c r="A23" s="234" t="str">
         <f>"3. "&amp;'Общие данные'!C64&amp;"dan foydalanganlik uchun foiz stavkasi:yillik "&amp;'Общие данные'!B85&amp;"% ("&amp;'Общие данные'!B86&amp;") foiz."</f>
         <v>3. Mikroqarzdan foydalanganlik uchun foiz stavkasi:yillik 60% (Oltmish) foiz.</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="233"/>
+      <c r="B23" s="234"/>
+      <c r="C23" s="234"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="234"/>
     </row>
     <row r="24" spans="1:5" s="134" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A24" s="233" t="str">
+      <c r="A24" s="234" t="str">
         <f>"4. "&amp;'Общие данные'!C64&amp;" bo‘yicha asosiy qarz va foizlarni to‘lash:"</f>
         <v>4. Mikroqarz bo‘yicha asosiy qarz va foizlarni to‘lash:</v>
       </c>
-      <c r="B24" s="233"/>
-      <c r="C24" s="233"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="233"/>
+      <c r="B24" s="234"/>
+      <c r="C24" s="234"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="234"/>
     </row>
     <row r="25" spans="1:5" s="134" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A25" s="233" t="str">
+      <c r="A25" s="234" t="str">
         <f>'Кредитная заявка'!A19:D19</f>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B25" s="233"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="233"/>
+      <c r="B25" s="234"/>
+      <c r="C25" s="234"/>
+      <c r="D25" s="234"/>
+      <c r="E25" s="234"/>
     </row>
     <row r="26" spans="1:5" ht="48" customHeight="1">
-      <c r="A26" s="235" t="str">
+      <c r="A26" s="233" t="str">
         <f>"5. "&amp;'Общие данные'!C64&amp;" bo‘yicha garov  "&amp;'Заключение КК'!A29:E29&amp;""</f>
         <v>5. Mikroqarz bo‘yicha garov   - NUTFULLAYEV AKBARJON AXMEDOVICH ga mulk huquqi asosida tegishli avtotransport vositasi CHANGAN CHANGAN SC 1027SB , quyidagi tafsilotlarga muvofiq:</v>
       </c>
-      <c r="B26" s="235"/>
-      <c r="C26" s="235"/>
-      <c r="D26" s="235"/>
-      <c r="E26" s="235"/>
+      <c r="B26" s="233"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="233"/>
     </row>
     <row r="27" spans="1:5" ht="40.5" customHeight="1">
       <c r="A27" s="17" t="str">
@@ -7789,44 +7789,44 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A29" s="235" t="str">
+      <c r="A29" s="233" t="str">
         <f>'Акт согласования'!A22:E22</f>
         <v>-* avtotransport egasi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B29" s="235"/>
-      <c r="C29" s="235"/>
-      <c r="D29" s="235"/>
-      <c r="E29" s="235"/>
+      <c r="B29" s="233"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="233"/>
     </row>
     <row r="30" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A30" s="235" t="str">
+      <c r="A30" s="233" t="str">
         <f>'Акт согласования'!A23:E23</f>
         <v>-* texnik pasport: AAG   2346592  13.09.2023y</v>
       </c>
-      <c r="B30" s="235"/>
-      <c r="C30" s="235"/>
-      <c r="D30" s="235"/>
-      <c r="E30" s="235"/>
+      <c r="B30" s="233"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="233"/>
     </row>
     <row r="31" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A31" s="235" t="str">
+      <c r="A31" s="233" t="str">
         <f>'Акт согласования'!A24:E24</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY</v>
       </c>
-      <c r="B31" s="235"/>
-      <c r="C31" s="235"/>
-      <c r="D31" s="235"/>
-      <c r="E31" s="235"/>
+      <c r="B31" s="233"/>
+      <c r="C31" s="233"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="233"/>
     </row>
     <row r="32" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A32" s="235" t="str">
+      <c r="A32" s="233" t="str">
         <f>'Акт согласования'!A25:E25</f>
         <v>-* davlat raqami: 80T312WA</v>
       </c>
-      <c r="B32" s="235"/>
-      <c r="C32" s="235"/>
-      <c r="D32" s="235"/>
-      <c r="E32" s="235"/>
+      <c r="B32" s="233"/>
+      <c r="C32" s="233"/>
+      <c r="D32" s="233"/>
+      <c r="E32" s="233"/>
     </row>
     <row r="33" spans="1:5" ht="12" customHeight="1">
       <c r="A33" s="135"/>
@@ -7836,64 +7836,55 @@
       <c r="E33" s="135"/>
     </row>
     <row r="34" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A34" s="235" t="str">
+      <c r="A34" s="233" t="str">
         <f>"6. Boshqa shartlar – "&amp;IF('Общие данные'!B103='Общие данные'!B104,"avtotransport vositasi",IF('Общие данные'!B103='Общие данные'!C104,"ko'chmas mulk",0))&amp;" shaklida garov ta'minlangandan keyin "&amp;'Общие данные'!B65&amp;" berish."</f>
         <v>6. Boshqa shartlar – 0 shaklida garov ta'minlangandan keyin mikroqarz berish.</v>
       </c>
-      <c r="B34" s="235"/>
-      <c r="C34" s="235"/>
-      <c r="D34" s="235"/>
-      <c r="E34" s="235"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="233"/>
+      <c r="D34" s="233"/>
+      <c r="E34" s="233"/>
     </row>
     <row r="36" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A36" s="238" t="s">
+      <c r="A36" s="230" t="s">
         <v>262</v>
       </c>
-      <c r="B36" s="238"/>
-      <c r="C36" s="238"/>
-      <c r="D36" s="238"/>
-      <c r="E36" s="238"/>
+      <c r="B36" s="230"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="230"/>
+      <c r="E36" s="230"/>
     </row>
     <row r="37" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A37" s="232" t="s">
+      <c r="A37" s="231" t="s">
         <v>400</v>
       </c>
-      <c r="B37" s="232"/>
+      <c r="B37" s="231"/>
       <c r="C37" s="162"/>
       <c r="D37" s="163"/>
       <c r="E37" s="163"/>
     </row>
     <row r="38" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A38" s="239" t="str">
+      <c r="A38" s="232" t="str">
         <f>"2. "&amp;'Общие данные'!B159&amp;""</f>
         <v>2. B. Mominov</v>
       </c>
-      <c r="B38" s="239"/>
+      <c r="B38" s="232"/>
       <c r="C38" s="162"/>
       <c r="D38" s="164"/>
       <c r="E38" s="164"/>
     </row>
     <row r="39" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A39" s="232" t="str">
+      <c r="A39" s="231" t="str">
         <f>"3. "&amp;'Общие данные'!B160&amp;""</f>
         <v>3. Jumanazarov B.T.</v>
       </c>
-      <c r="B39" s="232"/>
+      <c r="B39" s="231"/>
       <c r="C39" s="131"/>
       <c r="D39" s="165"/>
       <c r="E39" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A34:E34"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A1:E1"/>
@@ -7910,6 +7901,15 @@
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -7927,7 +7927,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -7938,149 +7938,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1">
-      <c r="A1" s="265" t="str">
+      <c r="A1" s="260" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"
 mikromoliya tashkilotining Xulosasi"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ
 mikromoliya tashkilotining Xulosasi</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="235"/>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
+      <c r="A2" s="233"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="265" t="s">
+      <c r="A3" s="260" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
+      <c r="B3" s="260"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="260"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A4" s="235" t="str">
+      <c r="A4" s="233" t="str">
         <f>"Mijozning to'liq ismi sharifi: "&amp;'Общие данные'!B5&amp;""</f>
         <v>Mijozning to'liq ismi sharifi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="233"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="235" t="str">
+      <c r="A5" s="233" t="str">
         <f>"Tug'ilgan sanasi: "&amp;'Общие данные'!B15&amp;""</f>
         <v>Tug'ilgan sanasi: 14.09.1989 y</v>
       </c>
-      <c r="B5" s="235"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
     </row>
     <row r="6" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A6" s="235" t="str">
+      <c r="A6" s="233" t="str">
         <f>"Pasport seriyasi "&amp;'Общие данные'!B16&amp;" "&amp;'Общие данные'!B20&amp;", amal qilish muddati - "&amp;'Общие данные'!B21&amp;""</f>
         <v>Pasport seriyasi AA 9481167 BUXORO VILOYATI BUXORO SHAHAR IIB tomonidan 24.04.2015 yilda berilgan, amal qilish muddati - 23.04.2025 y.</v>
       </c>
-      <c r="B6" s="235"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="235"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
     </row>
     <row r="7" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A7" s="235" t="str">
+      <c r="A7" s="233" t="str">
         <f>"Ro‘yxatdan o‘tgan manzili: "&amp;'Общие данные'!B28&amp;", mo'ljal: "&amp;'Общие данные'!B26&amp;""</f>
         <v>Ro‘yxatdan o‘tgan manzili: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY, mo'ljal: GOR VODAKANAL</v>
       </c>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="235"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="233"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A8" s="235" t="str">
+      <c r="A8" s="233" t="str">
         <f>"Ish joyi: "&amp;'Общие данные'!B52&amp;" lavozimi "&amp;'Общие данные'!B49&amp;"da "&amp;'Общие данные'!B44&amp;""</f>
         <v>Ish joyi:  lavozimi Yakka tartibdagi tadbirkorda Yakka tartibdagi tadbirkor</v>
       </c>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="235"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
+      <c r="A9" s="233"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="265" t="str">
+      <c r="A10" s="260" t="str">
         <f>"Mijoz tomonidan so’ralgan "&amp;'Общие данные'!B65&amp;" shartlari:"</f>
         <v>Mijoz tomonidan so’ralgan mikroqarz shartlari:</v>
       </c>
-      <c r="B10" s="265"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
+      <c r="B10" s="260"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="260"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="235" t="str">
+      <c r="A11" s="233" t="str">
         <f>'Кредитная заявка'!A13:D13</f>
         <v>Mikroqarz summasi: 27 000 000,00 (yigirma yetti million so'm) so'm.</v>
       </c>
-      <c r="B11" s="235"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="235" t="str">
+      <c r="A12" s="233" t="str">
         <f>'Кредитная заявка'!A14:D14</f>
         <v>Mikroqarz muddati: 36 (o'ttiz olti) oy.</v>
       </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="233"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="235" t="str">
+      <c r="A13" s="233" t="str">
         <f>'Кредитная заявка'!A15:D15</f>
         <v>Mikroqarzdan foydalanganlik uchun foiz stavkasi: yillik  60% (Oltmish) foiz</v>
       </c>
-      <c r="B13" s="235"/>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="235" t="str">
+      <c r="A14" s="233" t="str">
         <f>'Кредитная заявка'!A16:D16</f>
         <v>Mikroqarz bo'yicha asosiy qarz va foizlarni to'lash:</v>
       </c>
-      <c r="B14" s="235"/>
-      <c r="C14" s="235"/>
-      <c r="D14" s="235"/>
-      <c r="E14" s="235"/>
+      <c r="B14" s="233"/>
+      <c r="C14" s="233"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="233"/>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A15" s="235" t="str">
+      <c r="A15" s="233" t="str">
         <f>'Кредитная заявка'!A19:D19</f>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B15" s="235"/>
-      <c r="C15" s="235"/>
-      <c r="D15" s="235"/>
-      <c r="E15" s="235"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="233"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="233"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1">
       <c r="A16" s="236" t="str">
@@ -8093,83 +8093,83 @@
       <c r="E16" s="236"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="235" t="str">
+      <c r="A17" s="233" t="str">
         <f>'Кредитная заявка'!A21:D21</f>
         <v>Mikroqarz ta’minoti::</v>
       </c>
-      <c r="B17" s="235"/>
-      <c r="C17" s="235"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="235"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="233"/>
     </row>
     <row r="18" spans="1:5" ht="83.25" customHeight="1">
-      <c r="A18" s="235" t="str">
+      <c r="A18" s="233" t="str">
         <f>'Кредитная заявка'!A22:D22</f>
         <v xml:space="preserve">  Egalik huquqi NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli bo'lgan garovga olingan avtomobil markasi   CHANGAN CHANGAN SC 1027SB, rangi -  OQ BELIY, ishlab chiqarilgan yili - 2014, davlat raqam belgisi 80T312WA, kuzov turi - YUK BORTLI TENT, kuzov raqami LSCAB23D8EG228387, dvigatel raqami JL466Q1%E61H022801, shassi raqami - URINDIKLAR SONI 5TA</v>
       </c>
-      <c r="B18" s="235"/>
-      <c r="C18" s="235"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="235"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="233"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="233"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="265" t="s">
+      <c r="A19" s="260" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="265"/>
-      <c r="C19" s="265"/>
-      <c r="D19" s="265"/>
-      <c r="E19" s="265"/>
+      <c r="B19" s="260"/>
+      <c r="C19" s="260"/>
+      <c r="D19" s="260"/>
+      <c r="E19" s="260"/>
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1">
-      <c r="A20" s="235" t="str">
+      <c r="A20" s="233" t="str">
         <f>"Anketaga muvofiq "&amp;'Общие данные'!B9&amp;"ning o‘rtacha oylik daromadi  "&amp;FIXED('Общие данные'!B60)&amp;" so‘mni tashkil etdi."</f>
         <v>Anketaga muvofiq NUTFULLAYEV A.A.ning o‘rtacha oylik daromadi  10 000 000,00 so‘mni tashkil etdi.</v>
       </c>
-      <c r="B20" s="235"/>
-      <c r="C20" s="235"/>
-      <c r="D20" s="235"/>
-      <c r="E20" s="235"/>
+      <c r="B20" s="233"/>
+      <c r="C20" s="233"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="233"/>
     </row>
     <row r="21" spans="1:5" ht="27" customHeight="1">
-      <c r="A21" s="235" t="str">
+      <c r="A21" s="233" t="str">
         <f>"Mijozning o'rtacha oylik xarajatlari "&amp;FIXED('Анкета Клиента'!F27)&amp;" so'mni tashkil etdi"</f>
         <v>Mijozning o'rtacha oylik xarajatlari 1 650 000,00 so'mni tashkil etdi</v>
       </c>
-      <c r="B21" s="235"/>
-      <c r="C21" s="235"/>
-      <c r="D21" s="235"/>
-      <c r="E21" s="235"/>
+      <c r="B21" s="233"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="233"/>
     </row>
     <row r="22" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A22" s="235" t="str">
+      <c r="A22" s="233" t="str">
         <f>IF('Общие данные'!B77='Общие данные'!C77,'Заключение КК'!A23:E23,'Заключение КК'!A24:E24)</f>
         <v>Mikroqarz shartnomasi bo'yicha birinchi oy uchun to'lov 2 051 917,76 so'mni tashkil etadi.</v>
       </c>
-      <c r="B22" s="235"/>
-      <c r="C22" s="235"/>
-      <c r="D22" s="235"/>
-      <c r="E22" s="235"/>
+      <c r="B22" s="233"/>
+      <c r="C22" s="233"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="233"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" hidden="1" customHeight="1">
-      <c r="A23" s="235" t="str">
+      <c r="A23" s="233" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" shartnomasi bo'yicha birinchi oy uchun to'lov "&amp;FIXED('Общие данные'!B90)&amp;" so'mni tashkil etadi."</f>
         <v>Mikroqarz shartnomasi bo'yicha birinchi oy uchun to'lov 2 051 917,76 so'mni tashkil etadi.</v>
       </c>
-      <c r="B23" s="235"/>
-      <c r="C23" s="235"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="235"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="233"/>
     </row>
     <row r="24" spans="1:5" ht="19.5" hidden="1" customHeight="1">
-      <c r="A24" s="235" t="str">
+      <c r="A24" s="233" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" bo‘yicha oylik "&amp;'Общие данные'!B77&amp;" to‘lovi miqdori "&amp;FIXED('Общие данные'!B90)&amp;" so‘mni tashkil etadi."</f>
         <v>Mikroqarz bo‘yicha oylik differensial to‘lovi miqdori 2 051 917,76 so‘mni tashkil etadi.</v>
       </c>
-      <c r="B24" s="235"/>
-      <c r="C24" s="235"/>
-      <c r="D24" s="235"/>
-      <c r="E24" s="235"/>
+      <c r="B24" s="233"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="233"/>
     </row>
     <row r="25" spans="1:5" ht="56.25" hidden="1" customHeight="1">
       <c r="A25" s="236" t="s">
@@ -8181,44 +8181,44 @@
       <c r="E25" s="236"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="265" t="str">
+      <c r="A26" s="260" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" bo’yicha ta’minot:"</f>
         <v>Mikroqarz bo’yicha ta’minot:</v>
       </c>
-      <c r="B26" s="265"/>
-      <c r="C26" s="265"/>
-      <c r="D26" s="265"/>
-      <c r="E26" s="265"/>
+      <c r="B26" s="260"/>
+      <c r="C26" s="260"/>
+      <c r="D26" s="260"/>
+      <c r="E26" s="260"/>
     </row>
     <row r="27" spans="1:5" ht="31.5" hidden="1" customHeight="1">
-      <c r="A27" s="235" t="str">
+      <c r="A27" s="233" t="str">
         <f>" - "&amp;'Общие данные'!B117&amp;" ga mulk huquqi asosida tegishli avtotransport vositasi "&amp;'Общие данные'!B125&amp;" , quyidagi tafsilotlarga muvofiq:"</f>
         <v xml:space="preserve"> - NUTFULLAYEV AKBARJON AXMEDOVICH ga mulk huquqi asosida tegishli avtotransport vositasi CHANGAN CHANGAN SC 1027SB , quyidagi tafsilotlarga muvofiq:</v>
       </c>
-      <c r="B27" s="235"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="235"/>
-      <c r="E27" s="235"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="233"/>
     </row>
     <row r="28" spans="1:5" ht="67.5" hidden="1" customHeight="1">
-      <c r="A28" s="235" t="str">
+      <c r="A28" s="233" t="str">
         <f>" -   "&amp;'Общие данные'!C117&amp;" ga mulk huquqi asosida tegishli ko'chmas mulk shaklida "&amp;'Общие данные'!C126&amp;", manzili: "&amp;'Общие данные'!C123&amp;", quyidagi tafsilotlarga muvofiq:"</f>
         <v xml:space="preserve"> -   NUTFULLAYEV AKBARJON AXMEDOVICH ga mulk huquqi asosida tegishli ko'chmas mulk shaklida 3 - xonali yakka tartibdagi uy-joy, manzili: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON, quyidagi tafsilotlarga muvofiq:</v>
       </c>
-      <c r="B28" s="235"/>
-      <c r="C28" s="235"/>
-      <c r="D28" s="235"/>
-      <c r="E28" s="235"/>
+      <c r="B28" s="233"/>
+      <c r="C28" s="233"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="233"/>
     </row>
     <row r="29" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A29" s="235" t="str">
+      <c r="A29" s="233" t="str">
         <f>IF('Общие данные'!B103="Avtotransport",'Заключение КК'!A27:E27,'Заключение КК'!A28:E28)</f>
         <v xml:space="preserve"> - NUTFULLAYEV AKBARJON AXMEDOVICH ga mulk huquqi asosida tegishli avtotransport vositasi CHANGAN CHANGAN SC 1027SB , quyidagi tafsilotlarga muvofiq:</v>
       </c>
-      <c r="B29" s="235"/>
-      <c r="C29" s="235"/>
-      <c r="D29" s="235"/>
-      <c r="E29" s="235"/>
+      <c r="B29" s="233"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="233"/>
     </row>
     <row r="30" spans="1:5" s="16" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="39" t="str">
@@ -8266,177 +8266,177 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A32" s="235" t="str">
+      <c r="A32" s="233" t="str">
         <f>'Акт согласования'!A22</f>
         <v>-* avtotransport egasi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B32" s="235"/>
-      <c r="C32" s="235"/>
-      <c r="D32" s="235"/>
-      <c r="E32" s="235"/>
+      <c r="B32" s="233"/>
+      <c r="C32" s="233"/>
+      <c r="D32" s="233"/>
+      <c r="E32" s="233"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A33" s="235" t="str">
+      <c r="A33" s="233" t="str">
         <f>'Акт согласования'!A23</f>
         <v>-* texnik pasport: AAG   2346592  13.09.2023y</v>
       </c>
-      <c r="B33" s="235"/>
-      <c r="C33" s="235"/>
-      <c r="D33" s="235"/>
-      <c r="E33" s="235"/>
+      <c r="B33" s="233"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="233"/>
     </row>
     <row r="34" spans="1:5" ht="33" customHeight="1" outlineLevel="1">
-      <c r="A34" s="235" t="str">
+      <c r="A34" s="233" t="str">
         <f>'Акт согласования'!A24</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY</v>
       </c>
-      <c r="B34" s="235"/>
-      <c r="C34" s="235"/>
-      <c r="D34" s="235"/>
-      <c r="E34" s="235"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="233"/>
+      <c r="D34" s="233"/>
+      <c r="E34" s="233"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A35" s="235" t="str">
+      <c r="A35" s="233" t="str">
         <f>'Акт согласования'!A25</f>
         <v>-* davlat raqami: 80T312WA</v>
       </c>
-      <c r="B35" s="235"/>
-      <c r="C35" s="235"/>
-      <c r="D35" s="235"/>
-      <c r="E35" s="235"/>
+      <c r="B35" s="233"/>
+      <c r="C35" s="233"/>
+      <c r="D35" s="233"/>
+      <c r="E35" s="233"/>
     </row>
     <row r="36" spans="1:5" ht="9" customHeight="1">
-      <c r="A36" s="235"/>
-      <c r="B36" s="235"/>
-      <c r="C36" s="235"/>
-      <c r="D36" s="235"/>
-      <c r="E36" s="235"/>
+      <c r="A36" s="233"/>
+      <c r="B36" s="233"/>
+      <c r="C36" s="233"/>
+      <c r="D36" s="233"/>
+      <c r="E36" s="233"/>
     </row>
     <row r="37" spans="1:5" ht="39" customHeight="1">
-      <c r="A37" s="265" t="str">
+      <c r="A37" s="260" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"
 mikromoliya tashkilotining Xulosasi"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ
 mikromoliya tashkilotining Xulosasi</v>
       </c>
-      <c r="B37" s="265"/>
-      <c r="C37" s="265"/>
-      <c r="D37" s="265"/>
-      <c r="E37" s="265"/>
+      <c r="B37" s="260"/>
+      <c r="C37" s="260"/>
+      <c r="D37" s="260"/>
+      <c r="E37" s="260"/>
     </row>
     <row r="38" spans="1:5" ht="48" customHeight="1">
-      <c r="A38" s="235" t="str">
+      <c r="A38" s="233" t="str">
         <f>""&amp;'Общие данные'!B147&amp;" kredit qo‘mitasining xulosasiga quyidagi shartlarda "&amp;'Общие данные'!B10&amp;"ga "&amp;'Общие данные'!B65&amp;" berish masalasi kiritiladi:"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ kredit qo‘mitasining xulosasiga quyidagi shartlarda NUTFULLAYEV AKBARJON AXMEDOVICHga mikroqarz berish masalasi kiritiladi:</v>
       </c>
-      <c r="B38" s="235"/>
-      <c r="C38" s="235"/>
-      <c r="D38" s="235"/>
-      <c r="E38" s="235"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="233"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="233"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="235" t="str">
+      <c r="A39" s="233" t="str">
         <f>A11</f>
         <v>Mikroqarz summasi: 27 000 000,00 (yigirma yetti million so'm) so'm.</v>
       </c>
-      <c r="B39" s="235"/>
-      <c r="C39" s="235"/>
-      <c r="D39" s="235"/>
-      <c r="E39" s="235"/>
+      <c r="B39" s="233"/>
+      <c r="C39" s="233"/>
+      <c r="D39" s="233"/>
+      <c r="E39" s="233"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="235" t="str">
+      <c r="A40" s="233" t="str">
         <f t="shared" ref="A40:A46" si="0">A12</f>
         <v>Mikroqarz muddati: 36 (o'ttiz olti) oy.</v>
       </c>
-      <c r="B40" s="235"/>
-      <c r="C40" s="235"/>
-      <c r="D40" s="235"/>
-      <c r="E40" s="235"/>
+      <c r="B40" s="233"/>
+      <c r="C40" s="233"/>
+      <c r="D40" s="233"/>
+      <c r="E40" s="233"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="235" t="str">
+      <c r="A41" s="233" t="str">
         <f t="shared" si="0"/>
         <v>Mikroqarzdan foydalanganlik uchun foiz stavkasi: yillik  60% (Oltmish) foiz</v>
       </c>
-      <c r="B41" s="235"/>
-      <c r="C41" s="235"/>
-      <c r="D41" s="235"/>
-      <c r="E41" s="235"/>
+      <c r="B41" s="233"/>
+      <c r="C41" s="233"/>
+      <c r="D41" s="233"/>
+      <c r="E41" s="233"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="235" t="str">
+      <c r="A42" s="233" t="str">
         <f t="shared" si="0"/>
         <v>Mikroqarz bo'yicha asosiy qarz va foizlarni to'lash:</v>
       </c>
-      <c r="B42" s="235"/>
-      <c r="C42" s="235"/>
-      <c r="D42" s="235"/>
-      <c r="E42" s="235"/>
+      <c r="B42" s="233"/>
+      <c r="C42" s="233"/>
+      <c r="D42" s="233"/>
+      <c r="E42" s="233"/>
     </row>
     <row r="43" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A43" s="235" t="str">
+      <c r="A43" s="233" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B43" s="235"/>
-      <c r="C43" s="235"/>
-      <c r="D43" s="235"/>
-      <c r="E43" s="235"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="233"/>
+      <c r="D43" s="233"/>
+      <c r="E43" s="233"/>
     </row>
     <row r="44" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A44" s="235" t="str">
+      <c r="A44" s="233" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">   </v>
       </c>
-      <c r="B44" s="235"/>
-      <c r="C44" s="235"/>
-      <c r="D44" s="235"/>
-      <c r="E44" s="235"/>
+      <c r="B44" s="233"/>
+      <c r="C44" s="233"/>
+      <c r="D44" s="233"/>
+      <c r="E44" s="233"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="235" t="str">
+      <c r="A45" s="233" t="str">
         <f t="shared" si="0"/>
         <v>Mikroqarz ta’minoti::</v>
       </c>
-      <c r="B45" s="235"/>
-      <c r="C45" s="235"/>
-      <c r="D45" s="235"/>
-      <c r="E45" s="235"/>
+      <c r="B45" s="233"/>
+      <c r="C45" s="233"/>
+      <c r="D45" s="233"/>
+      <c r="E45" s="233"/>
     </row>
     <row r="46" spans="1:5" ht="72" customHeight="1">
-      <c r="A46" s="235" t="str">
+      <c r="A46" s="233" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  Egalik huquqi NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli bo'lgan garovga olingan avtomobil markasi   CHANGAN CHANGAN SC 1027SB, rangi -  OQ BELIY, ishlab chiqarilgan yili - 2014, davlat raqam belgisi 80T312WA, kuzov turi - YUK BORTLI TENT, kuzov raqami LSCAB23D8EG228387, dvigatel raqami JL466Q1%E61H022801, shassi raqami - URINDIKLAR SONI 5TA</v>
       </c>
-      <c r="B46" s="235"/>
-      <c r="C46" s="235"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="235"/>
+      <c r="B46" s="233"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="233"/>
+      <c r="E46" s="233"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="235"/>
-      <c r="B47" s="235"/>
-      <c r="C47" s="235"/>
-      <c r="D47" s="235"/>
-      <c r="E47" s="235"/>
+      <c r="A47" s="233"/>
+      <c r="B47" s="233"/>
+      <c r="C47" s="233"/>
+      <c r="D47" s="233"/>
+      <c r="E47" s="233"/>
     </row>
     <row r="48" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A48" s="235" t="str">
+      <c r="A48" s="233" t="str">
         <f>""&amp;'Общие данные'!B147&amp;" mikromoliya tashkilotining xulosasi  "&amp;TEXT('Общие данные'!B2,"ДД.ММ.ГГГГ")&amp;" y. tayyorlangan"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ mikromoliya tashkilotining xulosasi  11.03.2025 y. tayyorlangan</v>
       </c>
-      <c r="B48" s="235"/>
-      <c r="C48" s="235"/>
-      <c r="D48" s="235"/>
-      <c r="E48" s="235"/>
+      <c r="B48" s="233"/>
+      <c r="C48" s="233"/>
+      <c r="D48" s="233"/>
+      <c r="E48" s="233"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="235"/>
-      <c r="B49" s="235"/>
-      <c r="C49" s="235"/>
-      <c r="D49" s="235"/>
-      <c r="E49" s="235"/>
+      <c r="A49" s="233"/>
+      <c r="B49" s="233"/>
+      <c r="C49" s="233"/>
+      <c r="D49" s="233"/>
+      <c r="E49" s="233"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="236"/>
@@ -8459,21 +8459,21 @@
       <c r="E51" s="23"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="235"/>
-      <c r="B52" s="235"/>
-      <c r="C52" s="235"/>
-      <c r="D52" s="235"/>
-      <c r="E52" s="235"/>
+      <c r="A52" s="233"/>
+      <c r="B52" s="233"/>
+      <c r="C52" s="233"/>
+      <c r="D52" s="233"/>
+      <c r="E52" s="233"/>
     </row>
     <row r="53" spans="1:5" ht="47.25" customHeight="1">
-      <c r="A53" s="235" t="str">
+      <c r="A53" s="233" t="str">
         <f>""&amp;'Общие данные'!B147&amp;" mikromoliya tashkilotining Kredit qo‘mitasi a’zolari "&amp;'Общие данные'!B147&amp;" mikromoliya tashkilotining xulosasi va Mijoz tomonidan taqdim etilgan ma’lumotlar bilan tanishdilar:"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ mikromoliya tashkilotining Kredit qo‘mitasi a’zolari «CLEVER MIKROMOLIYA TASHKILOTI» MChJ mikromoliya tashkilotining xulosasi va Mijoz tomonidan taqdim etilgan ma’lumotlar bilan tanishdilar:</v>
       </c>
-      <c r="B53" s="235"/>
-      <c r="C53" s="235"/>
-      <c r="D53" s="235"/>
-      <c r="E53" s="235"/>
+      <c r="B53" s="233"/>
+      <c r="C53" s="233"/>
+      <c r="D53" s="233"/>
+      <c r="E53" s="233"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="19"/>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B55" s="225"/>
       <c r="C55" s="222"/>
-      <c r="D55" s="230" t="s">
+      <c r="D55" s="354" t="s">
         <v>433</v>
       </c>
       <c r="E55" s="225"/>
@@ -8497,7 +8497,7 @@
       <c r="A56" s="224"/>
       <c r="B56" s="222"/>
       <c r="C56" s="222"/>
-      <c r="D56" s="231"/>
+      <c r="D56" s="355"/>
       <c r="E56" s="225"/>
     </row>
     <row r="57" spans="1:5" ht="28.5">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="B57" s="225"/>
       <c r="C57" s="225"/>
-      <c r="D57" s="230" t="s">
+      <c r="D57" s="354" t="s">
         <v>432</v>
       </c>
       <c r="E57" s="225"/>
@@ -8516,7 +8516,7 @@
       <c r="A58" s="224"/>
       <c r="B58" s="223"/>
       <c r="C58" s="225"/>
-      <c r="D58" s="230"/>
+      <c r="D58" s="354"/>
       <c r="E58" s="225"/>
     </row>
     <row r="59" spans="1:5" ht="35.25" customHeight="1">
@@ -8526,48 +8526,13 @@
       </c>
       <c r="B59" s="225"/>
       <c r="C59" s="225"/>
-      <c r="D59" s="230" t="s">
+      <c r="D59" s="354" t="s">
         <v>434</v>
       </c>
       <c r="E59" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:E37"/>
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A39:E39"/>
@@ -8582,7 +8547,42 @@
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
     <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
@@ -8615,101 +8615,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="311" t="str">
+      <c r="A1" s="297" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" shartnoma "&amp;'Общие данные'!B66&amp;""</f>
         <v>Mikroqarz shartnoma № -AL</v>
       </c>
-      <c r="B1" s="311"/>
+      <c r="B1" s="297"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="311" t="str">
+      <c r="A3" s="297" t="str">
         <f>"Toshkent shahri                                                                               "&amp;'Общие данные'!B70&amp;""</f>
         <v>Toshkent shahri                                                                               11 mart 2025 y.</v>
       </c>
-      <c r="B3" s="311"/>
+      <c r="B3" s="297"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="66"/>
     </row>
     <row r="5" spans="1:3" ht="132.75" customHeight="1">
-      <c r="A5" s="301" t="str">
+      <c r="A5" s="298" t="str">
         <f>""&amp;'Общие данные'!B147&amp;", bundan buyon «Mikromoliya tashkiloti» deb nomlanuvchi, ishonchnoma asosida xarakat qiluvchi "&amp;'Общие данные'!A150&amp;" "&amp;'Общие данные'!B150&amp;"  bir tomondan va o‘z manfaati yo‘lida hamda o‘z nomidan harakat qiluvchi O‘zbekiston Respublikasi fuqarosi "&amp;'Общие данные'!B5&amp;"  (pasport raqami "&amp;'Общие данные'!B16&amp;", "&amp;'Общие данные'!C20&amp;" ), bundan buyon «Qarz oluvchi» deb nomlanuvchi, boshqa tomondan, birgalikda “Tomonlar” yoki alohida “Tomon” deb nomlanuvchilar, Qarz oluvchi tomonidan "&amp;TEXT('Общие данные'!B2,"ДД.ММ.ГГГГ")&amp;" yil,"&amp;'Общие данные'!B65&amp;" olish uchun ariza berilganligini hisobga olib, ushbu "&amp;'Общие данные'!C64&amp;" shartnomasini (bundan keyin – «Shartnoma») quyidagilar haqida tuzdilar:"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ, bundan buyon «Mikromoliya tashkiloti» deb nomlanuvchi, ishonchnoma asosida xarakat qiluvchi Olmaliq filiali boshlig'i V. Yerjanov  bir tomondan va o‘z manfaati yo‘lida hamda o‘z nomidan harakat qiluvchi O‘zbekiston Respublikasi fuqarosi NUTFULLAYEV AKBARJON AXMEDOVICH  (pasport raqami AA 9481167, BUXORO VILOYATI BUXORO SHAHAR IIB tomonidan 24.04.2015 yilda berilgan ), bundan buyon «Qarz oluvchi» deb nomlanuvchi, boshqa tomondan, birgalikda “Tomonlar” yoki alohida “Tomon” deb nomlanuvchilar, Qarz oluvchi tomonidan 11.03.2025 yil,mikroqarz olish uchun ariza berilganligini hisobga olib, ushbu Mikroqarz shartnomasini (bundan keyin – «Shartnoma») quyidagilar haqida tuzdilar:</v>
       </c>
-      <c r="B5" s="301"/>
+      <c r="B5" s="298"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="311" t="s">
+      <c r="A7" s="297" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="311"/>
+      <c r="B7" s="297"/>
     </row>
     <row r="8" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A8" s="301" t="str">
+      <c r="A8" s="298" t="str">
         <f>"1.1. Mikromoliya tashkiloti Qarz oluvchiga umumiy miqdori "&amp;FIXED('Общие данные'!B75,2)&amp;" ("&amp;'Общие данные'!C76&amp;") bo‘lgan "&amp;'Общие данные'!B65&amp;"ni "&amp;'Общие данные'!B71&amp;" dan "&amp;'Общие данные'!B73&amp;" gacha bo'lgan muddatga naqd pul va/yoki o'tkazmasi shaklida ajratadi."</f>
         <v>1.1. Mikromoliya tashkiloti Qarz oluvchiga umumiy miqdori 27 000 000,00 (Yigirma yetti million so'm) bo‘lgan mikroqarzni 11 mart 2025 y. dan 11 mart 2028 y. gacha bo'lgan muddatga naqd pul va/yoki o'tkazmasi shaklida ajratadi.</v>
       </c>
-      <c r="B8" s="301"/>
+      <c r="B8" s="298"/>
     </row>
     <row r="9" spans="1:3" ht="36" customHeight="1">
-      <c r="A9" s="301" t="str">
+      <c r="A9" s="298" t="str">
         <f>"1.2. Qarz oluvchi to‘lovlilik, muddatlilik va ta’minlanganlik tamoyillariga amal qilgan holda "&amp;'Общие данные'!B65&amp;"dan foydalanish majburiyatini o‘z zimmasiga oladi."</f>
         <v>1.2. Qarz oluvchi to‘lovlilik, muddatlilik va ta’minlanganlik tamoyillariga amal qilgan holda mikroqarzdan foydalanish majburiyatini o‘z zimmasiga oladi.</v>
       </c>
-      <c r="B9" s="301"/>
+      <c r="B9" s="298"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="32"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="302" t="str">
+      <c r="A11" s="301" t="str">
         <f>"2. "&amp;'Общие данные'!D64&amp;" BERISH VA QAYTARISH TARTIBI"</f>
         <v>2. MIKROQARZ BERISH VA QAYTARISH TARTIBI</v>
       </c>
-      <c r="B11" s="302"/>
+      <c r="B11" s="301"/>
       <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:3" ht="36" customHeight="1">
-      <c r="A12" s="301" t="str">
+      <c r="A12" s="298" t="str">
         <f>"2.1. Ushbu Shartnomaning 1.1.-bandida ko‘rsatilgan summa miqdoridagi "&amp;'Общие данные'!B65&amp;" Mikromoliya tashkiloti kassasidan naqd pul shaklida va/yoki plastik kartaga o‘tkazish yuli bilan beriladi."</f>
         <v>2.1. Ushbu Shartnomaning 1.1.-bandida ko‘rsatilgan summa miqdoridagi mikroqarz Mikromoliya tashkiloti kassasidan naqd pul shaklida va/yoki plastik kartaga o‘tkazish yuli bilan beriladi.</v>
       </c>
-      <c r="B12" s="301"/>
+      <c r="B12" s="298"/>
     </row>
     <row r="13" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A13" s="301" t="str">
+      <c r="A13" s="298" t="str">
         <f>"2.2. "&amp;'Общие данные'!C64&amp;" berish ushbu Shartnoma tuzilgan va Qarz oluvchi tomonidan ushbu shartnomaning 3-bo‘limiga muvofiq garov ta'minoti ta'minlangandan so‘ng 10 kalendar kundan kechiktirmay amalga oshiriladi."</f>
         <v>2.2. Mikroqarz berish ushbu Shartnoma tuzilgan va Qarz oluvchi tomonidan ushbu shartnomaning 3-bo‘limiga muvofiq garov ta'minoti ta'minlangandan so‘ng 10 kalendar kundan kechiktirmay amalga oshiriladi.</v>
       </c>
-      <c r="B13" s="301"/>
+      <c r="B13" s="298"/>
     </row>
     <row r="14" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A14" s="301" t="str">
+      <c r="A14" s="298" t="str">
         <f>"2.3. "&amp;'Общие данные'!C64&amp;" Qarz oluvchi tomonidan ushbu Shartnomaning ajralmas qismi hisoblanadigan 1-ilovasida ko‘rsatilgan to‘lov jadvalida (bundan keyin - To‘lov jadvali) belgilangan miqdor, tartib va muddatlarda qaytariladi."</f>
         <v>2.3. Mikroqarz Qarz oluvchi tomonidan ushbu Shartnomaning ajralmas qismi hisoblanadigan 1-ilovasida ko‘rsatilgan to‘lov jadvalida (bundan keyin - To‘lov jadvali) belgilangan miqdor, tartib va muddatlarda qaytariladi.</v>
       </c>
-      <c r="B14" s="301"/>
+      <c r="B14" s="298"/>
     </row>
     <row r="15" spans="1:3" ht="69.75" customHeight="1">
-      <c r="A15" s="301" t="str">
+      <c r="A15" s="298" t="str">
         <f>"2.4. Mikromoliya tashkiloti, "&amp;'Общие данные'!B65&amp;" berilgan vaqtdan boshlab, "&amp;'Общие данные'!B65&amp;" miqdorining qoldiq summasiga "&amp;'Общие данные'!B85&amp;"% ("&amp;'Общие данные'!C86&amp;") foiz yillik va yiliga 365/366 kunlik hisobidan foizlar hisoblaydi. To'lov jadvaliga muvofiq asosiy qarz bo'yicha navbatdagi to'lov buzilgan hollarda, "&amp;"foiz stavkasi oshiriladi va  Mikromoliya tashkiloti "&amp;'Общие данные'!B65&amp;"ning muddati o'tgan asosiy qarz summasiga yillik "&amp;'Общие данные'!B88&amp;" ("&amp;'Общие данные'!B89&amp;") foiz miqdorida foizlar hisoblaydi."</f>
         <v>2.4. Mikromoliya tashkiloti, mikroqarz berilgan vaqtdan boshlab, mikroqarz miqdorining qoldiq summasiga 60% (Oltmish) foiz yillik va yiliga 365/366 kunlik hisobidan foizlar hisoblaydi. To'lov jadvaliga muvofiq asosiy qarz bo'yicha navbatdagi to'lov buzilgan hollarda, foiz stavkasi oshiriladi va  Mikromoliya tashkiloti mikroqarzning muddati o'tgan asosiy qarz summasiga yillik 100 (bir yuz) foiz miqdorida foizlar hisoblaydi.</v>
       </c>
-      <c r="B15" s="301"/>
+      <c r="B15" s="298"/>
     </row>
     <row r="16" spans="1:3" ht="177.75" customHeight="1">
-      <c r="A16" s="301" t="s">
+      <c r="A16" s="298" t="s">
         <v>332</v>
       </c>
-      <c r="B16" s="301"/>
+      <c r="B16" s="298"/>
     </row>
     <row r="17" spans="1:11" ht="161.25" customHeight="1">
-      <c r="A17" s="301" t="str">
+      <c r="A17" s="298" t="str">
         <f>CONCATENATE(C17,H17,I17)</f>
         <v>2.6 Qarz oluvchi tomonidan to‘lov jadvalida ko‘rsatilgan muddatdan oldin xamda to‘lov jadvalida ko‘rsatilgan oylik kredit qarzdorligini so‘ndirish miqdoridan ko‘p miqdorda to‘lovni amalga oshirib, to‘langan pul mablag‘larini asosiy kredit qarzdorligini so‘ndirishga yo‘naltirilishini so‘ralganda qarz oluvchining kredit qarzdorligini so‘ndirish uchun to‘lagan pul mablag‘laridan kredit qarzdorligi to‘langan oy uchun to‘lov jadvali bo‘yicha so‘ndirilishi lozim bo‘lgan foiz qarzdorligi summasi, to‘lov jadvalida foiz qarzdorligi so‘ndirilishi ko‘rsatilgan muddatga qadar tashkilotning xisob raqamida saqlanib to‘lov jadvalida ko‘rsatilgan sanada oylik foiz qarzdorligini so‘ndirishga yo‘naltiriladi.
 2.6.1. Qarz oluvchi tomonidan olingan mikroqarzni va undan foydalanganlik uchun foizlarni qaytarish bo‘yicha muddati o‘tgan qarzdorlik hosil bo‘lganda Qarz oluvchi tomonidan ko‘rsatilgan qarzdorlikni to‘lash hisobiga to‘lanadigan summalar quyidagi tartibda hisobga olinadi:</v>
       </c>
-      <c r="B17" s="301"/>
+      <c r="B17" s="298"/>
       <c r="C17" s="154" t="s">
         <v>337</v>
       </c>
@@ -8722,31 +8722,31 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="100.5" customHeight="1">
-      <c r="A18" s="304" t="s">
+      <c r="A18" s="300" t="s">
         <v>377</v>
       </c>
-      <c r="B18" s="304"/>
+      <c r="B18" s="300"/>
     </row>
     <row r="19" spans="1:11" ht="36" customHeight="1">
-      <c r="A19" s="301" t="str">
+      <c r="A19" s="298" t="str">
         <f>"2.7. Qarz oluvchi Mikromoliya tashkilotining "&amp;'Общие данные'!B65&amp;" bo‘yicha asosiy summasi, hisoblangan foizlarni, penya va boshqa moliyaviy talablarini ham naqd pul shaklida, ham naqdsiz shaklda qaytarib beradi."</f>
         <v>2.7. Qarz oluvchi Mikromoliya tashkilotining mikroqarz bo‘yicha asosiy summasi, hisoblangan foizlarni, penya va boshqa moliyaviy talablarini ham naqd pul shaklida, ham naqdsiz shaklda qaytarib beradi.</v>
       </c>
-      <c r="B19" s="301"/>
+      <c r="B19" s="298"/>
     </row>
     <row r="20" spans="1:11" ht="48.75" customHeight="1">
-      <c r="A20" s="301" t="str">
+      <c r="A20" s="298" t="str">
         <f>"2.8. Qarz oluvchi "&amp;'Общие данные'!B65&amp;" miqdorini muddatidan oldin qaytarish, shuningdek, bu haqida Mikromoliya tashkilotini albatta ogohlantirgan holda ulardan aniq foydalangan muddat uchun hisoblangan foizlarni to‘lash huquqiga ega."</f>
         <v>2.8. Qarz oluvchi mikroqarz miqdorini muddatidan oldin qaytarish, shuningdek, bu haqida Mikromoliya tashkilotini albatta ogohlantirgan holda ulardan aniq foydalangan muddat uchun hisoblangan foizlarni to‘lash huquqiga ega.</v>
       </c>
-      <c r="B20" s="301"/>
+      <c r="B20" s="298"/>
     </row>
     <row r="21" spans="1:11" ht="113.25" customHeight="1">
-      <c r="A21" s="310" t="str">
+      <c r="A21" s="302" t="str">
         <f>CONCATENATE(C21,H21,I21)</f>
         <v>2.9. Qarz oluvchi jismoniy shaxslarning kreditlar (mikroqarzlar) bo‘yicha qarz yukini hisoblash tartibi, qarz yukining ruxsat etilgan miqdori, shuningdek qarz yuki o‘sishini cheklash to‘g‘risidagi Nizomga muvofiq (O’zbekiston Respublikasi Adliya vazirligi tomonidan 19.12.2019 y. 3205-son bilan ro‘yxatga olingan Markaziy bank Boshqaruvining 28.09.2019 y. 24/5-son qarori bilan tasdiqlangan), qarz yuki ko‘rsatkichi har bir qarz oluvchiga qarz beruvchi tomonidan mikroqarz ajratishda uning summasi va qarz oluvchining amaldagi kredit (mikroqarz) shartnomalari bo‘yicha asosiy qarz qoldig‘i yig‘indisi bazaviy hisoblash miqdorining 50 baravaridan oshganda hisoblanadi.</v>
       </c>
-      <c r="B21" s="310"/>
+      <c r="B21" s="302"/>
       <c r="C21" s="6" t="str">
         <f>"2.9. Qarz oluvchi jismoniy shaxslarning kreditlar ("&amp;'Общие данные'!B65&amp;"lar) bo‘yicha qarz yukini hisoblash tartibi, qarz yukining ruxsat etilgan miqdori, shuningdek qarz yuki o‘sishini cheklash to‘g‘risidagi Nizomga muvofiq (O’zbekiston Respublikasi Adliya vazirligi tomonidan 19.12.2019 y. 3205-son bilan ro‘yxatga "</f>
         <v xml:space="preserve">2.9. Qarz oluvchi jismoniy shaxslarning kreditlar (mikroqarzlar) bo‘yicha qarz yukini hisoblash tartibi, qarz yukining ruxsat etilgan miqdori, shuningdek qarz yuki o‘sishini cheklash to‘g‘risidagi Nizomga muvofiq (O’zbekiston Respublikasi Adliya vazirligi tomonidan 19.12.2019 y. 3205-son bilan ro‘yxatga </v>
@@ -8761,77 +8761,77 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="302" t="str">
+      <c r="A22" s="301" t="str">
         <f>"3. "&amp;'Общие данные'!D64&amp;" TA'MINOTI BO‘YICHA "</f>
         <v xml:space="preserve">3. MIKROQARZ TA'MINOTI BO‘YICHA </v>
       </c>
-      <c r="B22" s="302"/>
+      <c r="B22" s="301"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A23" s="301" t="str">
+      <c r="A23" s="298" t="str">
         <f>"3.1. Ushbu Shartnoma bo‘yicha taqdim etilgan "&amp;'Общие данные'!C64&amp;" quyidagi garov bilan ta'minlanadi:"</f>
         <v>3.1. Ushbu Shartnoma bo‘yicha taqdim etilgan Mikroqarz quyidagi garov bilan ta'minlanadi:</v>
       </c>
-      <c r="B23" s="301"/>
+      <c r="B23" s="298"/>
     </row>
     <row r="24" spans="1:11" ht="151.5" customHeight="1">
-      <c r="A24" s="308" t="str">
+      <c r="A24" s="299" t="str">
         <f>IF('Общие данные'!B103='Общие данные'!C103,договор!A28,IF('Общие данные'!B103='Общие данные'!D103,договор!A25,0))</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 11 martda imzolangan 1-sonli garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq OQ BELIY rangli, ishlab chiqarilgan yili – 2014 yil,  dvigatel raqami JL466Q1%E61H022801, shassi - URINDIKLAR SONI 5TA,  kuzov turi - YUK BORTLI TENT, kuzov raqami №LSCAB23D8EG228387, davlat raqam belgisi 80T312WA bo'lgan CHANGAN CHANGAN SC 1027SB rusumli avtomashinasi (bundan keyin “Garov predmeti”), egalik huquqiga ega  NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli va kelishilgan garov qiymati 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq 40 500 000,00 (qirq million besh yuz ming so'm) so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi.</v>
       </c>
-      <c r="B24" s="308"/>
+      <c r="B24" s="299"/>
     </row>
     <row r="25" spans="1:11" ht="129" hidden="1" customHeight="1">
-      <c r="A25" s="301" t="str">
+      <c r="A25" s="298" t="str">
         <f>IF('Общие данные'!B92='Общие данные'!C92,договор!A27,IF('Общие данные'!B92='Общие данные'!D92,договор!A26,0))</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON manzilida joylashgan, yer uchastkasi maydoni - , umumiy maydoni - 72,13, yashash maydoni - 37,39 bo'lgan, 3 - xonali yakka tartibdagi uy-joy ko'rinishidagi ko'chmas mulk (bundan keyin “Garov predmeti”), egalik huquqiga ko'ra  NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli va kelishilgan garov qiymati 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq 40 500 000,00 (qirq million besh yuz ming so'm) so'mni tashkil qiladi. Garovning aniq shartlari tegishli tarzda notarial tasdiqlangan garov shartnomasi bilan belgilangan.</v>
       </c>
-      <c r="B25" s="301"/>
+      <c r="B25" s="298"/>
     </row>
     <row r="26" spans="1:11" ht="129.75" hidden="1" customHeight="1">
-      <c r="A26" s="308" t="str">
+      <c r="A26" s="299" t="str">
         <f>"3.1.1. "&amp;'Общие данные'!N126&amp;" tomonidan "&amp;'Общие данные'!B143&amp;" yil "&amp;'Общие данные'!B145&amp;" "&amp;'Общие данные'!B144&amp;"da imzolangan 1-sonli navbatdagi garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;'Общие данные'!C123&amp;" manzilida joylashgan, "&amp;'Общие данные'!E126&amp;" bo'lgan, "&amp;'Общие данные'!E125&amp;" ko'rinishidagi ko'chmas mulk (bundan keyin “navbatdagi garov predmeti”), egalik huquqiga ko'ra  "&amp;'Общие данные'!C117&amp;"ga tegishli va kelishilgan garov qiymati "&amp;'Общие данные'!B143&amp;" yil "&amp;'Общие данные'!B145&amp;" "&amp;'Общие данные'!B144&amp;"da imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;FIXED('Общие данные'!B136,2)&amp;" ("&amp;'Общие данные'!B138&amp;") so'mni tashkil qiladi. Garovning aniq shartlari tegishli tarzda notarial tasdiqlangan garov shartnomasi bilan belgilangan."</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 11 martda imzolangan 1-sonli navbatdagi garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON manzilida joylashgan, yer uchastkasi maydoni - , umumiy maydoni - 72,13, yashash maydoni - 37,39 bo'lgan, 3 - xonali yakka tartibdagi uy-joy ko'rinishidagi ko'chmas mulk (bundan keyin “navbatdagi garov predmeti”), egalik huquqiga ko'ra  NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli va kelishilgan garov qiymati 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq 40 500 000,00 (qirq million besh yuz ming so'm) so'mni tashkil qiladi. Garovning aniq shartlari tegishli tarzda notarial tasdiqlangan garov shartnomasi bilan belgilangan.</v>
       </c>
-      <c r="B26" s="308"/>
+      <c r="B26" s="299"/>
     </row>
     <row r="27" spans="1:11" ht="131.25" hidden="1" customHeight="1">
-      <c r="A27" s="301" t="str">
+      <c r="A27" s="298" t="str">
         <f>"3.1.1. "&amp;'Общие данные'!N126&amp;" tomonidan "&amp;'Общие данные'!B143&amp;" yil "&amp;'Общие данные'!B145&amp;" "&amp;'Общие данные'!B144&amp;"da imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;'Общие данные'!C123&amp;" manzilida joylashgan, "&amp;'Общие данные'!E126&amp;" bo'lgan, "&amp;'Общие данные'!E125&amp;" ko'rinishidagi ko'chmas mulk (bundan keyin “Garov predmeti”), egalik huquqiga ko'ra  "&amp;'Общие данные'!C117&amp;"ga tegishli va kelishilgan garov qiymati "&amp;'Общие данные'!B143&amp;" yil "&amp;'Общие данные'!B145&amp;" "&amp;'Общие данные'!B144&amp;"da imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;FIXED('Общие данные'!B136,2)&amp;" ("&amp;'Общие данные'!B138&amp;") so'mni tashkil qiladi. Garovning aniq shartlari tegishli tarzda notarial tasdiqlangan garov shartnomasi bilan belgilangan."</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON manzilida joylashgan, yer uchastkasi maydoni - , umumiy maydoni - 72,13, yashash maydoni - 37,39 bo'lgan, 3 - xonali yakka tartibdagi uy-joy ko'rinishidagi ko'chmas mulk (bundan keyin “Garov predmeti”), egalik huquqiga ko'ra  NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli va kelishilgan garov qiymati 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq 40 500 000,00 (qirq million besh yuz ming so'm) so'mni tashkil qiladi. Garovning aniq shartlari tegishli tarzda notarial tasdiqlangan garov shartnomasi bilan belgilangan.</v>
       </c>
-      <c r="B27" s="301"/>
+      <c r="B27" s="298"/>
     </row>
     <row r="28" spans="1:11" ht="114" hidden="1" customHeight="1">
-      <c r="A28" s="308" t="str">
+      <c r="A28" s="299" t="str">
         <f>IF('Общие данные'!B92='Общие данные'!C92,A29,IF('Общие данные'!B92='Общие данные'!D92,A30,0))</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 11 martda imzolangan 1-sonli garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq OQ BELIY rangli, ishlab chiqarilgan yili – 2014 yil,  dvigatel raqami JL466Q1%E61H022801, shassi - URINDIKLAR SONI 5TA,  kuzov turi - YUK BORTLI TENT, kuzov raqami №LSCAB23D8EG228387, davlat raqam belgisi 80T312WA bo'lgan CHANGAN CHANGAN SC 1027SB rusumli avtomashinasi (bundan keyin “Garov predmeti”), egalik huquqiga ega  NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli va kelishilgan garov qiymati 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq 40 500 000,00 (qirq million besh yuz ming so'm) so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi.</v>
       </c>
-      <c r="B28" s="308"/>
+      <c r="B28" s="299"/>
       <c r="K28" s="6" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="114.75" hidden="1" customHeight="1">
-      <c r="A29" s="308" t="str">
+      <c r="A29" s="299" t="str">
         <f>"3.1.1. "&amp;'Общие данные'!N126&amp;" tomonidan "&amp;'Общие данные'!B143&amp;" yil "&amp;'Общие данные'!B145&amp;" "&amp;'Общие данные'!B144&amp;"da imzolangan 1-sonli garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;'Общие данные'!B134&amp;" rangli, ishlab chiqarilgan yili – "&amp;'Общие данные'!B135&amp;" yil,  dvigatel raqami "&amp;'Общие данные'!B131&amp;", shassi - "&amp;'Общие данные'!B132&amp;",  kuzov turi - "&amp;'Общие данные'!B128&amp;", kuzov raqami №"&amp;'Общие данные'!B129&amp;", davlat raqam belgisi "&amp;'Общие данные'!B126&amp;" bo'lgan "&amp;'Общие данные'!B125&amp;" rusumli avtomashinasi (bundan keyin “Garov predmeti”), egalik huquqiga ega  "&amp;'Общие данные'!B117&amp;"ga tegishli va kelishilgan garov qiymati "&amp;'Общие данные'!B143&amp;" yil "&amp;'Общие данные'!B145&amp;" "&amp;'Общие данные'!B144&amp;"da imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq "&amp;FIXED('Общие данные'!B136,2)&amp;" ("&amp;'Общие данные'!B138&amp;") so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi."</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 11 martda imzolangan 1-sonli garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq OQ BELIY rangli, ishlab chiqarilgan yili – 2014 yil,  dvigatel raqami JL466Q1%E61H022801, shassi - URINDIKLAR SONI 5TA,  kuzov turi - YUK BORTLI TENT, kuzov raqami №LSCAB23D8EG228387, davlat raqam belgisi 80T312WA bo'lgan CHANGAN CHANGAN SC 1027SB rusumli avtomashinasi (bundan keyin “Garov predmeti”), egalik huquqiga ega  NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli va kelishilgan garov qiymati 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq 40 500 000,00 (qirq million besh yuz ming so'm) so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi.</v>
       </c>
-      <c r="B29" s="308"/>
+      <c r="B29" s="299"/>
     </row>
     <row r="30" spans="1:11" ht="115.5" hidden="1" customHeight="1">
-      <c r="A30" s="309" t="str">
+      <c r="A30" s="304" t="str">
         <f>"3.1.1. "&amp;'Общие данные'!N126&amp;" tomonidan "&amp;'Общие данные'!B143&amp;" yil "&amp;'Общие данные'!B145&amp;" "&amp;'Общие данные'!B144&amp;"da imzolangan 1-sonli navbatdagi garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;'Общие данные'!B134&amp;" rangli, ishlab chiqarilgan yili – "&amp;'Общие данные'!B135&amp;" yil,  dvigatel raqami "&amp;'Общие данные'!B131&amp;", shassi - "&amp;'Общие данные'!B132&amp;",  kuzov turi - "&amp;'Общие данные'!B128&amp;", kuzov raqami №"&amp;'Общие данные'!B129&amp;", davlat raqam belgisi "&amp;'Общие данные'!B126&amp;" bo'lgan "&amp;'Общие данные'!B125&amp;" rusumli avtomashinasi (bundan keyin “navbatdagi garov predmeti”), egalik huquqiga ega  "&amp;'Общие данные'!B117&amp;"ga tegishli va kelishilgan garov qiymati "&amp;'Общие данные'!B143&amp;" yil "&amp;'Общие данные'!B145&amp;" "&amp;'Общие данные'!B144&amp;"da imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq "&amp;FIXED('Общие данные'!B136,2)&amp;" ("&amp;'Общие данные'!B138&amp;") so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi."</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 11 martda imzolangan 1-sonli navbatdagi garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq OQ BELIY rangli, ishlab chiqarilgan yili – 2014 yil,  dvigatel raqami JL466Q1%E61H022801, shassi - URINDIKLAR SONI 5TA,  kuzov turi - YUK BORTLI TENT, kuzov raqami №LSCAB23D8EG228387, davlat raqam belgisi 80T312WA bo'lgan CHANGAN CHANGAN SC 1027SB rusumli avtomashinasi (bundan keyin “navbatdagi garov predmeti”), egalik huquqiga ega  NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli va kelishilgan garov qiymati 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq 40 500 000,00 (qirq million besh yuz ming so'm) so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi.</v>
       </c>
-      <c r="B30" s="309"/>
+      <c r="B30" s="304"/>
     </row>
     <row r="31" spans="1:11" ht="117" customHeight="1">
-      <c r="A31" s="306" t="str">
+      <c r="A31" s="303" t="str">
         <f>CONCATENATE(A32,B32)</f>
         <v>3.2. Qonun hujjatlariga muvofiq rasmiylashtirilgan, “Garov predmeti” hisoblangan notarial tasdiqlangan garov shartnomasi, shu jumladan “Garov predmeti”ga taʼqiq quyilganligi tasdiqlovchi xujjat Qarz oluvchi tomonidan ushbu shartnoma tuzilgandan so‘ng 10 bank kuni mobaynida Mikromoliya tashkilotiga taqdim etilishi lozim. Garov shartnomasi belgilangan muddatda taqdim etilmagan hollarda, Mikromoliya tashkiloti Qarz oluvchining manziliga yozma bildirishnoma yuborish orqali mikroqarz berishni rad etish va / yoki ushbu shartnomani bir tomonlama bekor qilish huquqiga egadir. Bunda ushbu shartnoma Qarz oluvchi tomonidan talabnoma olingan vaqtda yoki talabnoma pochta  xizmati orqali yuborilgandan keyin uchinchi kuni bekor qilingan hisoblanadi.</v>
       </c>
-      <c r="B31" s="306"/>
+      <c r="B31" s="303"/>
     </row>
     <row r="32" spans="1:11" ht="94.5" hidden="1">
       <c r="A32" s="158" t="s">
@@ -8852,37 +8852,37 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="85.5" customHeight="1">
-      <c r="A34" s="306" t="s">
+      <c r="A34" s="303" t="s">
         <v>265</v>
       </c>
-      <c r="B34" s="306"/>
+      <c r="B34" s="303"/>
     </row>
     <row r="35" spans="1:8" ht="84" customHeight="1">
-      <c r="A35" s="306" t="s">
+      <c r="A35" s="303" t="s">
         <v>317</v>
       </c>
-      <c r="B35" s="306"/>
+      <c r="B35" s="303"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="303" t="s">
+      <c r="A37" s="306" t="s">
         <v>316</v>
       </c>
-      <c r="B37" s="303"/>
+      <c r="B37" s="306"/>
       <c r="C37" s="75"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="307" t="s">
+      <c r="A38" s="305" t="s">
         <v>315</v>
       </c>
-      <c r="B38" s="307"/>
+      <c r="B38" s="305"/>
     </row>
     <row r="39" spans="1:8" ht="114" customHeight="1">
-      <c r="A39" s="306" t="str">
+      <c r="A39" s="303" t="str">
         <f>CONCATENATE(C39,H39)</f>
         <v>4.1.1. Ushbu Shartnomada ko‘rsatilgan asoslar bo‘yicha Qarz oluvchiga Shartnomada ko‘zda tutilgan mikroqarz summasini berilishini to‘liq yoki qisman rad etish.
 4.1.2 “Mikromoliya Tashkiloti” qarz oluvchining nomidagi barcha plastik kartalaridan, xozirgi kunda mavjud va bundan so‘ng ochiladigan barcha xisob raqamlaridan (talab qilib olguncha, depozit jamg‘arib boriladigan plastik va boshqa istalgan xisob raqamlaridan) kredit to‘lovini kredit qaytarish jadvaliga asosan oyning kredit qarzdorligi qaytarilishi ko‘rsatilgan kuni akseptsiz tarzda yechib olish xuquqiga ega.Usbu bandda belgilangan harakatlarni amalga oshirish uchun bo‘lgan barcha xarajatlar Qarz oluvchi xisobidan qoplanadi</v>
       </c>
-      <c r="B39" s="306"/>
+      <c r="B39" s="303"/>
       <c r="C39" s="6" t="str">
         <f>"4.1.1. Ushbu Shartnomada ko‘rsatilgan asoslar bo‘yicha Qarz oluvchiga Shartnomada ko‘zda tutilgan "&amp;'Общие данные'!B65&amp;""</f>
         <v>4.1.1. Ushbu Shartnomada ko‘rsatilgan asoslar bo‘yicha Qarz oluvchiga Shartnomada ko‘zda tutilgan mikroqarz</v>
@@ -8892,105 +8892,105 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="39" customHeight="1">
-      <c r="A40" s="306" t="str">
+      <c r="A40" s="303" t="str">
         <f>"4.1.2.1. "&amp;'Общие данные'!C64&amp;" bo‘yicha qolgan barcha qarzdorlik, foiz to‘lovlarining muddatidan oldin qaytarilishini talab qilish, shuningdek, quyidagi holatlardan biri yuzaga kelganda undirishni garov ta'minotiga qaratish:"</f>
         <v>4.1.2.1. Mikroqarz bo‘yicha qolgan barcha qarzdorlik, foiz to‘lovlarining muddatidan oldin qaytarilishini talab qilish, shuningdek, quyidagi holatlardan biri yuzaga kelganda undirishni garov ta'minotiga qaratish:</v>
       </c>
-      <c r="B40" s="306"/>
+      <c r="B40" s="303"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="306" t="s">
+      <c r="A41" s="303" t="s">
         <v>318</v>
       </c>
-      <c r="B41" s="306"/>
+      <c r="B41" s="303"/>
     </row>
     <row r="42" spans="1:8" ht="33" customHeight="1">
-      <c r="A42" s="306" t="str">
+      <c r="A42" s="303" t="str">
         <f>"b) "&amp;'Общие данные'!B65&amp;" summasiga hisoblanadigan asosiy qarz bo‘yicha muddati o‘tgan qarzdorlik va/yoki foizlarning yuzaga kelishi;"</f>
         <v>b) mikroqarz summasiga hisoblanadigan asosiy qarz bo‘yicha muddati o‘tgan qarzdorlik va/yoki foizlarning yuzaga kelishi;</v>
       </c>
-      <c r="B42" s="306"/>
+      <c r="B42" s="303"/>
     </row>
     <row r="43" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A43" s="306" t="s">
+      <c r="A43" s="303" t="s">
         <v>319</v>
       </c>
-      <c r="B43" s="306"/>
+      <c r="B43" s="303"/>
     </row>
     <row r="44" spans="1:8" ht="52.5" customHeight="1">
-      <c r="A44" s="306" t="s">
+      <c r="A44" s="303" t="s">
         <v>320</v>
       </c>
-      <c r="B44" s="306"/>
+      <c r="B44" s="303"/>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A45" s="306" t="s">
+      <c r="A45" s="303" t="s">
         <v>321</v>
       </c>
-      <c r="B45" s="306"/>
+      <c r="B45" s="303"/>
     </row>
     <row r="46" spans="1:8" ht="51.75" customHeight="1">
-      <c r="A46" s="306" t="str">
+      <c r="A46" s="303" t="str">
         <f>"f) Qarz oluvchi "&amp;'Общие данные'!B65&amp;" summasini olish uchun Mikromoliya tashkilotiga "&amp;'Общие данные'!B65&amp;" taqdim etilishi to‘g‘risida ijobiy qaror qabul qilinishi uchun muhim hisoblangan masalalar bo‘yicha yolg‘on yoki to‘liq bo‘lmagan ma'lumotlarni taqdim etganligi aniqlanganda."</f>
         <v>f) Qarz oluvchi mikroqarz summasini olish uchun Mikromoliya tashkilotiga mikroqarz taqdim etilishi to‘g‘risida ijobiy qaror qabul qilinishi uchun muhim hisoblangan masalalar bo‘yicha yolg‘on yoki to‘liq bo‘lmagan ma'lumotlarni taqdim etganligi aniqlanganda.</v>
       </c>
-      <c r="B46" s="306"/>
+      <c r="B46" s="303"/>
     </row>
     <row r="47" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A47" s="306" t="s">
+      <c r="A47" s="303" t="s">
         <v>314</v>
       </c>
-      <c r="B47" s="306"/>
+      <c r="B47" s="303"/>
     </row>
     <row r="48" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A48" s="306" t="s">
+      <c r="A48" s="303" t="s">
         <v>313</v>
       </c>
-      <c r="B48" s="306"/>
+      <c r="B48" s="303"/>
       <c r="C48" s="158"/>
     </row>
     <row r="49" spans="1:8" ht="100.5" customHeight="1">
-      <c r="A49" s="301" t="s">
+      <c r="A49" s="298" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="301"/>
+      <c r="B49" s="298"/>
       <c r="C49" s="158"/>
     </row>
     <row r="50" spans="1:8" ht="70.5" customHeight="1">
-      <c r="A50" s="301" t="s">
+      <c r="A50" s="298" t="s">
         <v>311</v>
       </c>
-      <c r="B50" s="301"/>
+      <c r="B50" s="298"/>
       <c r="C50" s="158"/>
     </row>
     <row r="51" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A51" s="301" t="str">
+      <c r="A51" s="298" t="str">
         <f>"4.1.7. Qarz oluvchini oldindan ogohlantirmasdan "&amp;'Общие данные'!B65&amp;"ni qaytarish uchun haqiqatdan ham garov ta'minoti mavjudligini tekshirishni amalga oshirish."</f>
         <v>4.1.7. Qarz oluvchini oldindan ogohlantirmasdan mikroqarzni qaytarish uchun haqiqatdan ham garov ta'minoti mavjudligini tekshirishni amalga oshirish.</v>
       </c>
-      <c r="B51" s="301"/>
+      <c r="B51" s="298"/>
       <c r="C51" s="158"/>
     </row>
     <row r="52" spans="1:8" ht="33" customHeight="1">
-      <c r="A52" s="301" t="s">
+      <c r="A52" s="298" t="s">
         <v>322</v>
       </c>
-      <c r="B52" s="301"/>
+      <c r="B52" s="298"/>
       <c r="C52" s="158"/>
     </row>
     <row r="53" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A53" s="301" t="s">
+      <c r="A53" s="298" t="s">
         <v>310</v>
       </c>
-      <c r="B53" s="301"/>
+      <c r="B53" s="298"/>
       <c r="C53" s="158"/>
     </row>
     <row r="54" spans="1:8" ht="50.25" customHeight="1">
-      <c r="A54" s="301" t="str">
+      <c r="A54" s="298" t="str">
         <f>CONCATENATE(C54,H54)</f>
         <v>4.1.10. Qarz oluvchi taqdim etilgan mikroqarzdan Shartnoma tuzilgan kundan boshlab 1 (bir) oy davomida foydalanmagan holatlarda, bu haqda Qarz oluvchini yozma ravishda xabardor qilib, Shartnoma bir tomonlama bekor qilish. Yozma xabarni jo‘natish sanasi uni taqdim etish yoki pochta orqali jo‘natish sanasi hisoblanadi.</v>
       </c>
-      <c r="B54" s="301"/>
+      <c r="B54" s="298"/>
       <c r="C54" s="158" t="str">
         <f>"4.1.10. Qarz oluvchi taqdim etilgan "&amp;'Общие данные'!B65&amp;"dan Shartnoma tuzilgan kundan boshlab 1 (bir) oy davomida foydalanmagan"</f>
         <v>4.1.10. Qarz oluvchi taqdim etilgan mikroqarzdan Shartnoma tuzilgan kundan boshlab 1 (bir) oy davomida foydalanmagan</v>
@@ -9000,102 +9000,102 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A55" s="301" t="str">
+      <c r="A55" s="298" t="str">
         <f>"4.1.11. Oldingi "&amp;'Общие данные'!B65&amp;" to‘liq to‘lanmagunga qadar yangi "&amp;'Общие данные'!B65&amp;" berishni rad etish."</f>
         <v>4.1.11. Oldingi mikroqarz to‘liq to‘lanmagunga qadar yangi mikroqarz berishni rad etish.</v>
       </c>
-      <c r="B55" s="301"/>
+      <c r="B55" s="298"/>
       <c r="C55" s="158"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="302" t="s">
+      <c r="A57" s="301" t="s">
         <v>309</v>
       </c>
-      <c r="B57" s="302"/>
+      <c r="B57" s="301"/>
       <c r="C57" s="157"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="305" t="s">
+      <c r="A58" s="307" t="s">
         <v>308</v>
       </c>
-      <c r="B58" s="305"/>
+      <c r="B58" s="307"/>
       <c r="C58" s="159"/>
     </row>
     <row r="59" spans="1:8" ht="36" customHeight="1">
-      <c r="A59" s="301" t="str">
+      <c r="A59" s="298" t="str">
         <f>"5.1.1. Ushbu shartnomada nazarda tutilgan shartlar bo‘yicha "&amp;'Общие данные'!B65&amp;" olish, shuningdek, Mikromoliya tashkiloti tomonidan ko‘rsatiladigan pullik xizmatlardan foydalanish."</f>
         <v>5.1.1. Ushbu shartnomada nazarda tutilgan shartlar bo‘yicha mikroqarz olish, shuningdek, Mikromoliya tashkiloti tomonidan ko‘rsatiladigan pullik xizmatlardan foydalanish.</v>
       </c>
-      <c r="B59" s="301"/>
+      <c r="B59" s="298"/>
       <c r="C59" s="158"/>
     </row>
     <row r="60" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A60" s="301" t="str">
+      <c r="A60" s="298" t="str">
         <f>"5.1.2. Shartnoma tuzilgan kundan boshlab 2 (ikki) hafta mobaynida Mikromoliya tashkilotiga bu haqda yozma xabarnoma yo‘llash orqali "&amp;'Общие данные'!B65&amp;"ning foydalanilmagan summasidan voz kechish."</f>
         <v>5.1.2. Shartnoma tuzilgan kundan boshlab 2 (ikki) hafta mobaynida Mikromoliya tashkilotiga bu haqda yozma xabarnoma yo‘llash orqali mikroqarzning foydalanilmagan summasidan voz kechish.</v>
       </c>
-      <c r="B60" s="301"/>
+      <c r="B60" s="298"/>
       <c r="C60" s="158"/>
     </row>
     <row r="61" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A61" s="301" t="str">
+      <c r="A61" s="298" t="str">
         <f>"5.1.3. "&amp;'Общие данные'!C64&amp;" xizmatlari ko‘rsatish qoidalari bilan tanishish."</f>
         <v>5.1.3. Mikroqarz xizmatlari ko‘rsatish qoidalari bilan tanishish.</v>
       </c>
-      <c r="B61" s="301"/>
+      <c r="B61" s="298"/>
       <c r="C61" s="158"/>
     </row>
     <row r="62" spans="1:8" ht="36" customHeight="1">
-      <c r="A62" s="301" t="str">
+      <c r="A62" s="298" t="str">
         <f>"5.1.4. O‘z huquq va majburiyatlari, shu jumladan "&amp;'Общие данные'!B65&amp;" xizmatlari ko‘rsatish bilan bog‘liq barcha xarajatlar haqida aniq va to‘liq ma'lumot olish."</f>
         <v>5.1.4. O‘z huquq va majburiyatlari, shu jumladan mikroqarz xizmatlari ko‘rsatish bilan bog‘liq barcha xarajatlar haqida aniq va to‘liq ma'lumot olish.</v>
       </c>
-      <c r="B62" s="301"/>
+      <c r="B62" s="298"/>
       <c r="C62" s="158"/>
     </row>
     <row r="63" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A63" s="301" t="s">
+      <c r="A63" s="298" t="s">
         <v>323</v>
       </c>
-      <c r="B63" s="301"/>
+      <c r="B63" s="298"/>
       <c r="C63" s="158"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="305" t="s">
+      <c r="A64" s="307" t="s">
         <v>307</v>
       </c>
-      <c r="B64" s="305"/>
+      <c r="B64" s="307"/>
       <c r="C64" s="159"/>
     </row>
     <row r="65" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A65" s="301" t="str">
+      <c r="A65" s="298" t="str">
         <f>"5.2.1. Mikromoliya tashkilotining birinchi talabi bilan zarur hujjatlar, shuningdek "&amp;'Общие данные'!B65&amp;"dan foydalanishning butun davri davomida uning moliyaviy holati va to‘lash qobiliyatiga tegishli bo‘lgan ma'lumotlarni taqdim etish."</f>
         <v>5.2.1. Mikromoliya tashkilotining birinchi talabi bilan zarur hujjatlar, shuningdek mikroqarzdan foydalanishning butun davri davomida uning moliyaviy holati va to‘lash qobiliyatiga tegishli bo‘lgan ma'lumotlarni taqdim etish.</v>
       </c>
-      <c r="B65" s="301"/>
+      <c r="B65" s="298"/>
       <c r="C65" s="158"/>
     </row>
     <row r="66" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A66" s="301" t="s">
+      <c r="A66" s="298" t="s">
         <v>324</v>
       </c>
-      <c r="B66" s="301"/>
+      <c r="B66" s="298"/>
       <c r="C66" s="158"/>
     </row>
     <row r="67" spans="1:8" ht="27" customHeight="1">
-      <c r="A67" s="301" t="str">
+      <c r="A67" s="298" t="str">
         <f>"5.2.3. To‘lov jadvaliga muvofiq "&amp;'Общие данные'!B65&amp;", shuningdek hisoblangan foizlar to‘lovlarini amalga oshirish."</f>
         <v>5.2.3. To‘lov jadvaliga muvofiq mikroqarz, shuningdek hisoblangan foizlar to‘lovlarini amalga oshirish.</v>
       </c>
-      <c r="B67" s="301"/>
+      <c r="B67" s="298"/>
       <c r="C67" s="158"/>
     </row>
     <row r="68" spans="1:8" ht="84" customHeight="1">
-      <c r="A68" s="301" t="str">
+      <c r="A68" s="298" t="str">
         <f>CONCATENATE(C68,H68)</f>
         <v>5.2.4. Mikromoliya tashkiloti vakillariga o‘zlarining moliyaviy holati, yashash joyini tekshirishga, Mikromoliya tashkiloti foydasiga garovga qo‘yilgan mol-mulk saqlanishini tekshirishga ruxsat berish, shuningdek Qarz oluvchi ob'ektlaridan istalganiga tashrif buyurish va har qanday bino, inshoot, mol-mulk, asbob-uskunalar, tovarlar va xizmatlar, shuningdek ularning mikroqarz mablag‘lari hisobiga moliyalashtirilgan hujjatlarni ko‘zdan kechirish va Mikromoliya tashkiloti tomonidan ushbu huquqni amalga oshirishga to‘sqinlik qilmaslik majburiyatini oladi.</v>
       </c>
-      <c r="B68" s="301"/>
+      <c r="B68" s="298"/>
       <c r="C68" s="158" t="s">
         <v>342</v>
       </c>
@@ -9105,52 +9105,52 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A69" s="301" t="s">
+      <c r="A69" s="298" t="s">
         <v>325</v>
       </c>
-      <c r="B69" s="301"/>
+      <c r="B69" s="298"/>
       <c r="C69" s="158"/>
     </row>
     <row r="70" spans="1:8" ht="36" customHeight="1">
-      <c r="A70" s="301" t="str">
+      <c r="A70" s="298" t="str">
         <f>"5.2.6. Quyidagi holatlarda Mikromoliya tashkilotning birinchi talabi bilan "&amp;'Общие данные'!B65&amp;" qaytarilishi bo‘yicha qo‘shimcha garov ta'minotini taqdim etish: "</f>
         <v xml:space="preserve">5.2.6. Quyidagi holatlarda Mikromoliya tashkilotning birinchi talabi bilan mikroqarz qaytarilishi bo‘yicha qo‘shimcha garov ta'minotini taqdim etish: </v>
       </c>
-      <c r="B70" s="301"/>
+      <c r="B70" s="298"/>
       <c r="C70" s="158"/>
     </row>
     <row r="71" spans="1:8" ht="51.75" customHeight="1">
-      <c r="A71" s="304" t="s">
+      <c r="A71" s="300" t="s">
         <v>343</v>
       </c>
-      <c r="B71" s="304"/>
+      <c r="B71" s="300"/>
       <c r="C71" s="161"/>
     </row>
     <row r="72" spans="1:8" ht="71.25" customHeight="1">
-      <c r="A72" s="301" t="str">
+      <c r="A72" s="298" t="str">
         <f>"5.2.7. Sud qarori asosida Qarz oluvchi – jismoniy shaxsning muomalaga layoqatsizligi yoki muomalaga layoqati cheklangan yoxud to‘lash qobiliyatiga ega emasligi (bankrotligi) tan olinganda, uning vasiysi yoki homiysi "&amp;'Общие данные'!B65&amp;"ning asosiy summa bo‘yicha qarzdorlikni "&amp;'Общие данные'!B65&amp;"dan aniq foydalanish muddati uchun foizlar bilan kechiktirmasdan to‘liq to‘lashi shart."</f>
         <v>5.2.7. Sud qarori asosida Qarz oluvchi – jismoniy shaxsning muomalaga layoqatsizligi yoki muomalaga layoqati cheklangan yoxud to‘lash qobiliyatiga ega emasligi (bankrotligi) tan olinganda, uning vasiysi yoki homiysi mikroqarzning asosiy summa bo‘yicha qarzdorlikni mikroqarzdan aniq foydalanish muddati uchun foizlar bilan kechiktirmasdan to‘liq to‘lashi shart.</v>
       </c>
-      <c r="B72" s="301"/>
+      <c r="B72" s="298"/>
       <c r="C72" s="158"/>
     </row>
     <row r="73" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A73" s="301" t="str">
+      <c r="A73" s="298" t="str">
         <f>"5.2.8. Mikromoliya tashkilotining "&amp;'Общие данные'!B65&amp;" umumiy summasi va hisoblangan foizlarni muddatidan oldin qaytarish to‘g‘risidagi talabini kechiktirmasdan bajarish."</f>
         <v>5.2.8. Mikromoliya tashkilotining mikroqarz umumiy summasi va hisoblangan foizlarni muddatidan oldin qaytarish to‘g‘risidagi talabini kechiktirmasdan bajarish.</v>
       </c>
-      <c r="B73" s="301"/>
+      <c r="B73" s="298"/>
       <c r="C73" s="158"/>
       <c r="H73" s="6" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="68.25" customHeight="1">
-      <c r="A74" s="301" t="str">
+      <c r="A74" s="298" t="str">
         <f>CONCATENATE(C74,H74)</f>
         <v>5.2.9. Mikromoliya tashkilotining talabi bo‘yicha Mikromoliya tashkiloti ko‘rgan, shu jumladan mikroqarz bo‘yicha (asosiy qarz, foizlar va boshqalar) qarzdorlikni majburiy va/yoki muddatidan oldin qaytarish bo‘yicha qabul qilingan choralar bilan bog‘liq bo‘lgan barcha xarajatlari va zararlarni qoplash, shuningdek ushbu shartnoma doirasida unidruvni taqdim etilgan garov ta'minotiga qaratish.</v>
       </c>
-      <c r="B74" s="301"/>
+      <c r="B74" s="298"/>
       <c r="C74" s="158" t="str">
         <f>"5.2.9. Mikromoliya tashkilotining talabi bo‘yicha Mikromoliya tashkiloti ko‘rgan, shu jumladan "&amp;'Общие данные'!B65&amp;" bo‘yicha (asosiy qarz, foizlar va boshqalar)"</f>
         <v>5.2.9. Mikromoliya tashkilotining talabi bo‘yicha Mikromoliya tashkiloti ko‘rgan, shu jumladan mikroqarz bo‘yicha (asosiy qarz, foizlar va boshqalar)</v>
@@ -9163,18 +9163,18 @@
       <c r="A75" s="71"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="303" t="s">
+      <c r="A76" s="306" t="s">
         <v>306</v>
       </c>
-      <c r="B76" s="303"/>
+      <c r="B76" s="306"/>
       <c r="C76" s="160"/>
     </row>
     <row r="77" spans="1:8" ht="98.25" customHeight="1">
-      <c r="A77" s="301" t="str">
+      <c r="A77" s="298" t="str">
         <f>CONCATENATE(C77,H77)</f>
         <v>6.1. Mikromoliya tashkiloti tomonidan Qarz oluvchiga pul mablag‘larini ajratib berish bo‘yicha o‘z zimmasiga olgan majburiyatlarning Shartnomaning 1.1.-bandida keltirilgan summa va muddatlarda bajarilmaslik yoki tegishli tarzda bajarilmaslik holatlarida Mikromoliya tashkiloti muddatidan o‘tgan har bir kalendar kun uchun kechiktirilgan to‘lov summasining 0,1% miqdorida, biroq ushbu Shartnomaning 1.1.-bandida ko‘rsatilgan mikroqarz miqdori umumiy summasining 50% dan ko‘p bo‘lmagan miqdorda penya ko‘rinishidagi neustoyka to‘lash majburiyatini o‘z zimmasiga oladi.</v>
       </c>
-      <c r="B77" s="301"/>
+      <c r="B77" s="298"/>
       <c r="C77" s="158" t="s">
         <v>345</v>
       </c>
@@ -9184,213 +9184,213 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A78" s="301" t="s">
+      <c r="A78" s="298" t="s">
         <v>305</v>
       </c>
-      <c r="B78" s="301"/>
+      <c r="B78" s="298"/>
       <c r="C78" s="158"/>
     </row>
     <row r="79" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A79" s="301" t="s">
+      <c r="A79" s="298" t="s">
         <v>304</v>
       </c>
-      <c r="B79" s="301"/>
+      <c r="B79" s="298"/>
       <c r="C79" s="158"/>
     </row>
     <row r="80" spans="1:8" ht="33" customHeight="1">
-      <c r="A80" s="301" t="s">
+      <c r="A80" s="298" t="s">
         <v>303</v>
       </c>
-      <c r="B80" s="301"/>
+      <c r="B80" s="298"/>
       <c r="C80" s="158"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="295" t="s">
+      <c r="A82" s="290" t="s">
         <v>302</v>
       </c>
-      <c r="B82" s="295"/>
+      <c r="B82" s="290"/>
       <c r="C82" s="65"/>
     </row>
     <row r="83" spans="1:3" ht="162.75" customHeight="1">
-      <c r="A83" s="301" t="s">
+      <c r="A83" s="298" t="s">
         <v>301</v>
       </c>
-      <c r="B83" s="301"/>
+      <c r="B83" s="298"/>
       <c r="C83" s="158"/>
     </row>
     <row r="84" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A84" s="301" t="s">
+      <c r="A84" s="298" t="s">
         <v>346</v>
       </c>
-      <c r="B84" s="301"/>
+      <c r="B84" s="298"/>
       <c r="C84" s="158"/>
     </row>
     <row r="85" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A85" s="301" t="s">
+      <c r="A85" s="298" t="s">
         <v>300</v>
       </c>
-      <c r="B85" s="301"/>
+      <c r="B85" s="298"/>
       <c r="C85" s="158"/>
     </row>
     <row r="86" spans="1:3" ht="36" customHeight="1">
-      <c r="A86" s="301" t="s">
+      <c r="A86" s="298" t="s">
         <v>299</v>
       </c>
-      <c r="B86" s="301"/>
+      <c r="B86" s="298"/>
       <c r="C86" s="158"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="295" t="s">
+      <c r="A88" s="290" t="s">
         <v>298</v>
       </c>
-      <c r="B88" s="295"/>
+      <c r="B88" s="290"/>
       <c r="C88" s="65"/>
     </row>
     <row r="89" spans="1:3" ht="114.75" customHeight="1">
-      <c r="A89" s="301" t="s">
+      <c r="A89" s="298" t="s">
         <v>360</v>
       </c>
-      <c r="B89" s="301"/>
+      <c r="B89" s="298"/>
       <c r="C89" s="158"/>
     </row>
     <row r="90" spans="1:3" ht="36" customHeight="1">
-      <c r="A90" s="301" t="s">
+      <c r="A90" s="298" t="s">
         <v>326</v>
       </c>
-      <c r="B90" s="301"/>
+      <c r="B90" s="298"/>
       <c r="C90" s="158"/>
     </row>
     <row r="91" spans="1:3" ht="64.5" customHeight="1">
-      <c r="A91" s="301" t="str">
+      <c r="A91" s="298" t="str">
         <f>"8.2. Mikromoliya tashkiloti sud organlariga murojaat qilganidan keyin Qarz oluvchi tomonidan "&amp;'Общие данные'!B65&amp;" bo‘yicha muddati o‘tgan qarzdorlikning to‘lanishi Mikromoliya tashkilotning "&amp;'Общие данные'!B65&amp;" bo‘yicha qarzdorlikni muddatidan avval undirish, shu jumladan undiruvni garovdagi mol-mulkka qaratish yo‘li bilan undirish huquqidan mahrum qilmaydi."</f>
         <v>8.2. Mikromoliya tashkiloti sud organlariga murojaat qilganidan keyin Qarz oluvchi tomonidan mikroqarz bo‘yicha muddati o‘tgan qarzdorlikning to‘lanishi Mikromoliya tashkilotning mikroqarz bo‘yicha qarzdorlikni muddatidan avval undirish, shu jumladan undiruvni garovdagi mol-mulkka qaratish yo‘li bilan undirish huquqidan mahrum qilmaydi.</v>
       </c>
-      <c r="B91" s="301"/>
+      <c r="B91" s="298"/>
       <c r="C91" s="158"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="300" t="s">
+      <c r="A93" s="308" t="s">
         <v>297</v>
       </c>
-      <c r="B93" s="300"/>
+      <c r="B93" s="308"/>
       <c r="C93" s="73"/>
     </row>
     <row r="94" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A94" s="301" t="s">
+      <c r="A94" s="298" t="s">
         <v>296</v>
       </c>
-      <c r="B94" s="301"/>
+      <c r="B94" s="298"/>
       <c r="C94" s="158"/>
     </row>
     <row r="95" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A95" s="301" t="str">
+      <c r="A95" s="298" t="str">
         <f>"9.2. Shartnomaning amal qilish muddati Qarz oluvchi "&amp;'Общие данные'!B65&amp;"ni to‘liq qaytargan, hisoblangan foizlar, penya va boshqa pul majburiyatlarini to‘lagan kunda yakunlanadi."</f>
         <v>9.2. Shartnomaning amal qilish muddati Qarz oluvchi mikroqarzni to‘liq qaytargan, hisoblangan foizlar, penya va boshqa pul majburiyatlarini to‘lagan kunda yakunlanadi.</v>
       </c>
-      <c r="B95" s="301"/>
+      <c r="B95" s="298"/>
       <c r="C95" s="158"/>
     </row>
     <row r="96" spans="1:3" ht="51" customHeight="1">
-      <c r="A96" s="301" t="s">
+      <c r="A96" s="298" t="s">
         <v>295</v>
       </c>
-      <c r="B96" s="301"/>
+      <c r="B96" s="298"/>
       <c r="C96" s="158"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="302" t="s">
+      <c r="A98" s="301" t="s">
         <v>294</v>
       </c>
-      <c r="B98" s="302"/>
+      <c r="B98" s="301"/>
       <c r="C98" s="64"/>
     </row>
     <row r="99" spans="1:3" ht="82.5" customHeight="1">
-      <c r="A99" s="301" t="s">
+      <c r="A99" s="298" t="s">
         <v>293</v>
       </c>
-      <c r="B99" s="301"/>
+      <c r="B99" s="298"/>
       <c r="C99" s="158"/>
     </row>
     <row r="100" spans="1:3" ht="66" customHeight="1">
-      <c r="A100" s="301" t="s">
+      <c r="A100" s="298" t="s">
         <v>292</v>
       </c>
-      <c r="B100" s="301"/>
+      <c r="B100" s="298"/>
       <c r="C100" s="158"/>
     </row>
     <row r="101" spans="1:3" ht="48" customHeight="1">
-      <c r="A101" s="301" t="s">
+      <c r="A101" s="298" t="s">
         <v>291</v>
       </c>
-      <c r="B101" s="301"/>
+      <c r="B101" s="298"/>
       <c r="C101" s="158"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="295" t="s">
+      <c r="A103" s="290" t="s">
         <v>290</v>
       </c>
-      <c r="B103" s="295"/>
+      <c r="B103" s="290"/>
       <c r="C103" s="144"/>
     </row>
     <row r="104" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A104" s="301" t="s">
+      <c r="A104" s="298" t="s">
         <v>289</v>
       </c>
-      <c r="B104" s="301"/>
+      <c r="B104" s="298"/>
       <c r="C104" s="158"/>
     </row>
     <row r="105" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A105" s="301" t="s">
+      <c r="A105" s="298" t="s">
         <v>288</v>
       </c>
-      <c r="B105" s="301"/>
+      <c r="B105" s="298"/>
       <c r="C105" s="158"/>
     </row>
     <row r="106" spans="1:3" ht="66.75" customHeight="1">
-      <c r="A106" s="301" t="s">
+      <c r="A106" s="298" t="s">
         <v>287</v>
       </c>
-      <c r="B106" s="301"/>
+      <c r="B106" s="298"/>
       <c r="C106" s="158"/>
     </row>
     <row r="107" spans="1:3" ht="51" customHeight="1">
-      <c r="A107" s="301" t="s">
+      <c r="A107" s="298" t="s">
         <v>286</v>
       </c>
-      <c r="B107" s="301"/>
+      <c r="B107" s="298"/>
       <c r="C107" s="158"/>
     </row>
     <row r="108" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A108" s="301" t="s">
+      <c r="A108" s="298" t="s">
         <v>285</v>
       </c>
-      <c r="B108" s="301"/>
+      <c r="B108" s="298"/>
       <c r="C108" s="158"/>
     </row>
     <row r="109" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A109" s="301" t="s">
+      <c r="A109" s="298" t="s">
         <v>284</v>
       </c>
-      <c r="B109" s="301"/>
+      <c r="B109" s="298"/>
       <c r="C109" s="158"/>
     </row>
     <row r="110" spans="1:3" ht="21" customHeight="1">
-      <c r="A110" s="301" t="s">
+      <c r="A110" s="298" t="s">
         <v>283</v>
       </c>
-      <c r="B110" s="301"/>
+      <c r="B110" s="298"/>
       <c r="C110" s="158"/>
     </row>
     <row r="111" spans="1:3" ht="32.25" customHeight="1">
-      <c r="A111" s="301"/>
-      <c r="B111" s="301"/>
+      <c r="A111" s="298"/>
+      <c r="B111" s="298"/>
       <c r="C111" s="158"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="300" t="s">
+      <c r="A113" s="308" t="s">
         <v>327</v>
       </c>
-      <c r="B113" s="300"/>
+      <c r="B113" s="308"/>
       <c r="C113" s="73"/>
     </row>
     <row r="115" spans="1:3">
@@ -9467,13 +9467,13 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="299" t="str">
+      <c r="A126" s="309" t="str">
         <f>'Общие данные'!A161</f>
         <v>Olmaliq filiali boshlig'i</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="299"/>
+      <c r="A127" s="309"/>
       <c r="B127" s="65" t="str">
         <f>""&amp;'Общие данные'!B7&amp;"     __________________"</f>
         <v>NUTFULLAYEV A.A.     __________________</v>
@@ -9499,6 +9499,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A25:B25"/>
@@ -9515,89 +9598,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9641,8 +9641,8 @@
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
-      <c r="E2" s="257"/>
-      <c r="F2" s="257"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="77.25" customHeight="1">
@@ -9670,36 +9670,36 @@
       <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="264" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="258"/>
+      <c r="B5" s="264"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
     </row>
     <row r="6" spans="1:16" ht="7.5" customHeight="1"/>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="259" t="s">
+      <c r="A7" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="260" t="s">
+      <c r="B7" s="266" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="260" t="s">
+      <c r="C7" s="266" t="s">
         <v>268</v>
       </c>
-      <c r="D7" s="261" t="s">
+      <c r="D7" s="267" t="s">
         <v>269</v>
       </c>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
+      <c r="E7" s="267"/>
+      <c r="F7" s="267"/>
     </row>
     <row r="8" spans="1:16" s="16" customFormat="1">
-      <c r="A8" s="259"/>
-      <c r="B8" s="260"/>
-      <c r="C8" s="260"/>
+      <c r="A8" s="265"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="266"/>
       <c r="D8" s="17" t="s">
         <v>270</v>
       </c>
@@ -9809,17 +9809,17 @@
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!F11,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!F11))</f>
         <v>2051917.76</v>
       </c>
-      <c r="H12" s="313" t="s">
+      <c r="H12" s="310" t="s">
         <v>378</v>
       </c>
-      <c r="I12" s="313"/>
-      <c r="J12" s="313"/>
-      <c r="K12" s="313"/>
-      <c r="L12" s="313"/>
-      <c r="M12" s="313"/>
-      <c r="N12" s="313"/>
-      <c r="O12" s="313"/>
-      <c r="P12" s="313"/>
+      <c r="I12" s="310"/>
+      <c r="J12" s="310"/>
+      <c r="K12" s="310"/>
+      <c r="L12" s="310"/>
+      <c r="M12" s="310"/>
+      <c r="N12" s="310"/>
+      <c r="O12" s="310"/>
+      <c r="P12" s="310"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="18">
@@ -9845,15 +9845,15 @@
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!F12,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!F12))</f>
         <v>1894109.4500000002</v>
       </c>
-      <c r="H13" s="313"/>
-      <c r="I13" s="313"/>
-      <c r="J13" s="313"/>
-      <c r="K13" s="313"/>
-      <c r="L13" s="313"/>
-      <c r="M13" s="313"/>
-      <c r="N13" s="313"/>
-      <c r="O13" s="313"/>
-      <c r="P13" s="313"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="310"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="310"/>
+      <c r="M13" s="310"/>
+      <c r="N13" s="310"/>
+      <c r="O13" s="310"/>
+      <c r="P13" s="310"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="18">
@@ -9879,15 +9879,15 @@
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!F13,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!F13))</f>
         <v>1934794.58</v>
       </c>
-      <c r="H14" s="313"/>
-      <c r="I14" s="313"/>
-      <c r="J14" s="313"/>
-      <c r="K14" s="313"/>
-      <c r="L14" s="313"/>
-      <c r="M14" s="313"/>
-      <c r="N14" s="313"/>
-      <c r="O14" s="313"/>
-      <c r="P14" s="313"/>
+      <c r="H14" s="310"/>
+      <c r="I14" s="310"/>
+      <c r="J14" s="310"/>
+      <c r="K14" s="310"/>
+      <c r="L14" s="310"/>
+      <c r="M14" s="310"/>
+      <c r="N14" s="310"/>
+      <c r="O14" s="310"/>
+      <c r="P14" s="310"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="18">
@@ -9913,15 +9913,15 @@
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!F14,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!F14))</f>
         <v>1896575.3</v>
       </c>
-      <c r="H15" s="313"/>
-      <c r="I15" s="313"/>
-      <c r="J15" s="313"/>
-      <c r="K15" s="313"/>
-      <c r="L15" s="313"/>
-      <c r="M15" s="313"/>
-      <c r="N15" s="313"/>
-      <c r="O15" s="313"/>
-      <c r="P15" s="313"/>
+      <c r="H15" s="310"/>
+      <c r="I15" s="310"/>
+      <c r="J15" s="310"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="310"/>
+      <c r="M15" s="310"/>
+      <c r="N15" s="310"/>
+      <c r="O15" s="310"/>
+      <c r="P15" s="310"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="18">
@@ -9947,15 +9947,15 @@
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!F15,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!F15))</f>
         <v>1822602.5999999999</v>
       </c>
-      <c r="H16" s="313"/>
-      <c r="I16" s="313"/>
-      <c r="J16" s="313"/>
-      <c r="K16" s="313"/>
-      <c r="L16" s="313"/>
-      <c r="M16" s="313"/>
-      <c r="N16" s="313"/>
-      <c r="O16" s="313"/>
-      <c r="P16" s="313"/>
+      <c r="H16" s="310"/>
+      <c r="I16" s="310"/>
+      <c r="J16" s="310"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="310"/>
+      <c r="M16" s="310"/>
+      <c r="N16" s="310"/>
+      <c r="O16" s="310"/>
+      <c r="P16" s="310"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="18">
@@ -9981,15 +9981,15 @@
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!F16,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!F16))</f>
         <v>1785616.5</v>
       </c>
-      <c r="H17" s="313"/>
-      <c r="I17" s="313"/>
-      <c r="J17" s="313"/>
-      <c r="K17" s="313"/>
-      <c r="L17" s="313"/>
-      <c r="M17" s="313"/>
-      <c r="N17" s="313"/>
-      <c r="O17" s="313"/>
-      <c r="P17" s="313"/>
+      <c r="H17" s="310"/>
+      <c r="I17" s="310"/>
+      <c r="J17" s="310"/>
+      <c r="K17" s="310"/>
+      <c r="L17" s="310"/>
+      <c r="M17" s="310"/>
+      <c r="N17" s="310"/>
+      <c r="O17" s="310"/>
+      <c r="P17" s="310"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="18">
@@ -10015,15 +10015,15 @@
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!F17,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!F17))</f>
         <v>1781917.77</v>
       </c>
-      <c r="H18" s="313"/>
-      <c r="I18" s="313"/>
-      <c r="J18" s="313"/>
-      <c r="K18" s="313"/>
-      <c r="L18" s="313"/>
-      <c r="M18" s="313"/>
-      <c r="N18" s="313"/>
-      <c r="O18" s="313"/>
-      <c r="P18" s="313"/>
+      <c r="H18" s="310"/>
+      <c r="I18" s="310"/>
+      <c r="J18" s="310"/>
+      <c r="K18" s="310"/>
+      <c r="L18" s="310"/>
+      <c r="M18" s="310"/>
+      <c r="N18" s="310"/>
+      <c r="O18" s="310"/>
+      <c r="P18" s="310"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="18">
@@ -10049,15 +10049,15 @@
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!F18,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!F18))</f>
         <v>1743698.49</v>
       </c>
-      <c r="H19" s="313"/>
-      <c r="I19" s="313"/>
-      <c r="J19" s="313"/>
-      <c r="K19" s="313"/>
-      <c r="L19" s="313"/>
-      <c r="M19" s="313"/>
-      <c r="N19" s="313"/>
-      <c r="O19" s="313"/>
-      <c r="P19" s="313"/>
+      <c r="H19" s="310"/>
+      <c r="I19" s="310"/>
+      <c r="J19" s="310"/>
+      <c r="K19" s="310"/>
+      <c r="L19" s="310"/>
+      <c r="M19" s="310"/>
+      <c r="N19" s="310"/>
+      <c r="O19" s="310"/>
+      <c r="P19" s="310"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="18">
@@ -10083,15 +10083,15 @@
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!F19,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!F19))</f>
         <v>1613013.76</v>
       </c>
-      <c r="H20" s="313"/>
-      <c r="I20" s="313"/>
-      <c r="J20" s="313"/>
-      <c r="K20" s="313"/>
-      <c r="L20" s="313"/>
-      <c r="M20" s="313"/>
-      <c r="N20" s="313"/>
-      <c r="O20" s="313"/>
-      <c r="P20" s="313"/>
+      <c r="H20" s="310"/>
+      <c r="I20" s="310"/>
+      <c r="J20" s="310"/>
+      <c r="K20" s="310"/>
+      <c r="L20" s="310"/>
+      <c r="M20" s="310"/>
+      <c r="N20" s="310"/>
+      <c r="O20" s="310"/>
+      <c r="P20" s="310"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="18">
@@ -10117,15 +10117,15 @@
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!F20,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!F20))</f>
         <v>1696849.28</v>
       </c>
-      <c r="H21" s="313"/>
-      <c r="I21" s="313"/>
-      <c r="J21" s="313"/>
-      <c r="K21" s="313"/>
-      <c r="L21" s="313"/>
-      <c r="M21" s="313"/>
-      <c r="N21" s="313"/>
-      <c r="O21" s="313"/>
-      <c r="P21" s="313"/>
+      <c r="H21" s="310"/>
+      <c r="I21" s="310"/>
+      <c r="J21" s="310"/>
+      <c r="K21" s="310"/>
+      <c r="L21" s="310"/>
+      <c r="M21" s="310"/>
+      <c r="N21" s="310"/>
+      <c r="O21" s="310"/>
+      <c r="P21" s="310"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="18">
@@ -10151,15 +10151,15 @@
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!F21,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!F21))</f>
         <v>1572328.6400000001</v>
       </c>
-      <c r="H22" s="313"/>
-      <c r="I22" s="313"/>
-      <c r="J22" s="313"/>
-      <c r="K22" s="313"/>
-      <c r="L22" s="313"/>
-      <c r="M22" s="313"/>
-      <c r="N22" s="313"/>
-      <c r="O22" s="313"/>
-      <c r="P22" s="313"/>
+      <c r="H22" s="310"/>
+      <c r="I22" s="310"/>
+      <c r="J22" s="310"/>
+      <c r="K22" s="310"/>
+      <c r="L22" s="310"/>
+      <c r="M22" s="310"/>
+      <c r="N22" s="310"/>
+      <c r="O22" s="310"/>
+      <c r="P22" s="310"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="18">
@@ -10185,15 +10185,15 @@
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!F22,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!F22))</f>
         <v>1590821.99</v>
       </c>
-      <c r="H23" s="313"/>
-      <c r="I23" s="313"/>
-      <c r="J23" s="313"/>
-      <c r="K23" s="313"/>
-      <c r="L23" s="313"/>
-      <c r="M23" s="313"/>
-      <c r="N23" s="313"/>
-      <c r="O23" s="313"/>
-      <c r="P23" s="313"/>
+      <c r="H23" s="310"/>
+      <c r="I23" s="310"/>
+      <c r="J23" s="310"/>
+      <c r="K23" s="310"/>
+      <c r="L23" s="310"/>
+      <c r="M23" s="310"/>
+      <c r="N23" s="310"/>
+      <c r="O23" s="310"/>
+      <c r="P23" s="310"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="18">
@@ -10219,15 +10219,15 @@
         <f>IF('Общие данные'!$B$77='Общие данные'!$C$77,'График дифференц'!F23,IF('Общие данные'!$B$77='Общие данные'!$D$77,'График аннуитет.'!F23))</f>
         <v>1552602.71</v>
       </c>
-      <c r="H24" s="313"/>
-      <c r="I24" s="313"/>
-      <c r="J24" s="313"/>
-      <c r="K24" s="313"/>
-      <c r="L24" s="313"/>
-      <c r="M24" s="313"/>
-      <c r="N24" s="313"/>
-      <c r="O24" s="313"/>
-      <c r="P24" s="313"/>
+      <c r="H24" s="310"/>
+      <c r="I24" s="310"/>
+      <c r="J24" s="310"/>
+      <c r="K24" s="310"/>
+      <c r="L24" s="310"/>
+      <c r="M24" s="310"/>
+      <c r="N24" s="310"/>
+      <c r="O24" s="310"/>
+      <c r="P24" s="310"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1">
       <c r="A25" s="18">
@@ -10774,210 +10774,236 @@
       <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A47" s="235" t="str">
+      <c r="A47" s="233" t="str">
         <f>"*"&amp;'Общие данные'!C64&amp;" bo‘yicha to‘lovlar to‘lov jadvalida ko‘rsatilmagan sanalarda to‘langan taqdirda, to‘lov summasi mikroqarz shartnomasining 2.2.-bandiga muvofiq "&amp;'Общие данные'!B65&amp;" qoldig‘iga hisoblangan foizlar summasiga o‘zgartiriladi."</f>
         <v>*Mikroqarz bo‘yicha to‘lovlar to‘lov jadvalida ko‘rsatilmagan sanalarda to‘langan taqdirda, to‘lov summasi mikroqarz shartnomasining 2.2.-bandiga muvofiq mikroqarz qoldig‘iga hisoblangan foizlar summasiga o‘zgartiriladi.</v>
       </c>
-      <c r="B47" s="235"/>
-      <c r="C47" s="235"/>
-      <c r="D47" s="235"/>
-      <c r="E47" s="235"/>
-      <c r="F47" s="235"/>
+      <c r="B47" s="233"/>
+      <c r="C47" s="233"/>
+      <c r="D47" s="233"/>
+      <c r="E47" s="233"/>
+      <c r="F47" s="233"/>
     </row>
     <row r="48" spans="1:6" ht="7.5" customHeight="1"/>
     <row r="49" spans="1:6" ht="15" customHeight="1">
-      <c r="A49" s="263" t="s">
+      <c r="A49" s="261" t="s">
         <v>273</v>
       </c>
-      <c r="B49" s="263"/>
-      <c r="C49" s="263"/>
-      <c r="D49" s="263" t="s">
+      <c r="B49" s="261"/>
+      <c r="C49" s="261"/>
+      <c r="D49" s="261" t="s">
         <v>281</v>
       </c>
-      <c r="E49" s="263"/>
-      <c r="F49" s="263"/>
+      <c r="E49" s="261"/>
+      <c r="F49" s="261"/>
     </row>
     <row r="50" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A50" s="264"/>
-      <c r="B50" s="264"/>
-      <c r="C50" s="264"/>
-      <c r="D50" s="264"/>
-      <c r="E50" s="264"/>
-      <c r="F50" s="264"/>
+      <c r="A50" s="262"/>
+      <c r="B50" s="262"/>
+      <c r="C50" s="262"/>
+      <c r="D50" s="262"/>
+      <c r="E50" s="262"/>
+      <c r="F50" s="262"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1">
-      <c r="A51" s="265" t="str">
+      <c r="A51" s="260" t="str">
         <f>договор!A117</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ</v>
       </c>
-      <c r="B51" s="265"/>
-      <c r="C51" s="265"/>
-      <c r="D51" s="265" t="str">
+      <c r="B51" s="260"/>
+      <c r="C51" s="260"/>
+      <c r="D51" s="260" t="str">
         <f>договор!B117</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="E51" s="265"/>
-      <c r="F51" s="265"/>
+      <c r="E51" s="260"/>
+      <c r="F51" s="260"/>
     </row>
     <row r="52" spans="1:6" ht="39" customHeight="1">
-      <c r="A52" s="262" t="str">
+      <c r="A52" s="256" t="str">
         <f>договор!A119</f>
         <v>Manzil: Toshkent shahri, Olmazor tumani, Sagbon ko'chasi, 30 boshi berk, 6-uy</v>
       </c>
-      <c r="B52" s="262"/>
-      <c r="C52" s="262"/>
-      <c r="D52" s="262" t="str">
+      <c r="B52" s="256"/>
+      <c r="C52" s="256"/>
+      <c r="D52" s="256" t="str">
         <f>договор!B119</f>
         <v>Manzil: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY</v>
       </c>
-      <c r="E52" s="262"/>
-      <c r="F52" s="262"/>
+      <c r="E52" s="256"/>
+      <c r="F52" s="256"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1">
-      <c r="A53" s="262" t="str">
+      <c r="A53" s="256" t="str">
         <f>договор!A120</f>
         <v>h/r: №20216000705068380001</v>
       </c>
-      <c r="B53" s="262"/>
-      <c r="C53" s="262"/>
-      <c r="D53" s="262" t="str">
+      <c r="B53" s="256"/>
+      <c r="C53" s="256"/>
+      <c r="D53" s="256" t="str">
         <f>договор!B121</f>
         <v>pasport seriyasi: AA 9481167, BUXORO VILOYATI BUXORO SHAHAR IIB tomonidan 24.04.2015 yilda berilgan</v>
       </c>
-      <c r="E53" s="262"/>
-      <c r="F53" s="262"/>
+      <c r="E53" s="256"/>
+      <c r="F53" s="256"/>
     </row>
     <row r="54" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A54" s="262" t="str">
+      <c r="A54" s="256" t="str">
         <f>договор!A121</f>
         <v>MFO: №01042 в ATB “Kapitalbank” Sergeli filiali</v>
       </c>
-      <c r="B54" s="262"/>
-      <c r="C54" s="262"/>
-      <c r="D54" s="262"/>
-      <c r="E54" s="262"/>
-      <c r="F54" s="262"/>
+      <c r="B54" s="256"/>
+      <c r="C54" s="256"/>
+      <c r="D54" s="256"/>
+      <c r="E54" s="256"/>
+      <c r="F54" s="256"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
-      <c r="A55" s="262" t="str">
+      <c r="A55" s="256" t="str">
         <f>договор!A122</f>
         <v>STIR: 306365847</v>
       </c>
-      <c r="B55" s="262"/>
-      <c r="C55" s="262"/>
-      <c r="D55" s="262" t="str">
+      <c r="B55" s="256"/>
+      <c r="C55" s="256"/>
+      <c r="D55" s="256" t="str">
         <f>договор!B122</f>
         <v>Tel: 91 408 76 67  UZI</v>
       </c>
-      <c r="E55" s="262"/>
-      <c r="F55" s="262"/>
+      <c r="E55" s="256"/>
+      <c r="F55" s="256"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
-      <c r="A56" s="262" t="str">
+      <c r="A56" s="256" t="str">
         <f>договор!A123</f>
         <v>Tel: (78) 113 31 33</v>
       </c>
-      <c r="B56" s="262"/>
-      <c r="C56" s="262"/>
-      <c r="D56" s="262" t="str">
+      <c r="B56" s="256"/>
+      <c r="C56" s="256"/>
+      <c r="D56" s="256" t="str">
         <f>договор!B123</f>
         <v>88 305 76 67 AYOLI</v>
       </c>
-      <c r="E56" s="262"/>
-      <c r="F56" s="262"/>
+      <c r="E56" s="256"/>
+      <c r="F56" s="256"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
-      <c r="A57" s="262" t="str">
+      <c r="A57" s="256" t="str">
         <f>договор!A124</f>
         <v>(78) 113 31 34</v>
       </c>
-      <c r="B57" s="262"/>
-      <c r="C57" s="262"/>
-      <c r="D57" s="262" t="str">
+      <c r="B57" s="256"/>
+      <c r="C57" s="256"/>
+      <c r="D57" s="256" t="str">
         <f>договор!B124</f>
         <v>88 870 76 67 AKASI</v>
       </c>
-      <c r="E57" s="262"/>
-      <c r="F57" s="262"/>
+      <c r="E57" s="256"/>
+      <c r="F57" s="256"/>
     </row>
     <row r="58" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A58" s="262"/>
-      <c r="B58" s="262"/>
-      <c r="C58" s="262"/>
-      <c r="D58" s="262" t="str">
+      <c r="A58" s="256"/>
+      <c r="B58" s="256"/>
+      <c r="C58" s="256"/>
+      <c r="D58" s="256" t="str">
         <f>IF(договор!B125=0,"",договор!B125)</f>
         <v/>
       </c>
-      <c r="E58" s="262"/>
-      <c r="F58" s="262"/>
+      <c r="E58" s="256"/>
+      <c r="F58" s="256"/>
     </row>
     <row r="59" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A59" s="314" t="str">
+      <c r="A59" s="311" t="str">
         <f>'Общие данные'!A161</f>
         <v>Olmaliq filiali boshlig'i</v>
       </c>
-      <c r="B59" s="314"/>
-      <c r="C59" s="314"/>
-      <c r="D59" s="265" t="str">
+      <c r="B59" s="311"/>
+      <c r="C59" s="311"/>
+      <c r="D59" s="260" t="str">
         <f>договор!B127</f>
         <v>NUTFULLAYEV A.A.     __________________</v>
       </c>
-      <c r="E59" s="265"/>
-      <c r="F59" s="265"/>
+      <c r="E59" s="260"/>
+      <c r="F59" s="260"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
-      <c r="A60" s="262"/>
-      <c r="B60" s="262"/>
-      <c r="C60" s="262"/>
-      <c r="D60" s="265"/>
-      <c r="E60" s="265"/>
-      <c r="F60" s="265"/>
+      <c r="A60" s="256"/>
+      <c r="B60" s="256"/>
+      <c r="C60" s="256"/>
+      <c r="D60" s="260"/>
+      <c r="E60" s="260"/>
+      <c r="F60" s="260"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="314" t="str">
+      <c r="A61" s="311" t="str">
         <f>договор!A129</f>
         <v>V. Yerjanov     __________________</v>
       </c>
-      <c r="B61" s="314"/>
-      <c r="C61" s="314"/>
-      <c r="D61" s="265"/>
-      <c r="E61" s="265"/>
-      <c r="F61" s="265"/>
+      <c r="B61" s="311"/>
+      <c r="C61" s="311"/>
+      <c r="D61" s="260"/>
+      <c r="E61" s="260"/>
+      <c r="F61" s="260"/>
     </row>
     <row r="62" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A62" s="262"/>
-      <c r="B62" s="262"/>
-      <c r="C62" s="262"/>
-      <c r="D62" s="262"/>
-      <c r="E62" s="262"/>
-      <c r="F62" s="262"/>
+      <c r="A62" s="256"/>
+      <c r="B62" s="256"/>
+      <c r="C62" s="256"/>
+      <c r="D62" s="256"/>
+      <c r="E62" s="256"/>
+      <c r="F62" s="256"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1">
-      <c r="A63" s="267"/>
-      <c r="B63" s="267"/>
-      <c r="C63" s="267"/>
-      <c r="D63" s="268"/>
-      <c r="E63" s="268"/>
-      <c r="F63" s="268"/>
+      <c r="A63" s="257"/>
+      <c r="B63" s="257"/>
+      <c r="C63" s="257"/>
+      <c r="D63" s="258"/>
+      <c r="E63" s="258"/>
+      <c r="F63" s="258"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="269"/>
-      <c r="B64" s="269"/>
-      <c r="C64" s="269"/>
-      <c r="D64" s="269"/>
-      <c r="E64" s="269"/>
-      <c r="F64" s="269"/>
+      <c r="A64" s="259"/>
+      <c r="B64" s="259"/>
+      <c r="C64" s="259"/>
+      <c r="D64" s="259"/>
+      <c r="E64" s="259"/>
+      <c r="F64" s="259"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="266"/>
-      <c r="B65" s="266"/>
-      <c r="C65" s="266"/>
-      <c r="D65" s="266"/>
-      <c r="E65" s="266"/>
-      <c r="F65" s="266"/>
+      <c r="A65" s="255"/>
+      <c r="B65" s="255"/>
+      <c r="C65" s="255"/>
+      <c r="D65" s="255"/>
+      <c r="E65" s="255"/>
+      <c r="F65" s="255"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F54"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
     <mergeCell ref="H12:P24"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="D65:F65"/>
@@ -10994,32 +11020,6 @@
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="D61:F61"/>
     <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:F54"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:B44">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -11095,25 +11095,25 @@
     </row>
     <row r="12" spans="1:2"/>
     <row r="13" spans="1:2" ht="115.5" customHeight="1">
-      <c r="A13" s="294" t="str">
+      <c r="A13" s="293" t="str">
         <f>IF('Общие данные'!B103="Avtotransport",A14,A15)</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICH tomonidan so’ralayotgan 36 (o'ttiz olti) oy muddatga, 27 000 000 (yigirma yetti million so'm) miqdoridagi mikroqarzning ta’minoti sifatida menga mulk huquqi asosida tegishli bo’lgan  CHANGAN CHANGAN SC 1027SB, kuzov turi - YUK BORTLI TENT, kuzov raqami LSCAB23D8EG228387, dvigatel raqami JL466Q1%E61H022801, shassi raqami - URINDIKLAR SONI 5TA, rangi -  OQ BELIY, ishlab chiqarilgan yili - 2014, avtotransport vositasini qabul qilishingizni so’rayman:</v>
       </c>
-      <c r="B13" s="294"/>
+      <c r="B13" s="293"/>
     </row>
     <row r="14" spans="1:2" ht="124.5" hidden="1" customHeight="1">
-      <c r="A14" s="294" t="str">
+      <c r="A14" s="293" t="str">
         <f>""&amp;'Общие данные'!B12&amp;" tomonidan so’ralayotgan "&amp;'Общие данные'!B81&amp;" ("&amp;'Общие данные'!B82&amp;") oy muddatga, "&amp;FIXED('Общие данные'!B75,0)&amp;" ("&amp;'Общие данные'!B76&amp;") miqdoridagi "&amp;'Общие данные'!B65&amp;"ning ta’minoti sifatida menga mulk huquqi asosida tegishli bo’lgan  "&amp;'Общие данные'!B125&amp;", "&amp;'Общие данные'!B127&amp;", "&amp;'Общие данные'!B130&amp;", "&amp;'Общие данные'!B133&amp;", avtotransport vositasini qabul qilishingizni so’rayman:"</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICH tomonidan so’ralayotgan 36 (o'ttiz olti) oy muddatga, 27 000 000 (yigirma yetti million so'm) miqdoridagi mikroqarzning ta’minoti sifatida menga mulk huquqi asosida tegishli bo’lgan  CHANGAN CHANGAN SC 1027SB, kuzov turi - YUK BORTLI TENT, kuzov raqami LSCAB23D8EG228387, dvigatel raqami JL466Q1%E61H022801, shassi raqami - URINDIKLAR SONI 5TA, rangi -  OQ BELIY, ishlab chiqarilgan yili - 2014, avtotransport vositasini qabul qilishingizni so’rayman:</v>
       </c>
-      <c r="B14" s="294"/>
+      <c r="B14" s="293"/>
     </row>
     <row r="15" spans="1:2" ht="116.25" hidden="1" customHeight="1">
-      <c r="A15" s="294" t="str">
+      <c r="A15" s="293" t="str">
         <f>""&amp;'Общие данные'!B12&amp;" tomonidan so’ralayotgan "&amp;'Общие данные'!B81&amp;" ("&amp;'Общие данные'!B82&amp;") oy muddatga, "&amp;FIXED('Общие данные'!B75,0)&amp;" ("&amp;'Общие данные'!B76&amp;") miqdoridagi "&amp;'Общие данные'!B65&amp;"ning ta’minoti sifatida menga mulk huquqi asosida tegishli bo’lgan  "&amp;'Общие данные'!C126&amp;", umumiy maydoni "&amp;'Общие данные'!C130&amp;" va yashash maydoni "&amp;'Общие данные'!C133&amp;"  "&amp;'Общие данные'!C123&amp;" manzilda joylashgan ko'chmas mulkni qabul qilishingizni so’rayman:"</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICH tomonidan so’ralayotgan 36 (o'ttiz olti) oy muddatga, 27 000 000 (yigirma yetti million so'm) miqdoridagi mikroqarzning ta’minoti sifatida menga mulk huquqi asosida tegishli bo’lgan  3 - xonali yakka tartibdagi uy-joy, umumiy maydoni 72,13 va yashash maydoni 37,39  SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON manzilda joylashgan ko'chmas mulkni qabul qilishingizni so’rayman:</v>
       </c>
-      <c r="B15" s="294"/>
+      <c r="B15" s="293"/>
     </row>
     <row r="16" spans="1:2"/>
     <row r="17" spans="1:2"/>
@@ -11133,11 +11133,11 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="71.25" customHeight="1">
-      <c r="A20" s="315" t="str">
+      <c r="A20" s="313" t="str">
         <f>IF('Общие данные'!B94='Общие данные'!D94,CONCATENATE(A24," ",A28,A22),"")</f>
         <v/>
       </c>
-      <c r="B20" s="315"/>
+      <c r="B20" s="313"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
@@ -11214,7 +11214,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="106.5" customHeight="1"/>
     <row r="2" spans="1:5">
-      <c r="A2" s="258" t="str">
+      <c r="A2" s="264" t="str">
         <f>"GAROV PREDMETI QIYMATINI KELISHISH 
 №"&amp;'Общие данные'!B141&amp;" SONLI DALOLATNOMASI
  "</f>
@@ -11222,10 +11222,10 @@
 №1 SONLI DALOLATNOMASI
  </v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="40"/>
@@ -11247,161 +11247,161 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="9" customHeight="1">
-      <c r="A5" s="235"/>
-      <c r="B5" s="235"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
+      <c r="A5" s="233"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
     </row>
     <row r="6" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A6" s="235" t="str">
+      <c r="A6" s="233" t="str">
         <f>IF('Общие данные'!B103="avtotransport",'Акт согласования'!A10:E10,'Акт согласования'!A7:E7)</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Olmaliq filiali boshlig'i V. Yerjanov, O‘zbekiston Respublikasi fuqarosi va garovga beruvchi NUTFULLAYEV AKBARJON AXMEDOVICH (2-tomon) o’rtalarida, 11 mart 2025 y.dan № -AL-sonli Mikroqarz shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikroqarz bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi.</v>
       </c>
-      <c r="B6" s="235"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="235"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
     </row>
     <row r="7" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A7" s="235" t="str">
+      <c r="A7" s="233" t="str">
         <f>IF('Общие данные'!B93="ha",'Акт согласования'!A9:E9,'Акт согласования'!A8:E8)</f>
         <v xml:space="preserve">«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Olmaliq filiali boshlig'i V. Yerjanov, va O‘zbekiston Respublikasi fuqarosi  NUTFULLAYEV AKBARJON AXMEDOVICH (2-tomon) va garov egasi NUTFULLAYEV AKBARJON AXMEDOVICH (3-tomon) 11 mart 2025 y.dan № -AL Mikroqarz shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikroqarz bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. </v>
       </c>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="235"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="233"/>
     </row>
     <row r="8" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A8" s="235" t="str">
+      <c r="A8" s="233" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"ning (1-tomon) vakili bo‘lgan  "&amp;'Общие данные'!A150&amp;" "&amp;'Общие данные'!B150&amp;", va O‘zbekiston Respublikasi fuqarosi  "&amp;'Общие данные'!B5&amp;" (2-tomon) va garov egasi "&amp;'Общие данные'!C117&amp;" (3-tomon) "&amp;'Общие данные'!B74&amp;" "&amp;'Общие данные'!C64&amp;" shartnomasiga muvofiq 1-tomon 2-tomonga berilgan "&amp;'Общие данные'!B65&amp;" bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. "</f>
         <v xml:space="preserve">«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Olmaliq filiali boshlig'i V. Yerjanov, va O‘zbekiston Respublikasi fuqarosi  NUTFULLAYEV AKBARJON AXMEDOVICH (2-tomon) va garov egasi NUTFULLAYEV AKBARJON AXMEDOVICH (3-tomon) 11 mart 2025 y.dan № -AL Mikroqarz shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikroqarz bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. </v>
       </c>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
     </row>
     <row r="9" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A9" s="235" t="str">
+      <c r="A9" s="233" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"ning (1-tomon) vakili bo‘lgan  "&amp;'Общие данные'!A150&amp;" "&amp;'Общие данные'!B150&amp;", va O‘zbekiston Respublikasi fuqarosi  "&amp;'Общие данные'!B5&amp;" (2-tomon) va garov egasi "&amp;'Общие данные'!C117&amp;" (3-tomon) "&amp;'Общие данные'!B74&amp;" "&amp;'Общие данные'!C64&amp;" shartnomasiga muvofiq 1-tomon 2-tomonga berilgan "&amp;'Общие данные'!B65&amp;" bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. "</f>
         <v xml:space="preserve">«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Olmaliq filiali boshlig'i V. Yerjanov, va O‘zbekiston Respublikasi fuqarosi  NUTFULLAYEV AKBARJON AXMEDOVICH (2-tomon) va garov egasi NUTFULLAYEV AKBARJON AXMEDOVICH (3-tomon) 11 mart 2025 y.dan № -AL Mikroqarz shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikroqarz bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. </v>
       </c>
-      <c r="B9" s="235"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
     </row>
     <row r="10" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A10" s="235" t="str">
+      <c r="A10" s="233" t="str">
         <f>IF('Общие данные'!B93="ha",'Акт согласования'!A12:E12,'Акт согласования'!A11:E11)</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Olmaliq filiali boshlig'i V. Yerjanov, O‘zbekiston Respublikasi fuqarosi va garovga beruvchi NUTFULLAYEV AKBARJON AXMEDOVICH (2-tomon) o’rtalarida, 11 mart 2025 y.dan № -AL-sonli Mikroqarz shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikroqarz bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi.</v>
       </c>
-      <c r="B10" s="235"/>
-      <c r="C10" s="235"/>
-      <c r="D10" s="235"/>
-      <c r="E10" s="235"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
     </row>
     <row r="11" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A11" s="235" t="str">
+      <c r="A11" s="233" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"ning (1-tomon) vakili bo‘lgan  "&amp;'Общие данные'!A150&amp;" "&amp;'Общие данные'!B150&amp;", O‘zbekiston Respublikasi fuqarosi "&amp;'Общие данные'!B5&amp;" (2-tomon) va garovga beruvchi O‘zbekiston Respublikasi fuqarosi "&amp;'Общие данные'!B117&amp;" (3-tomon) o’rtalarida, "&amp;'Общие данные'!B74&amp;"-sonli "&amp;'Общие данные'!C64&amp;" shartnomasiga muvofiq 1-tomon 2-tomonga berilgan "&amp;'Общие данные'!B65&amp;" bo‘yicha ta’minot sifatida taqdim etilgan, 3-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi."</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Olmaliq filiali boshlig'i V. Yerjanov, O‘zbekiston Respublikasi fuqarosi NUTFULLAYEV AKBARJON AXMEDOVICH (2-tomon) va garovga beruvchi O‘zbekiston Respublikasi fuqarosi NUTFULLAYEV AKBARJON AXMEDOVICH (3-tomon) o’rtalarida, 11 mart 2025 y.dan № -AL-sonli Mikroqarz shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikroqarz bo‘yicha ta’minot sifatida taqdim etilgan, 3-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi.</v>
       </c>
-      <c r="B11" s="235"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
     </row>
     <row r="12" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A12" s="235" t="str">
+      <c r="A12" s="233" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"ning (1-tomon) vakili bo‘lgan  "&amp;'Общие данные'!A150&amp;" "&amp;'Общие данные'!B150&amp;", O‘zbekiston Respublikasi fuqarosi va garovga beruvchi "&amp;'Общие данные'!B5&amp;" (2-tomon) o’rtalarida, "&amp;'Общие данные'!B74&amp;"-sonli "&amp;'Общие данные'!C64&amp;" shartnomasiga muvofiq 1-tomon 2-tomonga berilgan "&amp;'Общие данные'!B65&amp;" bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi."</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Olmaliq filiali boshlig'i V. Yerjanov, O‘zbekiston Respublikasi fuqarosi va garovga beruvchi NUTFULLAYEV AKBARJON AXMEDOVICH (2-tomon) o’rtalarida, 11 mart 2025 y.dan № -AL-sonli Mikroqarz shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikroqarz bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi.</v>
       </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="233"/>
     </row>
     <row r="13" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A13" s="235" t="str">
+      <c r="A13" s="233" t="str">
         <f>"Garov predmeti sifatida "&amp;'Общие данные'!B125&amp;", 3-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:"</f>
         <v>Garov predmeti sifatida CHANGAN CHANGAN SC 1027SB, 3-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:</v>
       </c>
-      <c r="B13" s="235"/>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
     </row>
     <row r="14" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A14" s="235" t="str">
+      <c r="A14" s="233" t="str">
         <f>"Garov predmeti sifatida "&amp;'Общие данные'!B125&amp;", 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:"</f>
         <v>Garov predmeti sifatida CHANGAN CHANGAN SC 1027SB, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:</v>
       </c>
-      <c r="B14" s="235"/>
-      <c r="C14" s="235"/>
-      <c r="D14" s="235"/>
-      <c r="E14" s="235"/>
+      <c r="B14" s="233"/>
+      <c r="C14" s="233"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="233"/>
     </row>
     <row r="15" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A15" s="235" t="str">
+      <c r="A15" s="233" t="str">
         <f>IF('Общие данные'!B93="ha",'Акт согласования'!A14:E14,'Акт согласования'!A13:E13)</f>
         <v>Garov predmeti sifatida CHANGAN CHANGAN SC 1027SB, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:</v>
       </c>
-      <c r="B15" s="235"/>
-      <c r="C15" s="235"/>
-      <c r="D15" s="235"/>
-      <c r="E15" s="235"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="233"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="233"/>
     </row>
     <row r="16" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A16" s="235" t="str">
+      <c r="A16" s="233" t="str">
         <f>"Garov predmeti sifatida "&amp;'Общие данные'!C126&amp;", 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:"</f>
         <v>Garov predmeti sifatida 3 - xonali yakka tartibdagi uy-joy, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:</v>
       </c>
-      <c r="B16" s="235"/>
-      <c r="C16" s="235"/>
-      <c r="D16" s="235"/>
-      <c r="E16" s="235"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="233"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" hidden="1" customHeight="1">
-      <c r="A17" s="235" t="str">
+      <c r="A17" s="233" t="str">
         <f>"Garov predmeti sifatida "&amp;'Общие данные'!C126&amp;", 3-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:"</f>
         <v>Garov predmeti sifatida 3 - xonali yakka tartibdagi uy-joy, 3-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:</v>
       </c>
-      <c r="B17" s="235"/>
-      <c r="C17" s="235"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="235"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="233"/>
     </row>
     <row r="18" spans="1:5" ht="11.25" hidden="1" customHeight="1">
-      <c r="A18" s="235" t="str">
+      <c r="A18" s="233" t="str">
         <f>IF('Общие данные'!B93="ha",'Акт согласования'!A16:E16,'Акт согласования'!A17:E17)</f>
         <v>Garov predmeti sifatida 3 - xonali yakka tartibdagi uy-joy, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:</v>
       </c>
-      <c r="B18" s="235"/>
-      <c r="C18" s="235"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="235"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="233"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="233"/>
     </row>
     <row r="19" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A19" s="235" t="str">
+      <c r="A19" s="233" t="str">
         <f>IF('Общие данные'!B103="Avtotransport",'Акт согласования'!A15:E15,'Акт согласования'!A18:E18)</f>
         <v>Garov predmeti sifatida CHANGAN CHANGAN SC 1027SB, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:</v>
       </c>
-      <c r="B19" s="235"/>
-      <c r="C19" s="235"/>
-      <c r="D19" s="235"/>
-      <c r="E19" s="235"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="233"/>
     </row>
     <row r="20" spans="1:5" ht="48" customHeight="1" outlineLevel="1">
       <c r="A20" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="320" t="str">
+      <c r="B20" s="314" t="str">
         <f>IF('Общие данные'!B103='Общие данные'!C103,"Kuzov turi  va kuzov raqami*","Foydali maydoni")</f>
         <v>Kuzov turi  va kuzov raqami*</v>
       </c>
-      <c r="C20" s="321"/>
+      <c r="C20" s="315"/>
       <c r="D20" s="39" t="str">
         <f>IF('Общие данные'!B103='Общие данные'!C103,"Dvigatel va shassi raqami*","Yashash maydoni")</f>
         <v>Dvigatel va shassi raqami*</v>
@@ -11416,11 +11416,11 @@
         <f>IF('Общие данные'!B103='Общие данные'!C103,'Общие данные'!B125,'Общие данные'!C125)</f>
         <v>CHANGAN CHANGAN SC 1027SB</v>
       </c>
-      <c r="B21" s="260" t="str">
+      <c r="B21" s="266" t="str">
         <f>IF('Общие данные'!B103='Общие данные'!C103,'Общие данные'!B127,CONCATENATE('Общие данные'!F130," ","kv.m"))</f>
         <v>kuzov turi - YUK BORTLI TENT, kuzov raqami LSCAB23D8EG228387</v>
       </c>
-      <c r="C21" s="260"/>
+      <c r="C21" s="266"/>
       <c r="D21" s="17" t="str">
         <f>IF('Общие данные'!B103='Общие данные'!C103,'Общие данные'!B130,'Общие данные'!E133)</f>
         <v>dvigatel raqami JL466Q1%E61H022801, shassi raqami - URINDIKLAR SONI 5TA</v>
@@ -11431,79 +11431,79 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A22" s="235" t="str">
+      <c r="A22" s="233" t="str">
         <f>"-* "&amp;IF('Общие данные'!B103='Общие данные'!C103,"avtotransport "&amp;"egasi: "&amp;'Общие данные'!B117&amp;"","ko'chmas mulk"&amp;" egasi: "&amp;'Общие данные'!B117&amp;"")</f>
         <v>-* avtotransport egasi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B22" s="235"/>
-      <c r="C22" s="235"/>
-      <c r="D22" s="235"/>
-      <c r="E22" s="235"/>
+      <c r="B22" s="233"/>
+      <c r="C22" s="233"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="233"/>
     </row>
     <row r="23" spans="1:5" outlineLevel="1">
-      <c r="A23" s="235" t="str">
+      <c r="A23" s="233" t="str">
         <f>IF('Общие данные'!B103='Общие данные'!C103,"-* texnik pasport: "&amp;'Общие данные'!B124&amp;"","-* reest raqami: "&amp;'Общие данные'!C124&amp;"")</f>
         <v>-* texnik pasport: AAG   2346592  13.09.2023y</v>
       </c>
-      <c r="B23" s="235"/>
-      <c r="C23" s="235"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="235"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="233"/>
     </row>
     <row r="24" spans="1:5" s="182" customFormat="1" outlineLevel="1">
-      <c r="A24" s="235" t="str">
+      <c r="A24" s="233" t="str">
         <f>IF('Общие данные'!B103='Общие данные'!C103,"-* roʻyxatdan oʻtgan manzili/garaj manzili: "&amp;'Общие данные'!B122&amp;"","-*  kadastr raqami: "&amp;'Общие данные'!C127&amp;"")</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY</v>
       </c>
-      <c r="B24" s="235"/>
-      <c r="C24" s="235"/>
-      <c r="D24" s="235"/>
-      <c r="E24" s="235"/>
+      <c r="B24" s="233"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="233"/>
     </row>
     <row r="25" spans="1:5" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A25" s="235" t="str">
+      <c r="A25" s="233" t="str">
         <f>IF('Общие данные'!B103='Общие данные'!C103,"-* davlat raqami: "&amp;'Общие данные'!B126&amp;"","-* manzili: "&amp;'Общие данные'!C123&amp;"")</f>
         <v>-* davlat raqami: 80T312WA</v>
       </c>
-      <c r="B25" s="235"/>
-      <c r="C25" s="235"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="235"/>
+      <c r="B25" s="233"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="233"/>
     </row>
     <row r="26" spans="1:5" ht="65.25" customHeight="1">
-      <c r="A26" s="235" t="str">
+      <c r="A26" s="233" t="str">
         <f>IF('Общие данные'!B93="ha",'Акт согласования'!A28:E28,'Акт согласования'!A27:E27)</f>
         <v>Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  11 mart 2025 y.dan № -AL Mikroqarz shartnomasi bo‘yicha berilgan mikroqarz bo‘yicha  
 40 500 000,00 (qirq million besh yuz ming so'm) so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::</v>
       </c>
-      <c r="B26" s="235"/>
-      <c r="C26" s="235"/>
-      <c r="D26" s="235"/>
-      <c r="E26" s="235"/>
+      <c r="B26" s="233"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="233"/>
     </row>
     <row r="27" spans="1:5" ht="66" hidden="1" customHeight="1">
-      <c r="A27" s="235" t="str">
+      <c r="A27" s="233" t="str">
         <f>"Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  "&amp;'Общие данные'!B74&amp;" "&amp;'Общие данные'!B65&amp;" shartnomasi bo‘yicha berilgan "&amp;'Общие данные'!B65&amp;" bo‘yicha  
 "&amp;FIXED('Общие данные'!B136,2)&amp;" ("&amp;'Общие данные'!B137&amp;") so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::"</f>
         <v>Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  11 mart 2025 y.dan № -AL mikroqarz shartnomasi bo‘yicha berilgan mikroqarz bo‘yicha  
 40 500 000,00 (qirq million besh yuz ming so'm) so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::</v>
       </c>
-      <c r="B27" s="235"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="235"/>
-      <c r="E27" s="235"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="233"/>
     </row>
     <row r="28" spans="1:5" ht="58.5" hidden="1" customHeight="1">
-      <c r="A28" s="235" t="str">
+      <c r="A28" s="233" t="str">
         <f>"Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  "&amp;'Общие данные'!B74&amp;" "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha berilgan "&amp;'Общие данные'!B65&amp;" bo‘yicha  
 "&amp;FIXED('Общие данные'!B136,2)&amp;" ("&amp;'Общие данные'!B137&amp;") so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::"</f>
         <v>Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  11 mart 2025 y.dan № -AL Mikroqarz shartnomasi bo‘yicha berilgan mikroqarz bo‘yicha  
 40 500 000,00 (qirq million besh yuz ming so'm) so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::</v>
       </c>
-      <c r="B28" s="235"/>
-      <c r="C28" s="235"/>
-      <c r="D28" s="235"/>
-      <c r="E28" s="235"/>
+      <c r="B28" s="233"/>
+      <c r="C28" s="233"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="233"/>
     </row>
     <row r="29" spans="1:5" ht="51.75" customHeight="1" outlineLevel="1">
       <c r="A29" s="39" t="s">
@@ -11590,7 +11590,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E33" s="316" t="str">
+      <c r="E33" s="317" t="str">
         <f>""&amp;FIXED('Общие данные'!C136,2)&amp;" ("&amp;'Общие данные'!B137&amp;")"</f>
         <v>40 500 000,00 (qirq million besh yuz ming so'm)</v>
       </c>
@@ -11600,7 +11600,7 @@
       <c r="B34" s="111"/>
       <c r="C34" s="111"/>
       <c r="D34" s="111"/>
-      <c r="E34" s="317"/>
+      <c r="E34" s="318"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A35" s="17" t="e">
@@ -11619,7 +11619,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E35" s="317"/>
+      <c r="E35" s="318"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A36" s="17" t="e">
@@ -11638,7 +11638,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E36" s="317"/>
+      <c r="E36" s="318"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A37" s="17" t="e">
@@ -11657,7 +11657,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E37" s="317"/>
+      <c r="E37" s="318"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A38" s="17" t="e">
@@ -11676,7 +11676,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E38" s="317"/>
+      <c r="E38" s="318"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A39" s="17" t="e">
@@ -11695,7 +11695,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E39" s="317"/>
+      <c r="E39" s="318"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A40" s="17" t="e">
@@ -11714,7 +11714,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E40" s="317"/>
+      <c r="E40" s="318"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A41" s="17" t="e">
@@ -11733,7 +11733,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E41" s="317"/>
+      <c r="E41" s="318"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A42" s="17" t="e">
@@ -11752,7 +11752,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E42" s="317"/>
+      <c r="E42" s="318"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A43" s="17" t="e">
@@ -11771,7 +11771,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E43" s="318"/>
+      <c r="E43" s="319"/>
     </row>
     <row r="44" spans="1:5" s="37" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A44" s="39" t="e">
@@ -11803,7 +11803,7 @@
       <c r="E45" s="16"/>
     </row>
     <row r="46" spans="1:5" ht="93.75" hidden="1" customHeight="1">
-      <c r="A46" s="235" t="str">
+      <c r="A46" s="233" t="str">
         <f>"“Birinchi talabga ko‘ra, yuqoridagi avtomobil Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan edi::
 "&amp;'Данные для послед. Залога'!W2&amp;""</f>
         <v>“Birinchi talabga ko‘ra, yuqoridagi avtomobil Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan edi::
@@ -11828,29 +11828,29 @@
 0
 0</v>
       </c>
-      <c r="B46" s="235"/>
-      <c r="C46" s="235"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="235"/>
+      <c r="B46" s="233"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="233"/>
+      <c r="E46" s="233"/>
     </row>
     <row r="47" spans="1:5" ht="42" customHeight="1">
-      <c r="A47" s="235" t="s">
+      <c r="A47" s="233" t="s">
         <v>211</v>
       </c>
-      <c r="B47" s="235"/>
-      <c r="C47" s="235"/>
-      <c r="D47" s="235"/>
-      <c r="E47" s="235"/>
+      <c r="B47" s="233"/>
+      <c r="C47" s="233"/>
+      <c r="D47" s="233"/>
+      <c r="E47" s="233"/>
     </row>
     <row r="48" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A48" s="235" t="str">
+      <c r="A48" s="233" t="str">
         <f>"Shunday qilib, garov predmetining kelishilgan garov qiymati  "&amp;FIXED('Общие данные'!B136)&amp;" ("&amp;'Общие данные'!B137&amp;") so‘mni tashkil etadi."</f>
         <v>Shunday qilib, garov predmetining kelishilgan garov qiymati  40 500 000,00 (qirq million besh yuz ming so'm) so‘mni tashkil etadi.</v>
       </c>
-      <c r="B48" s="235"/>
-      <c r="C48" s="235"/>
-      <c r="D48" s="235"/>
-      <c r="E48" s="235"/>
+      <c r="B48" s="233"/>
+      <c r="C48" s="233"/>
+      <c r="D48" s="233"/>
+      <c r="E48" s="233"/>
     </row>
     <row r="49" spans="1:6" ht="35.25" hidden="1" customHeight="1">
       <c r="A49" s="19"/>
@@ -11866,11 +11866,11 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="314" t="s">
+      <c r="A50" s="311" t="s">
         <v>212</v>
       </c>
-      <c r="B50" s="314"/>
-      <c r="C50" s="314"/>
+      <c r="B50" s="311"/>
+      <c r="C50" s="311"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
     </row>
@@ -11891,11 +11891,11 @@
       </c>
       <c r="B52" s="236"/>
       <c r="C52" s="236"/>
-      <c r="D52" s="314" t="str">
+      <c r="D52" s="311" t="str">
         <f>"_______________   "&amp;'Общие данные'!B150&amp;""</f>
         <v>_______________   V. Yerjanov</v>
       </c>
-      <c r="E52" s="314"/>
+      <c r="E52" s="311"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="53"/>
@@ -11905,9 +11905,9 @@
       <c r="E53" s="53"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="314"/>
-      <c r="B54" s="314"/>
-      <c r="C54" s="314"/>
+      <c r="A54" s="311"/>
+      <c r="B54" s="311"/>
+      <c r="C54" s="311"/>
       <c r="D54" s="53"/>
       <c r="E54" s="53"/>
     </row>
@@ -11941,11 +11941,11 @@
       <c r="E57" s="236"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="314" t="s">
+      <c r="A58" s="311" t="s">
         <v>213</v>
       </c>
-      <c r="B58" s="314"/>
-      <c r="C58" s="314"/>
+      <c r="B58" s="311"/>
+      <c r="C58" s="311"/>
       <c r="D58" s="236"/>
       <c r="E58" s="236"/>
     </row>
@@ -11955,31 +11955,31 @@
       </c>
       <c r="B59" s="236"/>
       <c r="C59" s="236"/>
-      <c r="D59" s="314" t="str">
+      <c r="D59" s="311" t="str">
         <f>"_______________  "&amp;'Общие данные'!B7&amp;""</f>
         <v>_______________  NUTFULLAYEV A.A.</v>
       </c>
-      <c r="E59" s="314"/>
+      <c r="E59" s="311"/>
     </row>
     <row r="60" spans="1:6" ht="12.75" customHeight="1">
       <c r="A60" s="236"/>
       <c r="B60" s="236"/>
       <c r="C60" s="236"/>
-      <c r="D60" s="319" t="str">
+      <c r="D60" s="316" t="str">
         <f>IF('Общие данные'!B93="да","",'Общие данные'!B118)</f>
         <v>NUTFULLAYEV A.A.</v>
       </c>
-      <c r="E60" s="319"/>
+      <c r="E60" s="316"/>
     </row>
     <row r="61" spans="1:6" ht="17.25" hidden="1" customHeight="1">
-      <c r="A61" s="314" t="str">
+      <c r="A61" s="311" t="str">
         <f>+IF('Общие данные'!B93="ha"," ","3-tomondan:")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B61" s="314"/>
-      <c r="C61" s="314"/>
-      <c r="D61" s="314"/>
-      <c r="E61" s="314"/>
+      <c r="B61" s="311"/>
+      <c r="C61" s="311"/>
+      <c r="D61" s="311"/>
+      <c r="E61" s="311"/>
       <c r="F61" s="15" t="str">
         <f>IF('Общие данные'!B94='Общие данные'!D94,B7,"")</f>
         <v/>
@@ -11992,11 +11992,11 @@
       </c>
       <c r="B62" s="236"/>
       <c r="C62" s="236"/>
-      <c r="D62" s="314" t="str">
+      <c r="D62" s="311" t="str">
         <f>"_______________  "&amp;'Общие данные'!B112&amp;""</f>
         <v>_______________  NUTFULLAYEV A.A.</v>
       </c>
-      <c r="E62" s="314"/>
+      <c r="E62" s="311"/>
     </row>
     <row r="63" spans="1:6" ht="63.75" hidden="1" customHeight="1">
       <c r="A63" s="190" t="str">
@@ -12012,34 +12012,23 @@
       <c r="E63" s="236"/>
     </row>
     <row r="64" spans="1:6" ht="6.75" customHeight="1">
-      <c r="D64" s="267"/>
-      <c r="E64" s="267"/>
+      <c r="D64" s="257"/>
+      <c r="E64" s="257"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="E33:E43"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A48:E48"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A11:E11"/>
@@ -12056,18 +12045,29 @@
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="E33:E43"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12098,117 +12098,117 @@
   <sheetData>
     <row r="3" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="4" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A4" s="265" t="str">
+      <c r="A4" s="260" t="str">
         <f>""&amp;'Общие данные'!B147&amp;" ijrochi direktorining
 "&amp;'Общие данные'!B165&amp;"dagi "&amp;'Общие данные'!B164&amp;"-sonli buyrug‘i"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ ijrochi direktorining
 11 mart 2025 y.dagi № -AL-sonli buyrug‘i</v>
       </c>
-      <c r="B4" s="265"/>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
+      <c r="B4" s="260"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="265"/>
-      <c r="B5" s="265"/>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
+      <c r="A5" s="260"/>
+      <c r="B5" s="260"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="265"/>
-      <c r="B6" s="265"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
+      <c r="A6" s="260"/>
+      <c r="B6" s="260"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="235"/>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="235"/>
+      <c r="A7" s="233"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="233"/>
     </row>
     <row r="8" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A8" s="235" t="str">
+      <c r="A8" s="233" t="str">
         <f>"Men, Abduraximov Nadirbek Kamilevich "&amp;'Общие данные'!B147&amp;" ijrochi direktori, jismoniy shaxs "&amp;'Общие данные'!B10&amp;"ga quyidagi shartlarda "&amp;'Общие данные'!B65&amp;" berishni buyuraman:"</f>
         <v>Men, Abduraximov Nadirbek Kamilevich «CLEVER MIKROMOLIYA TASHKILOTI» MChJ ijrochi direktori, jismoniy shaxs NUTFULLAYEV AKBARJON AXMEDOVICHga quyidagi shartlarda mikroqarz berishni buyuraman:</v>
       </c>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
     </row>
     <row r="9" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A9" s="235" t="str">
+      <c r="A9" s="233" t="str">
         <f>'Кредитная заявка'!A13:D13</f>
         <v>Mikroqarz summasi: 27 000 000,00 (yigirma yetti million so'm) so'm.</v>
       </c>
-      <c r="B9" s="235"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1">
-      <c r="A10" s="235" t="str">
+      <c r="A10" s="233" t="str">
         <f>'Кредитная заявка'!A14:D14</f>
         <v>Mikroqarz muddati: 36 (o'ttiz olti) oy.</v>
       </c>
-      <c r="B10" s="235"/>
-      <c r="C10" s="235"/>
-      <c r="D10" s="235"/>
-      <c r="E10" s="235"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1">
-      <c r="A11" s="235" t="str">
+      <c r="A11" s="233" t="str">
         <f>'Кредитная заявка'!A15:D15</f>
         <v>Mikroqarzdan foydalanganlik uchun foiz stavkasi: yillik  60% (Oltmish) foiz</v>
       </c>
-      <c r="B11" s="235"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
     </row>
     <row r="12" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A12" s="235" t="str">
+      <c r="A12" s="233" t="str">
         <f>'Кредитная заявка'!A16:D16</f>
         <v>Mikroqarz bo'yicha asosiy qarz va foizlarni to'lash:</v>
       </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="233"/>
     </row>
     <row r="13" spans="1:5" ht="21.75" hidden="1" customHeight="1">
-      <c r="A13" s="235" t="str">
+      <c r="A13" s="233" t="str">
         <f>'Кредитная заявка'!A17:D17</f>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B13" s="235"/>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
     </row>
     <row r="14" spans="1:5" hidden="1">
-      <c r="A14" s="235" t="str">
+      <c r="A14" s="233" t="str">
         <f>'Кредитная заявка'!A19:D19</f>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B14" s="235"/>
-      <c r="C14" s="235"/>
-      <c r="D14" s="235"/>
-      <c r="E14" s="235"/>
+      <c r="B14" s="233"/>
+      <c r="C14" s="233"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="233"/>
     </row>
     <row r="15" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A15" s="235" t="str">
+      <c r="A15" s="233" t="str">
         <f>IF('Общие данные'!B103="Avtotransport",'Приказ на сделку'!A14:E14,'Приказ на сделку'!A13:E13)</f>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B15" s="235"/>
-      <c r="C15" s="235"/>
-      <c r="D15" s="235"/>
-      <c r="E15" s="235"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="233"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="233"/>
     </row>
     <row r="16" spans="1:5" ht="45.75" customHeight="1">
       <c r="A16" s="236" t="str">
@@ -12221,24 +12221,24 @@
       <c r="E16" s="236"/>
     </row>
     <row r="17" spans="1:5" ht="50.25" hidden="1" customHeight="1">
-      <c r="A17" s="235" t="str">
+      <c r="A17" s="233" t="str">
         <f>""&amp;'Общие данные'!C117&amp;"ga tegishli "&amp;'Общие данные'!C126&amp;" ko'rinishidagi ko'chmas mulkni quyidagi ma'lumotlarga muvofiq  garovga qabul qilinsin:"</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli 3 - xonali yakka tartibdagi uy-joy ko'rinishidagi ko'chmas mulkni quyidagi ma'lumotlarga muvofiq  garovga qabul qilinsin:</v>
       </c>
-      <c r="B17" s="235"/>
-      <c r="C17" s="235"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="235"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="233"/>
     </row>
     <row r="18" spans="1:5" ht="47.25" hidden="1" customHeight="1">
-      <c r="A18" s="235" t="str">
+      <c r="A18" s="233" t="str">
         <f>""&amp;'Общие данные'!B117&amp;"ga tegishli "&amp;'Общие данные'!B125&amp;" ko'rinishidagi transport vositasini quyidagi ma'lumotlarga muvofiq garovga qabul qilinsin:"</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli CHANGAN CHANGAN SC 1027SB ko'rinishidagi transport vositasini quyidagi ma'lumotlarga muvofiq garovga qabul qilinsin:</v>
       </c>
-      <c r="B18" s="235"/>
-      <c r="C18" s="235"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="235"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="233"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="233"/>
     </row>
     <row r="19" spans="1:5" s="37" customFormat="1" ht="60" customHeight="1" outlineLevel="1">
       <c r="A19" s="39" t="str">
@@ -12286,51 +12286,51 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1" outlineLevel="1">
-      <c r="A21" s="235" t="str">
+      <c r="A21" s="233" t="str">
         <f>'Акт согласования'!A22:E22</f>
         <v>-* avtotransport egasi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B21" s="235"/>
-      <c r="C21" s="235"/>
-      <c r="D21" s="235"/>
-      <c r="E21" s="235"/>
+      <c r="B21" s="233"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="233"/>
     </row>
     <row r="22" spans="1:5" ht="20.25" customHeight="1" outlineLevel="1">
-      <c r="A22" s="235" t="str">
+      <c r="A22" s="233" t="str">
         <f>'Акт согласования'!A23:E23</f>
         <v>-* texnik pasport: AAG   2346592  13.09.2023y</v>
       </c>
-      <c r="B22" s="235"/>
-      <c r="C22" s="235"/>
-      <c r="D22" s="235"/>
-      <c r="E22" s="235"/>
+      <c r="B22" s="233"/>
+      <c r="C22" s="233"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="233"/>
     </row>
     <row r="23" spans="1:5" ht="36" customHeight="1" outlineLevel="1">
-      <c r="A23" s="235" t="str">
+      <c r="A23" s="233" t="str">
         <f>'Акт согласования'!A24:E24</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY</v>
       </c>
-      <c r="B23" s="235"/>
-      <c r="C23" s="235"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="235"/>
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="233"/>
     </row>
     <row r="24" spans="1:5" ht="35.25" customHeight="1" outlineLevel="1">
-      <c r="A24" s="235" t="str">
+      <c r="A24" s="233" t="str">
         <f>'Акт согласования'!A25:E25</f>
         <v>-* davlat raqami: 80T312WA</v>
       </c>
-      <c r="B24" s="235"/>
-      <c r="C24" s="235"/>
-      <c r="D24" s="235"/>
-      <c r="E24" s="235"/>
+      <c r="B24" s="233"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="233"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="235"/>
-      <c r="B25" s="235"/>
-      <c r="C25" s="235"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="235"/>
+      <c r="A25" s="233"/>
+      <c r="B25" s="233"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="233"/>
     </row>
     <row r="26" spans="1:5" s="37" customFormat="1" ht="41.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A26" s="39" t="s">
@@ -12367,7 +12367,7 @@
         <f>'Акт согласования'!D33</f>
         <v>#REF!</v>
       </c>
-      <c r="E27" s="260" t="str">
+      <c r="E27" s="266" t="str">
         <f>'Акт согласования'!E33</f>
         <v>40 500 000,00 (qirq million besh yuz ming so'm)</v>
       </c>
@@ -12389,7 +12389,7 @@
         <f>'Акт согласования'!D34</f>
         <v>0</v>
       </c>
-      <c r="E28" s="260"/>
+      <c r="E28" s="266"/>
     </row>
     <row r="29" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A29" s="17" t="e">
@@ -12408,7 +12408,7 @@
         <f>'Акт согласования'!D35</f>
         <v>#REF!</v>
       </c>
-      <c r="E29" s="260"/>
+      <c r="E29" s="266"/>
     </row>
     <row r="30" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A30" s="17" t="e">
@@ -12427,7 +12427,7 @@
         <f>'Акт согласования'!D36</f>
         <v>#REF!</v>
       </c>
-      <c r="E30" s="260"/>
+      <c r="E30" s="266"/>
     </row>
     <row r="31" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A31" s="17" t="e">
@@ -12446,7 +12446,7 @@
         <f>'Акт согласования'!D37</f>
         <v>#REF!</v>
       </c>
-      <c r="E31" s="260"/>
+      <c r="E31" s="266"/>
     </row>
     <row r="32" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A32" s="17" t="e">
@@ -12465,7 +12465,7 @@
         <f>'Акт согласования'!D38</f>
         <v>#REF!</v>
       </c>
-      <c r="E32" s="260"/>
+      <c r="E32" s="266"/>
     </row>
     <row r="33" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A33" s="17" t="e">
@@ -12484,7 +12484,7 @@
         <f>'Акт согласования'!D39</f>
         <v>#REF!</v>
       </c>
-      <c r="E33" s="260"/>
+      <c r="E33" s="266"/>
     </row>
     <row r="34" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A34" s="17" t="e">
@@ -12503,7 +12503,7 @@
         <f>'Акт согласования'!D40</f>
         <v>#REF!</v>
       </c>
-      <c r="E34" s="260"/>
+      <c r="E34" s="266"/>
     </row>
     <row r="35" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A35" s="17" t="e">
@@ -12522,7 +12522,7 @@
         <f>'Акт согласования'!D41</f>
         <v>#REF!</v>
       </c>
-      <c r="E35" s="260"/>
+      <c r="E35" s="266"/>
     </row>
     <row r="36" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A36" s="17" t="e">
@@ -12541,7 +12541,7 @@
         <f>'Акт согласования'!D42</f>
         <v>#REF!</v>
       </c>
-      <c r="E36" s="260"/>
+      <c r="E36" s="266"/>
     </row>
     <row r="37" spans="1:5" hidden="1" outlineLevel="1">
       <c r="A37" s="17" t="e">
@@ -12560,7 +12560,7 @@
         <f>'Акт согласования'!D43</f>
         <v>#REF!</v>
       </c>
-      <c r="E37" s="260"/>
+      <c r="E37" s="266"/>
     </row>
     <row r="38" spans="1:5" s="37" customFormat="1" ht="14.25" hidden="1" outlineLevel="1">
       <c r="A38" s="39" t="e">
@@ -12585,65 +12585,65 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="37" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A39" s="235" t="e">
+      <c r="A39" s="233" t="e">
         <f>_xlfn.SINGLE('Акт согласования'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="B39" s="235"/>
-      <c r="C39" s="235"/>
-      <c r="D39" s="235"/>
-      <c r="E39" s="235"/>
+      <c r="B39" s="233"/>
+      <c r="C39" s="233"/>
+      <c r="D39" s="233"/>
+      <c r="E39" s="233"/>
     </row>
     <row r="40" spans="1:5" s="37" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A40" s="235" t="e">
+      <c r="A40" s="233" t="e">
         <f>_xlfn.SINGLE('Акт согласования'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="B40" s="235"/>
-      <c r="C40" s="235"/>
-      <c r="D40" s="235"/>
-      <c r="E40" s="235"/>
+      <c r="B40" s="233"/>
+      <c r="C40" s="233"/>
+      <c r="D40" s="233"/>
+      <c r="E40" s="233"/>
     </row>
     <row r="41" spans="1:5" s="37" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A41" s="235" t="e">
+      <c r="A41" s="233" t="e">
         <f>_xlfn.SINGLE('Акт согласования'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="B41" s="235"/>
-      <c r="C41" s="235"/>
-      <c r="D41" s="235"/>
-      <c r="E41" s="235"/>
+      <c r="B41" s="233"/>
+      <c r="C41" s="233"/>
+      <c r="D41" s="233"/>
+      <c r="E41" s="233"/>
     </row>
     <row r="42" spans="1:5" s="37" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A42" s="235" t="e">
+      <c r="A42" s="233" t="e">
         <f>_xlfn.SINGLE('Акт согласования'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="B42" s="235"/>
-      <c r="C42" s="235"/>
-      <c r="D42" s="235"/>
-      <c r="E42" s="235"/>
+      <c r="B42" s="233"/>
+      <c r="C42" s="233"/>
+      <c r="D42" s="233"/>
+      <c r="E42" s="233"/>
     </row>
     <row r="43" spans="1:5" s="37" customFormat="1" collapsed="1">
-      <c r="A43" s="235"/>
-      <c r="B43" s="235"/>
-      <c r="C43" s="235"/>
-      <c r="D43" s="235"/>
-      <c r="E43" s="235"/>
+      <c r="A43" s="233"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="233"/>
+      <c r="D43" s="233"/>
+      <c r="E43" s="233"/>
     </row>
     <row r="44" spans="1:5" s="37" customFormat="1">
-      <c r="A44" s="235"/>
-      <c r="B44" s="235"/>
-      <c r="C44" s="235"/>
-      <c r="D44" s="235"/>
-      <c r="E44" s="235"/>
+      <c r="A44" s="233"/>
+      <c r="B44" s="233"/>
+      <c r="C44" s="233"/>
+      <c r="D44" s="233"/>
+      <c r="E44" s="233"/>
     </row>
     <row r="45" spans="1:5" s="37" customFormat="1" hidden="1">
-      <c r="A45" s="235"/>
-      <c r="B45" s="235"/>
-      <c r="C45" s="235"/>
-      <c r="D45" s="235"/>
-      <c r="E45" s="235"/>
+      <c r="A45" s="233"/>
+      <c r="B45" s="233"/>
+      <c r="C45" s="233"/>
+      <c r="D45" s="233"/>
+      <c r="E45" s="233"/>
     </row>
     <row r="46" spans="1:5" s="37" customFormat="1" ht="14.25" hidden="1">
       <c r="A46" s="50"/>
@@ -12653,82 +12653,91 @@
       <c r="E46" s="50"/>
     </row>
     <row r="47" spans="1:5" hidden="1">
-      <c r="A47" s="235"/>
-      <c r="B47" s="235"/>
-      <c r="C47" s="235"/>
-      <c r="D47" s="235"/>
-      <c r="E47" s="235"/>
+      <c r="A47" s="233"/>
+      <c r="B47" s="233"/>
+      <c r="C47" s="233"/>
+      <c r="D47" s="233"/>
+      <c r="E47" s="233"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1">
-      <c r="A48" s="314" t="s">
+      <c r="A48" s="311" t="s">
         <v>381</v>
       </c>
-      <c r="B48" s="314"/>
-      <c r="C48" s="314"/>
-      <c r="D48" s="322"/>
-      <c r="E48" s="322"/>
+      <c r="B48" s="311"/>
+      <c r="C48" s="311"/>
+      <c r="D48" s="320"/>
+      <c r="E48" s="320"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1">
-      <c r="A49" s="314" t="s">
+      <c r="A49" s="311" t="s">
         <v>335</v>
       </c>
-      <c r="B49" s="314"/>
-      <c r="C49" s="314"/>
-      <c r="D49" s="322" t="s">
+      <c r="B49" s="311"/>
+      <c r="C49" s="311"/>
+      <c r="D49" s="320" t="s">
         <v>382</v>
       </c>
-      <c r="E49" s="322"/>
+      <c r="E49" s="320"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="235"/>
-      <c r="B50" s="235"/>
-      <c r="C50" s="235"/>
-      <c r="D50" s="235"/>
-      <c r="E50" s="235"/>
+      <c r="A50" s="233"/>
+      <c r="B50" s="233"/>
+      <c r="C50" s="233"/>
+      <c r="D50" s="233"/>
+      <c r="E50" s="233"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="235"/>
-      <c r="B51" s="235"/>
-      <c r="C51" s="235"/>
-      <c r="D51" s="235"/>
-      <c r="E51" s="235"/>
+      <c r="A51" s="233"/>
+      <c r="B51" s="233"/>
+      <c r="C51" s="233"/>
+      <c r="D51" s="233"/>
+      <c r="E51" s="233"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="235"/>
-      <c r="B52" s="235"/>
-      <c r="C52" s="235"/>
-      <c r="D52" s="235"/>
-      <c r="E52" s="235"/>
+      <c r="A52" s="233"/>
+      <c r="B52" s="233"/>
+      <c r="C52" s="233"/>
+      <c r="D52" s="233"/>
+      <c r="E52" s="233"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="235"/>
-      <c r="B53" s="235"/>
-      <c r="C53" s="235"/>
-      <c r="D53" s="235"/>
-      <c r="E53" s="235"/>
+      <c r="A53" s="233"/>
+      <c r="B53" s="233"/>
+      <c r="C53" s="233"/>
+      <c r="D53" s="233"/>
+      <c r="E53" s="233"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="235"/>
-      <c r="B54" s="235"/>
-      <c r="C54" s="235"/>
-      <c r="D54" s="235"/>
-      <c r="E54" s="235"/>
+      <c r="A54" s="233"/>
+      <c r="B54" s="233"/>
+      <c r="C54" s="233"/>
+      <c r="D54" s="233"/>
+      <c r="E54" s="233"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="235"/>
-      <c r="B55" s="235"/>
-      <c r="C55" s="235"/>
-      <c r="D55" s="235"/>
-      <c r="E55" s="235"/>
+      <c r="A55" s="233"/>
+      <c r="B55" s="233"/>
+      <c r="C55" s="233"/>
+      <c r="D55" s="233"/>
+      <c r="E55" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="E27:E37"/>
+    <mergeCell ref="A44:E44"/>
     <mergeCell ref="A4:E6"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A39:E39"/>
@@ -12745,21 +12754,12 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="E27:E37"/>
-    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -12790,22 +12790,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:7" ht="62.25" customHeight="1">
-      <c r="B2" s="328" t="str">
+      <c r="B2" s="331" t="str">
         <f>'Общие данные'!B148</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ</v>
       </c>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="330"/>
+      <c r="C2" s="332"/>
+      <c r="D2" s="332"/>
+      <c r="E2" s="332"/>
+      <c r="F2" s="333"/>
       <c r="G2" s="41"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="323"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="324"/>
+      <c r="B3" s="324"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="325"/>
       <c r="G3" s="42"/>
     </row>
     <row r="4" spans="2:7" ht="8.25" customHeight="1">
@@ -12854,42 +12854,42 @@
       <c r="G9" s="42"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="323" t="s">
+      <c r="B10" s="324" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="269"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="324"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="325"/>
       <c r="G10" s="42"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="323" t="s">
+      <c r="B11" s="324" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="269"/>
-      <c r="D11" s="269"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="324"/>
+      <c r="C11" s="259"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="325"/>
       <c r="G11" s="42"/>
     </row>
     <row r="12" spans="2:7" ht="135" customHeight="1">
-      <c r="B12" s="331" t="str">
+      <c r="B12" s="334" t="str">
         <f>'Общие данные'!B5</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="C12" s="332"/>
-      <c r="D12" s="332"/>
-      <c r="E12" s="332"/>
-      <c r="F12" s="333"/>
+      <c r="C12" s="335"/>
+      <c r="D12" s="335"/>
+      <c r="E12" s="335"/>
+      <c r="F12" s="336"/>
       <c r="G12" s="43"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="323"/>
-      <c r="C13" s="269"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="324"/>
+      <c r="B13" s="324"/>
+      <c r="C13" s="259"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="325"/>
       <c r="G13" s="42"/>
     </row>
     <row r="14" spans="2:7">
@@ -12925,106 +12925,106 @@
       <c r="G17" s="42"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="323"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="324"/>
+      <c r="B18" s="324"/>
+      <c r="C18" s="259"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="259"/>
+      <c r="F18" s="325"/>
       <c r="G18" s="42"/>
     </row>
     <row r="19" spans="2:7" ht="20.25">
-      <c r="B19" s="325" t="str">
+      <c r="B19" s="328" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" shartnoma "&amp;'Общие данные'!B74&amp;""</f>
         <v>Mikroqarz shartnoma 11 mart 2025 y.dan № -AL</v>
       </c>
-      <c r="C19" s="326"/>
-      <c r="D19" s="326"/>
-      <c r="E19" s="326"/>
-      <c r="F19" s="327"/>
+      <c r="C19" s="329"/>
+      <c r="D19" s="329"/>
+      <c r="E19" s="329"/>
+      <c r="F19" s="330"/>
       <c r="G19" s="42"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="323"/>
-      <c r="C20" s="269"/>
-      <c r="D20" s="269"/>
-      <c r="E20" s="269"/>
-      <c r="F20" s="324"/>
+      <c r="B20" s="324"/>
+      <c r="C20" s="259"/>
+      <c r="D20" s="259"/>
+      <c r="E20" s="259"/>
+      <c r="F20" s="325"/>
       <c r="G20" s="42"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="323"/>
-      <c r="C21" s="269"/>
-      <c r="D21" s="269"/>
-      <c r="E21" s="269"/>
-      <c r="F21" s="324"/>
+      <c r="B21" s="324"/>
+      <c r="C21" s="259"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="325"/>
       <c r="G21" s="42"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="323"/>
-      <c r="C22" s="269"/>
-      <c r="D22" s="269"/>
-      <c r="E22" s="269"/>
-      <c r="F22" s="324"/>
+      <c r="B22" s="324"/>
+      <c r="C22" s="259"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="325"/>
       <c r="G22" s="42"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="323"/>
-      <c r="C23" s="269"/>
-      <c r="D23" s="269"/>
-      <c r="E23" s="269"/>
-      <c r="F23" s="324"/>
+      <c r="B23" s="324"/>
+      <c r="C23" s="259"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="325"/>
       <c r="G23" s="42"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="337" t="str">
+      <c r="B24" s="326" t="str">
         <f>" Foiz stavkasi: "&amp;'Общие данные'!B85&amp;"%"</f>
         <v xml:space="preserve"> Foiz stavkasi: 60%</v>
       </c>
-      <c r="C24" s="239"/>
-      <c r="D24" s="239"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="338"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="327"/>
       <c r="G24" s="42"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1">
-      <c r="B25" s="337" t="str">
+      <c r="B25" s="326" t="str">
         <f>" "&amp;'Общие данные'!C64&amp;" muddati: "&amp;'Общие данные'!B81&amp;" oy"</f>
         <v xml:space="preserve"> Mikroqarz muddati: 36 oy</v>
       </c>
-      <c r="C25" s="239"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="239"/>
-      <c r="F25" s="338"/>
+      <c r="C25" s="232"/>
+      <c r="D25" s="232"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="327"/>
       <c r="G25" s="42"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="337" t="str">
+      <c r="B26" s="326" t="str">
         <f>" "&amp;'Общие данные'!C64&amp;" miqdori: "&amp;FIXED('Общие данные'!B75,2)&amp;" so'm"</f>
         <v xml:space="preserve"> Mikroqarz miqdori: 27 000 000,00 so'm</v>
       </c>
-      <c r="C26" s="239"/>
-      <c r="D26" s="239"/>
-      <c r="E26" s="239"/>
-      <c r="F26" s="338"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="232"/>
+      <c r="F26" s="327"/>
       <c r="G26" s="42"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="323"/>
-      <c r="C27" s="269"/>
-      <c r="D27" s="269"/>
-      <c r="E27" s="269"/>
-      <c r="F27" s="324"/>
+      <c r="B27" s="324"/>
+      <c r="C27" s="259"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="259"/>
+      <c r="F27" s="325"/>
       <c r="G27" s="42"/>
     </row>
     <row r="28" spans="2:7" hidden="1">
       <c r="G28" s="42"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="323"/>
-      <c r="C29" s="269"/>
-      <c r="D29" s="269"/>
-      <c r="E29" s="269"/>
-      <c r="F29" s="324"/>
+      <c r="B29" s="324"/>
+      <c r="C29" s="259"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="259"/>
+      <c r="F29" s="325"/>
       <c r="G29" s="42"/>
     </row>
     <row r="30" spans="2:7" ht="12.75" customHeight="1">
@@ -13108,34 +13108,43 @@
       <c r="G39" s="42"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B40" s="334" t="str">
+      <c r="B40" s="321" t="str">
         <f>"Toshkent sh., "&amp;'Общие данные'!B70&amp;""</f>
         <v>Toshkent sh., 11 mart 2025 y.</v>
       </c>
-      <c r="C40" s="335"/>
-      <c r="D40" s="335"/>
-      <c r="E40" s="335"/>
-      <c r="F40" s="336"/>
+      <c r="C40" s="322"/>
+      <c r="D40" s="322"/>
+      <c r="E40" s="322"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="42"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="269"/>
-      <c r="C41" s="269"/>
-      <c r="D41" s="269"/>
-      <c r="E41" s="269"/>
-      <c r="F41" s="269"/>
+      <c r="B41" s="259"/>
+      <c r="C41" s="259"/>
+      <c r="D41" s="259"/>
+      <c r="E41" s="259"/>
+      <c r="F41" s="259"/>
       <c r="G41" s="42"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="269"/>
-      <c r="C42" s="269"/>
-      <c r="D42" s="269"/>
-      <c r="E42" s="269"/>
-      <c r="F42" s="269"/>
+      <c r="B42" s="259"/>
+      <c r="C42" s="259"/>
+      <c r="D42" s="259"/>
+      <c r="E42" s="259"/>
+      <c r="F42" s="259"/>
       <c r="G42" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
@@ -13147,15 +13156,6 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13201,14 +13201,14 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="107.25" customHeight="1">
-      <c r="A9" s="340" t="str">
+      <c r="A9" s="338" t="str">
         <f>"          Между ООО «Clever Mikrokredit Tashkiloti» и "&amp;'Общие данные'!B5&amp;"  (паспорт: "&amp;'Общие данные'!B16&amp;" "&amp;'Общие данные'!B20&amp;") заключен договор микрозайма "&amp;'Общие данные'!B74&amp;", на сумму "&amp;FIXED('Общие данные'!B75)&amp;" ("&amp;'Общие данные'!B76&amp;") сум, сроком на "&amp;'Общие данные'!B81&amp;" ("&amp;'Общие данные'!B82&amp;") месяцев. В качестве своевременного исполнения обязательств по договору Микрозайма "&amp;'Общие данные'!B74&amp;" планирует предоставить нижеследующее "&amp;IF('Общие данные'!B103='Общие данные'!C103,"автотранспортного средство марки "&amp;'Общие данные'!B125&amp;" принадлежащее на правах собственности "&amp;'Общие данные'!B117&amp;"","недвижимого имущества в виде "&amp;'Общие данные'!C126&amp;", общей площадью - "&amp;'Общие данные'!C130&amp;" и жилой площадью - "&amp;'Общие данные'!C133&amp;", расположенного по адресу: "&amp;'Общие данные'!C123&amp;", принадлежащее на правах собственности "&amp;'Общие данные'!C117&amp;".")</f>
         <v xml:space="preserve">          Между ООО «Clever Mikrokredit Tashkiloti» и NUTFULLAYEV AKBARJON AXMEDOVICH  (паспорт: AA 9481167 BUXORO VILOYATI BUXORO SHAHAR IIB tomonidan 24.04.2015 yilda berilgan) заключен договор микрозайма 11 mart 2025 y.dan № -AL, на сумму 27 000 000,00 (yigirma yetti million so'm) сум, сроком на 36 (o'ttiz olti) месяцев. В качестве своевременного исполнения обязательств по договору Микрозайма 11 mart 2025 y.dan № -AL планирует предоставить нижеследующее автотранспортного средство марки CHANGAN CHANGAN SC 1027SB принадлежащее на правах собственности NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B9" s="340"/>
-      <c r="C9" s="340"/>
-      <c r="D9" s="340"/>
-      <c r="E9" s="340"/>
+      <c r="B9" s="338"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="338"/>
+      <c r="E9" s="338"/>
     </row>
     <row r="11" spans="1:5" ht="28.5">
       <c r="A11" s="39" t="str">
@@ -13256,44 +13256,44 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="341" t="str">
+      <c r="A13" s="342" t="str">
         <f>'Приказ на сделку'!A21:E21</f>
         <v>-* avtotransport egasi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B13" s="341"/>
-      <c r="C13" s="341"/>
-      <c r="D13" s="341"/>
-      <c r="E13" s="341"/>
+      <c r="B13" s="342"/>
+      <c r="C13" s="342"/>
+      <c r="D13" s="342"/>
+      <c r="E13" s="342"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="341" t="str">
+      <c r="A14" s="342" t="str">
         <f>'Приказ на сделку'!A22:E22</f>
         <v>-* texnik pasport: AAG   2346592  13.09.2023y</v>
       </c>
-      <c r="B14" s="341"/>
-      <c r="C14" s="341"/>
-      <c r="D14" s="341"/>
-      <c r="E14" s="341"/>
+      <c r="B14" s="342"/>
+      <c r="C14" s="342"/>
+      <c r="D14" s="342"/>
+      <c r="E14" s="342"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="341" t="str">
+      <c r="A15" s="342" t="str">
         <f>'Приказ на сделку'!A23:E23</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY</v>
       </c>
-      <c r="B15" s="341"/>
-      <c r="C15" s="341"/>
-      <c r="D15" s="341"/>
-      <c r="E15" s="341"/>
+      <c r="B15" s="342"/>
+      <c r="C15" s="342"/>
+      <c r="D15" s="342"/>
+      <c r="E15" s="342"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="341" t="str">
+      <c r="A16" s="342" t="str">
         <f>'Приказ на сделку'!A24:E24</f>
         <v>-* davlat raqami: 80T312WA</v>
       </c>
-      <c r="B16" s="341"/>
-      <c r="C16" s="341"/>
-      <c r="D16" s="341"/>
-      <c r="E16" s="341"/>
+      <c r="B16" s="342"/>
+      <c r="C16" s="342"/>
+      <c r="D16" s="342"/>
+      <c r="E16" s="342"/>
     </row>
     <row r="17" spans="1:5" ht="3" customHeight="1"/>
     <row r="19" spans="1:5" ht="59.25" hidden="1" customHeight="1">
@@ -13335,7 +13335,7 @@
         <f>'Акт согласования'!D33</f>
         <v>#REF!</v>
       </c>
-      <c r="E20" s="316" t="str">
+      <c r="E20" s="317" t="str">
         <f>""&amp;FIXED('Общие данные'!C136,2)&amp;" ("&amp;'Общие данные'!C137&amp;")"</f>
         <v>40 500 000,00 (qirq million besh yuz ming so'm)</v>
       </c>
@@ -13357,7 +13357,7 @@
         <f>'Акт согласования'!D34</f>
         <v>0</v>
       </c>
-      <c r="E21" s="317"/>
+      <c r="E21" s="318"/>
     </row>
     <row r="22" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A22" s="17" t="e">
@@ -13376,7 +13376,7 @@
         <f>'Акт согласования'!D35</f>
         <v>#REF!</v>
       </c>
-      <c r="E22" s="317"/>
+      <c r="E22" s="318"/>
     </row>
     <row r="23" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A23" s="17" t="e">
@@ -13395,7 +13395,7 @@
         <f>'Акт согласования'!D36</f>
         <v>#REF!</v>
       </c>
-      <c r="E23" s="317"/>
+      <c r="E23" s="318"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A24" s="17" t="e">
@@ -13414,7 +13414,7 @@
         <f>'Акт согласования'!D37</f>
         <v>#REF!</v>
       </c>
-      <c r="E24" s="317"/>
+      <c r="E24" s="318"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="17" t="e">
@@ -13433,7 +13433,7 @@
         <f>'Акт согласования'!D38</f>
         <v>#REF!</v>
       </c>
-      <c r="E25" s="317"/>
+      <c r="E25" s="318"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A26" s="17" t="e">
@@ -13452,7 +13452,7 @@
         <f>'Акт согласования'!D39</f>
         <v>#REF!</v>
       </c>
-      <c r="E26" s="317"/>
+      <c r="E26" s="318"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A27" s="17" t="e">
@@ -13471,7 +13471,7 @@
         <f>'Акт согласования'!D40</f>
         <v>#REF!</v>
       </c>
-      <c r="E27" s="317"/>
+      <c r="E27" s="318"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A28" s="17" t="e">
@@ -13490,7 +13490,7 @@
         <f>'Акт согласования'!D41</f>
         <v>#REF!</v>
       </c>
-      <c r="E28" s="317"/>
+      <c r="E28" s="318"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A29" s="17" t="e">
@@ -13509,7 +13509,7 @@
         <f>'Акт согласования'!D42</f>
         <v>#REF!</v>
       </c>
-      <c r="E29" s="317"/>
+      <c r="E29" s="318"/>
     </row>
     <row r="30" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A30" s="17" t="e">
@@ -13528,7 +13528,7 @@
         <f>'Акт согласования'!D43</f>
         <v>#REF!</v>
       </c>
-      <c r="E30" s="318"/>
+      <c r="E30" s="319"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A31" s="17" t="e">
@@ -13553,44 +13553,44 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.75" hidden="1" customHeight="1">
-      <c r="A32" s="340" t="e">
+      <c r="A32" s="338" t="e">
         <f>_xlfn.SINGLE('Акт согласования'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="B32" s="340"/>
-      <c r="C32" s="340"/>
-      <c r="D32" s="340"/>
-      <c r="E32" s="340"/>
+      <c r="B32" s="338"/>
+      <c r="C32" s="338"/>
+      <c r="D32" s="338"/>
+      <c r="E32" s="338"/>
     </row>
     <row r="33" spans="1:5" ht="24.75" hidden="1" customHeight="1">
-      <c r="A33" s="340" t="e">
+      <c r="A33" s="338" t="e">
         <f>_xlfn.SINGLE('Акт согласования'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="B33" s="340"/>
-      <c r="C33" s="340"/>
-      <c r="D33" s="340"/>
-      <c r="E33" s="340"/>
+      <c r="B33" s="338"/>
+      <c r="C33" s="338"/>
+      <c r="D33" s="338"/>
+      <c r="E33" s="338"/>
     </row>
     <row r="34" spans="1:5" ht="30.75" hidden="1" customHeight="1">
-      <c r="A34" s="340" t="e">
+      <c r="A34" s="338" t="e">
         <f>_xlfn.SINGLE('Акт согласования'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="B34" s="340"/>
-      <c r="C34" s="340"/>
-      <c r="D34" s="340"/>
-      <c r="E34" s="340"/>
+      <c r="B34" s="338"/>
+      <c r="C34" s="338"/>
+      <c r="D34" s="338"/>
+      <c r="E34" s="338"/>
     </row>
     <row r="35" spans="1:5" ht="15" hidden="1" customHeight="1">
-      <c r="A35" s="340" t="e">
+      <c r="A35" s="338" t="e">
         <f>_xlfn.SINGLE('Акт согласования'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="B35" s="340"/>
-      <c r="C35" s="340"/>
-      <c r="D35" s="340"/>
-      <c r="E35" s="340"/>
+      <c r="B35" s="338"/>
+      <c r="C35" s="338"/>
+      <c r="D35" s="338"/>
+      <c r="E35" s="338"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="22"/>
@@ -13600,7 +13600,7 @@
       <c r="E36" s="22"/>
     </row>
     <row r="37" spans="1:5" s="130" customFormat="1" ht="51" customHeight="1">
-      <c r="A37" s="339" t="str">
+      <c r="A37" s="341" t="str">
         <f>'Акт согласования'!A46:E46</f>
         <v>“Birinchi talabga ko‘ra, yuqoridagi avtomobil Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan edi::
 - №5 от 11 yanvar 2021 г., заключенного с ООО «Clever Mikrokredit Tashkiloti» и TULYAGANOV XODJIAKBAR IRGASHEVICH, по согласованной залоговой стоимость - 15 000 000,00 (on besh million) сум.
@@ -13624,83 +13624,76 @@
 0
 0</v>
       </c>
-      <c r="B37" s="339"/>
-      <c r="C37" s="339"/>
-      <c r="D37" s="339"/>
-      <c r="E37" s="339"/>
+      <c r="B37" s="341"/>
+      <c r="C37" s="341"/>
+      <c r="D37" s="341"/>
+      <c r="E37" s="341"/>
     </row>
     <row r="38" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A38" s="340" t="str">
+      <c r="A38" s="338" t="str">
         <f>'Акт согласования'!A47:E47</f>
         <v>Shu bilan birga, garov predmetining kelishilgan garov qiymati deganda ushbu mulk garov sifatida taqdim etilgan/qabul qilingan qiymati tushuniladi.</v>
       </c>
-      <c r="B38" s="340"/>
-      <c r="C38" s="340"/>
-      <c r="D38" s="340"/>
-      <c r="E38" s="340"/>
+      <c r="B38" s="338"/>
+      <c r="C38" s="338"/>
+      <c r="D38" s="338"/>
+      <c r="E38" s="338"/>
     </row>
     <row r="39" spans="1:5" ht="39" customHeight="1">
-      <c r="A39" s="340" t="str">
+      <c r="A39" s="338" t="str">
         <f>"Учитывая вышеизложенное, ООО «Clever Mikrokredit Tashkiloti» даёт свое согласие на предоставление вышеуказанного имущества в виде последующего залога по договору микрозайма "&amp;'Общие данные'!B74&amp;", при сохранении запрета."</f>
         <v>Учитывая вышеизложенное, ООО «Clever Mikrokredit Tashkiloti» даёт свое согласие на предоставление вышеуказанного имущества в виде последующего залога по договору микрозайма 11 mart 2025 y.dan № -AL, при сохранении запрета.</v>
       </c>
-      <c r="B39" s="340"/>
-      <c r="C39" s="340"/>
-      <c r="D39" s="340"/>
-      <c r="E39" s="340"/>
+      <c r="B39" s="338"/>
+      <c r="C39" s="338"/>
+      <c r="D39" s="338"/>
+      <c r="E39" s="338"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="343"/>
-      <c r="B40" s="343"/>
-      <c r="C40" s="343"/>
-      <c r="D40" s="343"/>
-      <c r="E40" s="343"/>
+      <c r="A40" s="339"/>
+      <c r="B40" s="339"/>
+      <c r="C40" s="339"/>
+      <c r="D40" s="339"/>
+      <c r="E40" s="339"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="344" t="s">
+      <c r="A41" s="340" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="344"/>
-      <c r="C41" s="344"/>
-      <c r="D41" s="344"/>
-      <c r="E41" s="344"/>
+      <c r="B41" s="340"/>
+      <c r="C41" s="340"/>
+      <c r="D41" s="340"/>
+      <c r="E41" s="340"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="343"/>
-      <c r="B42" s="343"/>
-      <c r="C42" s="343"/>
-      <c r="D42" s="343"/>
-      <c r="E42" s="343"/>
+      <c r="A42" s="339"/>
+      <c r="B42" s="339"/>
+      <c r="C42" s="339"/>
+      <c r="D42" s="339"/>
+      <c r="E42" s="339"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="344" t="s">
+      <c r="A43" s="340" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="344"/>
-      <c r="C43" s="344"/>
-      <c r="D43" s="344"/>
-      <c r="E43" s="344"/>
+      <c r="B43" s="340"/>
+      <c r="C43" s="340"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340"/>
     </row>
     <row r="44" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A44" s="342" t="s">
+      <c r="A44" s="337" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="342"/>
-      <c r="C44" s="342"/>
-      <c r="D44" s="342"/>
+      <c r="B44" s="337"/>
+      <c r="C44" s="337"/>
+      <c r="D44" s="337"/>
       <c r="E44" s="110" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="E20:E30"/>
     <mergeCell ref="A9:E9"/>
@@ -13712,6 +13705,13 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13755,30 +13755,30 @@
       <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="347" t="str">
+      <c r="A2" s="345" t="str">
         <f>""&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;" "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha
  garovga qo‘yilgan mol-mulkni tekshirish bo’yicha "&amp;'Общие данные'!B5&amp;" bilan tuzilgan dalolatnomasi"</f>
         <v xml:space="preserve"> 11 mart 2025 y.dan № -AL-sonli  Mikroqarz shartnomasi bo‘yicha
  garovga qo‘yilgan mol-mulkni tekshirish bo’yicha NUTFULLAYEV AKBARJON AXMEDOVICH bilan tuzilgan dalolatnomasi</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
       <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="347"/>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="347"/>
+      <c r="A3" s="345"/>
+      <c r="B3" s="345"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
       <c r="I3" s="31"/>
     </row>
     <row r="5" spans="1:9">
@@ -13792,151 +13792,151 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1">
-      <c r="A7" s="346" t="str">
+      <c r="A7" s="344" t="str">
         <f>"      Men, “СLEVER MIKROMOLYA TASHKILOTI” "&amp;'Общие данные'!A150&amp;"i "&amp;'Общие данные'!B150&amp;", jismoniy shaxs "&amp;" "&amp;'Общие данные'!B5&amp;" "&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;'Общие данные'!B65&amp;" shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim"</f>
         <v xml:space="preserve">      Men, “СLEVER MIKROMOLYA TASHKILOTI” Olmaliq filiali boshlig'ii V. Yerjanov, jismoniy shaxs  NUTFULLAYEV AKBARJON AXMEDOVICH  11 mart 2025 y.dan № -AL-sonli mikroqarz shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim</v>
       </c>
-      <c r="B7" s="346"/>
-      <c r="C7" s="346"/>
-      <c r="D7" s="346"/>
-      <c r="E7" s="346"/>
-      <c r="F7" s="346"/>
-      <c r="G7" s="346"/>
-      <c r="H7" s="346"/>
+      <c r="B7" s="344"/>
+      <c r="C7" s="344"/>
+      <c r="D7" s="344"/>
+      <c r="E7" s="344"/>
+      <c r="F7" s="344"/>
+      <c r="G7" s="344"/>
+      <c r="H7" s="344"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A8" s="350" t="s">
+      <c r="A8" s="348" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="350"/>
-      <c r="C8" s="350"/>
-      <c r="D8" s="350"/>
-      <c r="E8" s="350"/>
-      <c r="F8" s="350"/>
-      <c r="G8" s="350"/>
-      <c r="H8" s="350"/>
+      <c r="B8" s="348"/>
+      <c r="C8" s="348"/>
+      <c r="D8" s="348"/>
+      <c r="E8" s="348"/>
+      <c r="F8" s="348"/>
+      <c r="G8" s="348"/>
+      <c r="H8" s="348"/>
     </row>
     <row r="9" spans="1:9" s="142" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A9" s="351" t="str">
+      <c r="A9" s="349" t="str">
         <f>'Акт согласования'!A20</f>
         <v>Nomi</v>
       </c>
-      <c r="B9" s="352"/>
-      <c r="C9" s="351" t="str">
+      <c r="B9" s="350"/>
+      <c r="C9" s="349" t="str">
         <f>'Акт согласования'!B20</f>
         <v>Kuzov turi  va kuzov raqami*</v>
       </c>
-      <c r="D9" s="352"/>
-      <c r="E9" s="351" t="str">
+      <c r="D9" s="350"/>
+      <c r="E9" s="349" t="str">
         <f>'Акт согласования'!D20</f>
         <v>Dvigatel va shassi raqami*</v>
       </c>
-      <c r="F9" s="352"/>
-      <c r="G9" s="351" t="str">
+      <c r="F9" s="350"/>
+      <c r="G9" s="349" t="str">
         <f>'Акт согласования'!E20</f>
         <v>Ishlab chiqarilgan yili va rangi**</v>
       </c>
-      <c r="H9" s="352"/>
+      <c r="H9" s="350"/>
     </row>
     <row r="10" spans="1:9" s="140" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A10" s="353" t="str">
+      <c r="A10" s="351" t="str">
         <f>'Акт согласования'!A21</f>
         <v>CHANGAN CHANGAN SC 1027SB</v>
       </c>
-      <c r="B10" s="353"/>
-      <c r="C10" s="353" t="str">
+      <c r="B10" s="351"/>
+      <c r="C10" s="351" t="str">
         <f>'Акт согласования'!B21</f>
         <v>kuzov turi - YUK BORTLI TENT, kuzov raqami LSCAB23D8EG228387</v>
       </c>
-      <c r="D10" s="353"/>
-      <c r="E10" s="353" t="str">
+      <c r="D10" s="351"/>
+      <c r="E10" s="351" t="str">
         <f>'Акт согласования'!D21</f>
         <v>dvigatel raqami JL466Q1%E61H022801, shassi raqami - URINDIKLAR SONI 5TA</v>
       </c>
-      <c r="F10" s="353"/>
-      <c r="G10" s="353" t="str">
+      <c r="F10" s="351"/>
+      <c r="G10" s="351" t="str">
         <f>'Акт согласования'!E21</f>
         <v>rangi -  OQ BELIY, ishlab chiqarilgan yili - 2014</v>
       </c>
-      <c r="H10" s="353"/>
+      <c r="H10" s="351"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A11" s="345" t="str">
+      <c r="A11" s="343" t="str">
         <f>'Акт согласования'!A22:E22</f>
         <v>-* avtotransport egasi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B11" s="345"/>
-      <c r="C11" s="345"/>
-      <c r="D11" s="345"/>
-      <c r="E11" s="345"/>
-      <c r="F11" s="345"/>
-      <c r="G11" s="345"/>
-      <c r="H11" s="345"/>
+      <c r="B11" s="343"/>
+      <c r="C11" s="343"/>
+      <c r="D11" s="343"/>
+      <c r="E11" s="343"/>
+      <c r="F11" s="343"/>
+      <c r="G11" s="343"/>
+      <c r="H11" s="343"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A12" s="345" t="str">
+      <c r="A12" s="343" t="str">
         <f>'Акт согласования'!A23:E23</f>
         <v>-* texnik pasport: AAG   2346592  13.09.2023y</v>
       </c>
-      <c r="B12" s="345"/>
-      <c r="C12" s="345"/>
-      <c r="D12" s="345"/>
-      <c r="E12" s="345"/>
-      <c r="F12" s="345"/>
-      <c r="G12" s="345"/>
-      <c r="H12" s="345"/>
+      <c r="B12" s="343"/>
+      <c r="C12" s="343"/>
+      <c r="D12" s="343"/>
+      <c r="E12" s="343"/>
+      <c r="F12" s="343"/>
+      <c r="G12" s="343"/>
+      <c r="H12" s="343"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A13" s="345" t="str">
+      <c r="A13" s="343" t="str">
         <f>'Акт согласования'!A24:E24</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY</v>
       </c>
-      <c r="B13" s="345"/>
-      <c r="C13" s="345"/>
-      <c r="D13" s="345"/>
-      <c r="E13" s="345"/>
-      <c r="F13" s="345"/>
-      <c r="G13" s="345"/>
-      <c r="H13" s="345"/>
+      <c r="B13" s="343"/>
+      <c r="C13" s="343"/>
+      <c r="D13" s="343"/>
+      <c r="E13" s="343"/>
+      <c r="F13" s="343"/>
+      <c r="G13" s="343"/>
+      <c r="H13" s="343"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A14" s="345" t="str">
+      <c r="A14" s="343" t="str">
         <f>'Акт согласования'!A25:E25</f>
         <v>-* davlat raqami: 80T312WA</v>
       </c>
-      <c r="B14" s="345"/>
-      <c r="C14" s="345"/>
-      <c r="D14" s="345"/>
-      <c r="E14" s="345"/>
-      <c r="F14" s="345"/>
-      <c r="G14" s="345"/>
-      <c r="H14" s="345"/>
+      <c r="B14" s="343"/>
+      <c r="C14" s="343"/>
+      <c r="D14" s="343"/>
+      <c r="E14" s="343"/>
+      <c r="F14" s="343"/>
+      <c r="G14" s="343"/>
+      <c r="H14" s="343"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A15" s="348" t="str">
+      <c r="A15" s="346" t="str">
         <f>+"Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati "&amp;'Акт согласования'!E30</f>
         <v>Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati 40 500 000,00 
 (qirq million besh yuz ming so'm)</v>
       </c>
-      <c r="B15" s="348"/>
-      <c r="C15" s="348"/>
-      <c r="D15" s="348"/>
-      <c r="E15" s="348"/>
-      <c r="F15" s="348"/>
-      <c r="G15" s="348"/>
-      <c r="H15" s="348"/>
+      <c r="B15" s="346"/>
+      <c r="C15" s="346"/>
+      <c r="D15" s="346"/>
+      <c r="E15" s="346"/>
+      <c r="F15" s="346"/>
+      <c r="G15" s="346"/>
+      <c r="H15" s="346"/>
     </row>
     <row r="17" spans="1:8" ht="27" customHeight="1">
-      <c r="A17" s="349" t="s">
+      <c r="A17" s="347" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="349"/>
-      <c r="C17" s="349"/>
-      <c r="D17" s="349"/>
-      <c r="E17" s="349"/>
-      <c r="F17" s="349"/>
-      <c r="G17" s="349"/>
-      <c r="H17" s="349"/>
+      <c r="B17" s="347"/>
+      <c r="C17" s="347"/>
+      <c r="D17" s="347"/>
+      <c r="E17" s="347"/>
+      <c r="F17" s="347"/>
+      <c r="G17" s="347"/>
+      <c r="H17" s="347"/>
     </row>
     <row r="21" spans="1:8" s="31" customFormat="1"/>
     <row r="22" spans="1:8" s="31" customFormat="1">
@@ -13977,6 +13977,11 @@
     <row r="30" spans="1:8" s="31" customFormat="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="A15:H15"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:B9"/>
@@ -13989,11 +13994,6 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="A15:H15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14034,30 +14034,30 @@
       <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="347" t="str">
+      <c r="A2" s="345" t="str">
         <f>""&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;" "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha
  garovga qo‘yilgan mol-mulkni tekshirish bo’yicha "&amp;'Общие данные'!B5&amp;" bilan tuzilgan dalolatnomasi"</f>
         <v xml:space="preserve"> 11 mart 2025 y.dan № -AL-sonli  Mikroqarz shartnomasi bo‘yicha
  garovga qo‘yilgan mol-mulkni tekshirish bo’yicha NUTFULLAYEV AKBARJON AXMEDOVICH bilan tuzilgan dalolatnomasi</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
       <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="347"/>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="347"/>
+      <c r="A3" s="345"/>
+      <c r="B3" s="345"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
       <c r="I3" s="31"/>
     </row>
     <row r="5" spans="1:9">
@@ -14070,151 +14070,151 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1">
-      <c r="A7" s="346" t="str">
+      <c r="A7" s="344" t="str">
         <f>"      Men, "&amp;'Общие данные'!B147&amp;" "&amp;'Общие данные'!A150&amp;"i "&amp;'Общие данные'!B150&amp;", jismoniy shaxs "&amp;" "&amp;'Общие данные'!B5&amp;" "&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim"</f>
         <v xml:space="preserve">      Men, «CLEVER MIKROMOLIYA TASHKILOTI» MChJ Olmaliq filiali boshlig'ii V. Yerjanov, jismoniy shaxs  NUTFULLAYEV AKBARJON AXMEDOVICH  11 mart 2025 y.dan № -AL-sonli Mikroqarz shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim</v>
       </c>
-      <c r="B7" s="346"/>
-      <c r="C7" s="346"/>
-      <c r="D7" s="346"/>
-      <c r="E7" s="346"/>
-      <c r="F7" s="346"/>
-      <c r="G7" s="346"/>
-      <c r="H7" s="346"/>
+      <c r="B7" s="344"/>
+      <c r="C7" s="344"/>
+      <c r="D7" s="344"/>
+      <c r="E7" s="344"/>
+      <c r="F7" s="344"/>
+      <c r="G7" s="344"/>
+      <c r="H7" s="344"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A8" s="350" t="s">
+      <c r="A8" s="348" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="350"/>
-      <c r="C8" s="350"/>
-      <c r="D8" s="350"/>
-      <c r="E8" s="350"/>
-      <c r="F8" s="350"/>
-      <c r="G8" s="350"/>
-      <c r="H8" s="350"/>
+      <c r="B8" s="348"/>
+      <c r="C8" s="348"/>
+      <c r="D8" s="348"/>
+      <c r="E8" s="348"/>
+      <c r="F8" s="348"/>
+      <c r="G8" s="348"/>
+      <c r="H8" s="348"/>
     </row>
     <row r="9" spans="1:9" s="142" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A9" s="351" t="str">
+      <c r="A9" s="349" t="str">
         <f>' Акт мониторинга 1'!A9</f>
         <v>Nomi</v>
       </c>
-      <c r="B9" s="352"/>
-      <c r="C9" s="351" t="str">
+      <c r="B9" s="350"/>
+      <c r="C9" s="349" t="str">
         <f>' Акт мониторинга 1'!C9</f>
         <v>Kuzov turi  va kuzov raqami*</v>
       </c>
-      <c r="D9" s="352"/>
-      <c r="E9" s="351" t="str">
+      <c r="D9" s="350"/>
+      <c r="E9" s="349" t="str">
         <f>' Акт мониторинга 1'!E9</f>
         <v>Dvigatel va shassi raqami*</v>
       </c>
-      <c r="F9" s="352"/>
-      <c r="G9" s="351" t="str">
+      <c r="F9" s="350"/>
+      <c r="G9" s="349" t="str">
         <f>' Акт мониторинга 1'!G9</f>
         <v>Ishlab chiqarilgan yili va rangi**</v>
       </c>
-      <c r="H9" s="352"/>
+      <c r="H9" s="350"/>
     </row>
     <row r="10" spans="1:9" s="140" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A10" s="353" t="str">
+      <c r="A10" s="351" t="str">
         <f>' Акт мониторинга 1'!A10</f>
         <v>CHANGAN CHANGAN SC 1027SB</v>
       </c>
-      <c r="B10" s="353"/>
-      <c r="C10" s="353" t="str">
+      <c r="B10" s="351"/>
+      <c r="C10" s="351" t="str">
         <f>' Акт мониторинга 1'!C10</f>
         <v>kuzov turi - YUK BORTLI TENT, kuzov raqami LSCAB23D8EG228387</v>
       </c>
-      <c r="D10" s="353"/>
-      <c r="E10" s="353" t="str">
+      <c r="D10" s="351"/>
+      <c r="E10" s="351" t="str">
         <f>' Акт мониторинга 1'!E10</f>
         <v>dvigatel raqami JL466Q1%E61H022801, shassi raqami - URINDIKLAR SONI 5TA</v>
       </c>
-      <c r="F10" s="353"/>
-      <c r="G10" s="353" t="str">
+      <c r="F10" s="351"/>
+      <c r="G10" s="351" t="str">
         <f>' Акт мониторинга 1'!G10</f>
         <v>rangi -  OQ BELIY, ishlab chiqarilgan yili - 2014</v>
       </c>
-      <c r="H10" s="353"/>
+      <c r="H10" s="351"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A11" s="345" t="str">
+      <c r="A11" s="343" t="str">
         <f>'Акт согласования'!A22:E22</f>
         <v>-* avtotransport egasi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B11" s="345"/>
-      <c r="C11" s="345"/>
-      <c r="D11" s="345"/>
-      <c r="E11" s="345"/>
-      <c r="F11" s="345"/>
-      <c r="G11" s="345"/>
-      <c r="H11" s="345"/>
+      <c r="B11" s="343"/>
+      <c r="C11" s="343"/>
+      <c r="D11" s="343"/>
+      <c r="E11" s="343"/>
+      <c r="F11" s="343"/>
+      <c r="G11" s="343"/>
+      <c r="H11" s="343"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A12" s="345" t="str">
+      <c r="A12" s="343" t="str">
         <f>'Акт согласования'!A23:E23</f>
         <v>-* texnik pasport: AAG   2346592  13.09.2023y</v>
       </c>
-      <c r="B12" s="345"/>
-      <c r="C12" s="345"/>
-      <c r="D12" s="345"/>
-      <c r="E12" s="345"/>
-      <c r="F12" s="345"/>
-      <c r="G12" s="345"/>
-      <c r="H12" s="345"/>
+      <c r="B12" s="343"/>
+      <c r="C12" s="343"/>
+      <c r="D12" s="343"/>
+      <c r="E12" s="343"/>
+      <c r="F12" s="343"/>
+      <c r="G12" s="343"/>
+      <c r="H12" s="343"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A13" s="345" t="str">
+      <c r="A13" s="343" t="str">
         <f>'Акт согласования'!A24:E24</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY</v>
       </c>
-      <c r="B13" s="345"/>
-      <c r="C13" s="345"/>
-      <c r="D13" s="345"/>
-      <c r="E13" s="345"/>
-      <c r="F13" s="345"/>
-      <c r="G13" s="345"/>
-      <c r="H13" s="345"/>
+      <c r="B13" s="343"/>
+      <c r="C13" s="343"/>
+      <c r="D13" s="343"/>
+      <c r="E13" s="343"/>
+      <c r="F13" s="343"/>
+      <c r="G13" s="343"/>
+      <c r="H13" s="343"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A14" s="345" t="str">
+      <c r="A14" s="343" t="str">
         <f>'Акт согласования'!A25:E25</f>
         <v>-* davlat raqami: 80T312WA</v>
       </c>
-      <c r="B14" s="345"/>
-      <c r="C14" s="345"/>
-      <c r="D14" s="345"/>
-      <c r="E14" s="345"/>
-      <c r="F14" s="345"/>
-      <c r="G14" s="345"/>
-      <c r="H14" s="345"/>
+      <c r="B14" s="343"/>
+      <c r="C14" s="343"/>
+      <c r="D14" s="343"/>
+      <c r="E14" s="343"/>
+      <c r="F14" s="343"/>
+      <c r="G14" s="343"/>
+      <c r="H14" s="343"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A15" s="348" t="str">
+      <c r="A15" s="346" t="str">
         <f>+"Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati "&amp;'Акт согласования'!E30</f>
         <v>Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati 40 500 000,00 
 (qirq million besh yuz ming so'm)</v>
       </c>
-      <c r="B15" s="348"/>
-      <c r="C15" s="348"/>
-      <c r="D15" s="348"/>
-      <c r="E15" s="348"/>
-      <c r="F15" s="348"/>
-      <c r="G15" s="348"/>
-      <c r="H15" s="348"/>
+      <c r="B15" s="346"/>
+      <c r="C15" s="346"/>
+      <c r="D15" s="346"/>
+      <c r="E15" s="346"/>
+      <c r="F15" s="346"/>
+      <c r="G15" s="346"/>
+      <c r="H15" s="346"/>
     </row>
     <row r="17" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A17" s="349" t="s">
+      <c r="A17" s="347" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="349"/>
-      <c r="C17" s="349"/>
-      <c r="D17" s="349"/>
-      <c r="E17" s="349"/>
-      <c r="F17" s="349"/>
-      <c r="G17" s="349"/>
-      <c r="H17" s="349"/>
+      <c r="B17" s="347"/>
+      <c r="C17" s="347"/>
+      <c r="D17" s="347"/>
+      <c r="E17" s="347"/>
+      <c r="F17" s="347"/>
+      <c r="G17" s="347"/>
+      <c r="H17" s="347"/>
     </row>
     <row r="21" spans="1:8" s="31" customFormat="1"/>
     <row r="22" spans="1:8" s="31" customFormat="1">
@@ -14254,6 +14254,13 @@
     <row r="29" spans="1:8" s="31" customFormat="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A2:H3"/>
     <mergeCell ref="A13:H13"/>
@@ -14264,13 +14271,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14315,10 +14315,10 @@
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
-      <c r="E1" s="240" t="s">
+      <c r="E1" s="247" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="240"/>
+      <c r="F1" s="247"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="86"/>
@@ -14344,14 +14344,14 @@
       <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" customHeight="1">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="248" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
       <c r="H4" s="89"/>
       <c r="I4" s="89"/>
       <c r="J4" s="89"/>
@@ -14364,25 +14364,25 @@
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="242" t="s">
+      <c r="A6" s="249" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="243" t="s">
+      <c r="B6" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="243" t="s">
+      <c r="C6" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="244" t="s">
+      <c r="D6" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="244"/>
-      <c r="F6" s="244"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="251"/>
     </row>
     <row r="7" spans="1:22" s="16" customFormat="1">
-      <c r="A7" s="242"/>
-      <c r="B7" s="243"/>
-      <c r="C7" s="243"/>
+      <c r="A7" s="249"/>
+      <c r="B7" s="250"/>
+      <c r="C7" s="250"/>
       <c r="D7" s="91" t="s">
         <v>12</v>
       </c>
@@ -17082,234 +17082,220 @@
       <c r="F45" s="100"/>
     </row>
     <row r="46" spans="1:22" ht="47.25" customHeight="1">
-      <c r="A46" s="246" t="s">
+      <c r="A46" s="244" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="246"/>
-      <c r="C46" s="246"/>
-      <c r="D46" s="246"/>
-      <c r="E46" s="246"/>
-      <c r="F46" s="246"/>
+      <c r="B46" s="244"/>
+      <c r="C46" s="244"/>
+      <c r="D46" s="244"/>
+      <c r="E46" s="244"/>
+      <c r="F46" s="244"/>
     </row>
     <row r="47" spans="1:22" ht="7.5" customHeight="1"/>
     <row r="48" spans="1:22">
-      <c r="A48" s="247" t="e">
+      <c r="A48" s="245" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B48" s="247"/>
-      <c r="C48" s="247"/>
-      <c r="D48" s="247" t="e">
+      <c r="B48" s="245"/>
+      <c r="C48" s="245"/>
+      <c r="D48" s="245" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E48" s="247"/>
-      <c r="F48" s="247"/>
+      <c r="E48" s="245"/>
+      <c r="F48" s="245"/>
     </row>
     <row r="49" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A49" s="248"/>
-      <c r="B49" s="248"/>
-      <c r="C49" s="248"/>
-      <c r="D49" s="248"/>
-      <c r="E49" s="248"/>
-      <c r="F49" s="248"/>
+      <c r="A49" s="246"/>
+      <c r="B49" s="246"/>
+      <c r="C49" s="246"/>
+      <c r="D49" s="246"/>
+      <c r="E49" s="246"/>
+      <c r="F49" s="246"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1">
-      <c r="A50" s="249" t="e">
+      <c r="A50" s="243" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B50" s="249"/>
-      <c r="C50" s="249"/>
-      <c r="D50" s="249" t="e">
+      <c r="B50" s="243"/>
+      <c r="C50" s="243"/>
+      <c r="D50" s="243" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E50" s="249"/>
-      <c r="F50" s="249"/>
+      <c r="E50" s="243"/>
+      <c r="F50" s="243"/>
     </row>
     <row r="51" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A51" s="245" t="e">
+      <c r="A51" s="239" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B51" s="245"/>
-      <c r="C51" s="245"/>
-      <c r="D51" s="245" t="e">
+      <c r="B51" s="239"/>
+      <c r="C51" s="239"/>
+      <c r="D51" s="239" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E51" s="245"/>
-      <c r="F51" s="245"/>
+      <c r="E51" s="239"/>
+      <c r="F51" s="239"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="245" t="e">
+      <c r="A52" s="239" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B52" s="245"/>
-      <c r="C52" s="245"/>
-      <c r="D52" s="245" t="str">
+      <c r="B52" s="239"/>
+      <c r="C52" s="239"/>
+      <c r="D52" s="239" t="str">
         <f>"паспорт серии "&amp;'Общие данные'!B16&amp;", "&amp;'Общие данные'!B20&amp;""</f>
         <v>паспорт серии AA 9481167, BUXORO VILOYATI BUXORO SHAHAR IIB tomonidan 24.04.2015 yilda berilgan</v>
       </c>
-      <c r="E52" s="245"/>
-      <c r="F52" s="245"/>
+      <c r="E52" s="239"/>
+      <c r="F52" s="239"/>
     </row>
     <row r="53" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A53" s="245" t="e">
+      <c r="A53" s="239" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B53" s="245"/>
-      <c r="C53" s="245"/>
-      <c r="D53" s="245"/>
-      <c r="E53" s="245"/>
-      <c r="F53" s="245"/>
+      <c r="B53" s="239"/>
+      <c r="C53" s="239"/>
+      <c r="D53" s="239"/>
+      <c r="E53" s="239"/>
+      <c r="F53" s="239"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="245" t="e">
+      <c r="A54" s="239" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B54" s="245"/>
-      <c r="C54" s="245"/>
-      <c r="D54" s="245" t="e">
+      <c r="B54" s="239"/>
+      <c r="C54" s="239"/>
+      <c r="D54" s="239" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E54" s="245"/>
-      <c r="F54" s="245"/>
+      <c r="E54" s="239"/>
+      <c r="F54" s="239"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="245" t="e">
+      <c r="A55" s="239" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B55" s="245"/>
-      <c r="C55" s="245"/>
-      <c r="D55" s="245" t="e">
+      <c r="B55" s="239"/>
+      <c r="C55" s="239"/>
+      <c r="D55" s="239" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E55" s="245"/>
-      <c r="F55" s="245"/>
+      <c r="E55" s="239"/>
+      <c r="F55" s="239"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="245" t="e">
+      <c r="A56" s="239" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B56" s="245"/>
-      <c r="C56" s="245"/>
-      <c r="D56" s="245" t="e">
+      <c r="B56" s="239"/>
+      <c r="C56" s="239"/>
+      <c r="D56" s="239" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="245"/>
-      <c r="F56" s="245"/>
+      <c r="E56" s="239"/>
+      <c r="F56" s="239"/>
     </row>
     <row r="57" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A57" s="245"/>
-      <c r="B57" s="245"/>
-      <c r="C57" s="245"/>
-      <c r="D57" s="245"/>
-      <c r="E57" s="245"/>
-      <c r="F57" s="245"/>
+      <c r="A57" s="239"/>
+      <c r="B57" s="239"/>
+      <c r="C57" s="239"/>
+      <c r="D57" s="239"/>
+      <c r="E57" s="239"/>
+      <c r="F57" s="239"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="249" t="e">
+      <c r="A58" s="243" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B58" s="249"/>
-      <c r="C58" s="249"/>
-      <c r="D58" s="249" t="e">
+      <c r="B58" s="243"/>
+      <c r="C58" s="243"/>
+      <c r="D58" s="243" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E58" s="249"/>
-      <c r="F58" s="249"/>
+      <c r="E58" s="243"/>
+      <c r="F58" s="243"/>
     </row>
     <row r="59" spans="1:6" ht="7.5" customHeight="1">
-      <c r="A59" s="249"/>
-      <c r="B59" s="249"/>
-      <c r="C59" s="249"/>
-      <c r="D59" s="249"/>
-      <c r="E59" s="249"/>
-      <c r="F59" s="249"/>
+      <c r="A59" s="243"/>
+      <c r="B59" s="243"/>
+      <c r="C59" s="243"/>
+      <c r="D59" s="243"/>
+      <c r="E59" s="243"/>
+      <c r="F59" s="243"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="249" t="e">
+      <c r="A60" s="243" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B60" s="249"/>
-      <c r="C60" s="249"/>
-      <c r="D60" s="249" t="e">
+      <c r="B60" s="243"/>
+      <c r="C60" s="243"/>
+      <c r="D60" s="243" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E60" s="249"/>
-      <c r="F60" s="249"/>
+      <c r="E60" s="243"/>
+      <c r="F60" s="243"/>
     </row>
     <row r="61" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A61" s="245"/>
-      <c r="B61" s="245"/>
-      <c r="C61" s="245"/>
-      <c r="D61" s="245"/>
-      <c r="E61" s="245"/>
-      <c r="F61" s="245"/>
+      <c r="A61" s="239"/>
+      <c r="B61" s="239"/>
+      <c r="C61" s="239"/>
+      <c r="D61" s="239"/>
+      <c r="E61" s="239"/>
+      <c r="F61" s="239"/>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1">
-      <c r="A62" s="251"/>
-      <c r="B62" s="251"/>
-      <c r="C62" s="251"/>
-      <c r="D62" s="252" t="e">
+      <c r="A62" s="240"/>
+      <c r="B62" s="240"/>
+      <c r="C62" s="240"/>
+      <c r="D62" s="241" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E62" s="252"/>
-      <c r="F62" s="252"/>
+      <c r="E62" s="241"/>
+      <c r="F62" s="241"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="253"/>
-      <c r="B63" s="253"/>
-      <c r="C63" s="253"/>
-      <c r="D63" s="253"/>
-      <c r="E63" s="253"/>
-      <c r="F63" s="253"/>
+      <c r="A63" s="242"/>
+      <c r="B63" s="242"/>
+      <c r="C63" s="242"/>
+      <c r="D63" s="242"/>
+      <c r="E63" s="242"/>
+      <c r="F63" s="242"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="250"/>
-      <c r="B64" s="250"/>
-      <c r="C64" s="250"/>
-      <c r="D64" s="250"/>
-      <c r="E64" s="250"/>
-      <c r="F64" s="250"/>
+      <c r="A64" s="238"/>
+      <c r="B64" s="238"/>
+      <c r="C64" s="238"/>
+      <c r="D64" s="238"/>
+      <c r="E64" s="238"/>
+      <c r="F64" s="238"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="A46:F46"/>
@@ -17324,12 +17310,26 @@
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="D52:F53"/>
     <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:B43">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
@@ -17384,30 +17384,30 @@
       <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="347" t="str">
+      <c r="A2" s="345" t="str">
         <f>""&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;" "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha
  garovga qo‘yilgan mol-mulkni tekshirish bo’yicha "&amp;'Общие данные'!B5&amp;" bilan tuzilgan dalolatnomasi"</f>
         <v xml:space="preserve"> 11 mart 2025 y.dan № -AL-sonli  Mikroqarz shartnomasi bo‘yicha
  garovga qo‘yilgan mol-mulkni tekshirish bo’yicha NUTFULLAYEV AKBARJON AXMEDOVICH bilan tuzilgan dalolatnomasi</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
       <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="347"/>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="347"/>
+      <c r="A3" s="345"/>
+      <c r="B3" s="345"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
       <c r="I3" s="31"/>
     </row>
     <row r="5" spans="1:9">
@@ -17420,151 +17420,151 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1">
-      <c r="A7" s="346" t="str">
+      <c r="A7" s="344" t="str">
         <f>"      Men, "&amp;'Общие данные'!B147&amp;" "&amp;'Общие данные'!A150&amp;"i "&amp;'Общие данные'!B150&amp;", jismoniy shaxs "&amp;" "&amp;'Общие данные'!B5&amp;" "&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim"</f>
         <v xml:space="preserve">      Men, «CLEVER MIKROMOLIYA TASHKILOTI» MChJ Olmaliq filiali boshlig'ii V. Yerjanov, jismoniy shaxs  NUTFULLAYEV AKBARJON AXMEDOVICH  11 mart 2025 y.dan № -AL-sonli Mikroqarz shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim</v>
       </c>
-      <c r="B7" s="346"/>
-      <c r="C7" s="346"/>
-      <c r="D7" s="346"/>
-      <c r="E7" s="346"/>
-      <c r="F7" s="346"/>
-      <c r="G7" s="346"/>
-      <c r="H7" s="346"/>
+      <c r="B7" s="344"/>
+      <c r="C7" s="344"/>
+      <c r="D7" s="344"/>
+      <c r="E7" s="344"/>
+      <c r="F7" s="344"/>
+      <c r="G7" s="344"/>
+      <c r="H7" s="344"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A8" s="350" t="s">
+      <c r="A8" s="348" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="350"/>
-      <c r="C8" s="350"/>
-      <c r="D8" s="350"/>
-      <c r="E8" s="350"/>
-      <c r="F8" s="350"/>
-      <c r="G8" s="350"/>
-      <c r="H8" s="350"/>
+      <c r="B8" s="348"/>
+      <c r="C8" s="348"/>
+      <c r="D8" s="348"/>
+      <c r="E8" s="348"/>
+      <c r="F8" s="348"/>
+      <c r="G8" s="348"/>
+      <c r="H8" s="348"/>
     </row>
     <row r="9" spans="1:9" s="142" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A9" s="351" t="str">
+      <c r="A9" s="349" t="str">
         <f>' Акт мониторинга 1'!A9</f>
         <v>Nomi</v>
       </c>
-      <c r="B9" s="352"/>
-      <c r="C9" s="351" t="str">
+      <c r="B9" s="350"/>
+      <c r="C9" s="349" t="str">
         <f>' Акт мониторинга 1'!C9</f>
         <v>Kuzov turi  va kuzov raqami*</v>
       </c>
-      <c r="D9" s="352"/>
-      <c r="E9" s="351" t="str">
+      <c r="D9" s="350"/>
+      <c r="E9" s="349" t="str">
         <f>' Акт мониторинга 1'!E9</f>
         <v>Dvigatel va shassi raqami*</v>
       </c>
-      <c r="F9" s="352"/>
-      <c r="G9" s="351" t="str">
+      <c r="F9" s="350"/>
+      <c r="G9" s="349" t="str">
         <f>' Акт мониторинга 1'!G9</f>
         <v>Ishlab chiqarilgan yili va rangi**</v>
       </c>
-      <c r="H9" s="352"/>
+      <c r="H9" s="350"/>
     </row>
     <row r="10" spans="1:9" s="140" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A10" s="354" t="str">
+      <c r="A10" s="352" t="str">
         <f>' Акт мониторинга 1'!A10</f>
         <v>CHANGAN CHANGAN SC 1027SB</v>
       </c>
-      <c r="B10" s="355"/>
-      <c r="C10" s="354" t="str">
+      <c r="B10" s="353"/>
+      <c r="C10" s="352" t="str">
         <f>' Акт мониторинга 1'!C10</f>
         <v>kuzov turi - YUK BORTLI TENT, kuzov raqami LSCAB23D8EG228387</v>
       </c>
-      <c r="D10" s="355"/>
-      <c r="E10" s="354" t="str">
+      <c r="D10" s="353"/>
+      <c r="E10" s="352" t="str">
         <f>' Акт мониторинга 1'!E10</f>
         <v>dvigatel raqami JL466Q1%E61H022801, shassi raqami - URINDIKLAR SONI 5TA</v>
       </c>
-      <c r="F10" s="355"/>
-      <c r="G10" s="354" t="str">
+      <c r="F10" s="353"/>
+      <c r="G10" s="352" t="str">
         <f>' Акт мониторинга 1'!G10</f>
         <v>rangi -  OQ BELIY, ishlab chiqarilgan yili - 2014</v>
       </c>
-      <c r="H10" s="355"/>
+      <c r="H10" s="353"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A11" s="345" t="str">
+      <c r="A11" s="343" t="str">
         <f>'Акт согласования'!A22:E22</f>
         <v>-* avtotransport egasi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B11" s="345"/>
-      <c r="C11" s="345"/>
-      <c r="D11" s="345"/>
-      <c r="E11" s="345"/>
-      <c r="F11" s="345"/>
-      <c r="G11" s="345"/>
-      <c r="H11" s="345"/>
+      <c r="B11" s="343"/>
+      <c r="C11" s="343"/>
+      <c r="D11" s="343"/>
+      <c r="E11" s="343"/>
+      <c r="F11" s="343"/>
+      <c r="G11" s="343"/>
+      <c r="H11" s="343"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A12" s="345" t="str">
+      <c r="A12" s="343" t="str">
         <f>'Акт согласования'!A23:E23</f>
         <v>-* texnik pasport: AAG   2346592  13.09.2023y</v>
       </c>
-      <c r="B12" s="345"/>
-      <c r="C12" s="345"/>
-      <c r="D12" s="345"/>
-      <c r="E12" s="345"/>
-      <c r="F12" s="345"/>
-      <c r="G12" s="345"/>
-      <c r="H12" s="345"/>
+      <c r="B12" s="343"/>
+      <c r="C12" s="343"/>
+      <c r="D12" s="343"/>
+      <c r="E12" s="343"/>
+      <c r="F12" s="343"/>
+      <c r="G12" s="343"/>
+      <c r="H12" s="343"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A13" s="345" t="str">
+      <c r="A13" s="343" t="str">
         <f>'Акт согласования'!A24:E24</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY</v>
       </c>
-      <c r="B13" s="345"/>
-      <c r="C13" s="345"/>
-      <c r="D13" s="345"/>
-      <c r="E13" s="345"/>
-      <c r="F13" s="345"/>
-      <c r="G13" s="345"/>
-      <c r="H13" s="345"/>
+      <c r="B13" s="343"/>
+      <c r="C13" s="343"/>
+      <c r="D13" s="343"/>
+      <c r="E13" s="343"/>
+      <c r="F13" s="343"/>
+      <c r="G13" s="343"/>
+      <c r="H13" s="343"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A14" s="345" t="str">
+      <c r="A14" s="343" t="str">
         <f>'Акт согласования'!A25:E25</f>
         <v>-* davlat raqami: 80T312WA</v>
       </c>
-      <c r="B14" s="345"/>
-      <c r="C14" s="345"/>
-      <c r="D14" s="345"/>
-      <c r="E14" s="345"/>
-      <c r="F14" s="345"/>
-      <c r="G14" s="345"/>
-      <c r="H14" s="345"/>
+      <c r="B14" s="343"/>
+      <c r="C14" s="343"/>
+      <c r="D14" s="343"/>
+      <c r="E14" s="343"/>
+      <c r="F14" s="343"/>
+      <c r="G14" s="343"/>
+      <c r="H14" s="343"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A15" s="348" t="str">
+      <c r="A15" s="346" t="str">
         <f>+"Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati "&amp;'Акт согласования'!E30</f>
         <v>Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati 40 500 000,00 
 (qirq million besh yuz ming so'm)</v>
       </c>
-      <c r="B15" s="348"/>
-      <c r="C15" s="348"/>
-      <c r="D15" s="348"/>
-      <c r="E15" s="348"/>
-      <c r="F15" s="348"/>
-      <c r="G15" s="348"/>
-      <c r="H15" s="348"/>
+      <c r="B15" s="346"/>
+      <c r="C15" s="346"/>
+      <c r="D15" s="346"/>
+      <c r="E15" s="346"/>
+      <c r="F15" s="346"/>
+      <c r="G15" s="346"/>
+      <c r="H15" s="346"/>
     </row>
     <row r="17" spans="1:8" s="140" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A17" s="349" t="s">
+      <c r="A17" s="347" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="349"/>
-      <c r="C17" s="349"/>
-      <c r="D17" s="349"/>
-      <c r="E17" s="349"/>
-      <c r="F17" s="349"/>
-      <c r="G17" s="349"/>
-      <c r="H17" s="349"/>
+      <c r="B17" s="347"/>
+      <c r="C17" s="347"/>
+      <c r="D17" s="347"/>
+      <c r="E17" s="347"/>
+      <c r="F17" s="347"/>
+      <c r="G17" s="347"/>
+      <c r="H17" s="347"/>
     </row>
     <row r="21" spans="1:8" s="31" customFormat="1"/>
     <row r="22" spans="1:8" s="31" customFormat="1">
@@ -17604,6 +17604,13 @@
     <row r="29" spans="1:8" s="31" customFormat="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A2:H3"/>
     <mergeCell ref="A13:H13"/>
@@ -17614,13 +17621,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17661,30 +17661,30 @@
       <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="347" t="str">
+      <c r="A2" s="345" t="str">
         <f>""&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;" "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha
  garovga qo‘yilgan mol-mulkni tekshirish bo’yicha "&amp;'Общие данные'!B5&amp;" bilan tuzilgan dalolatnomasi"</f>
         <v xml:space="preserve"> 11 mart 2025 y.dan № -AL-sonli  Mikroqarz shartnomasi bo‘yicha
  garovga qo‘yilgan mol-mulkni tekshirish bo’yicha NUTFULLAYEV AKBARJON AXMEDOVICH bilan tuzilgan dalolatnomasi</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
       <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="347"/>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="347"/>
+      <c r="A3" s="345"/>
+      <c r="B3" s="345"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
       <c r="I3" s="31"/>
     </row>
     <row r="5" spans="1:9">
@@ -17697,151 +17697,151 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1">
-      <c r="A7" s="346" t="str">
+      <c r="A7" s="344" t="str">
         <f>"      Men, "&amp;'Общие данные'!B147&amp;" "&amp;'Общие данные'!A150&amp;"i "&amp;'Общие данные'!B150&amp;", jismoniy shaxs "&amp;" "&amp;'Общие данные'!B5&amp;" "&amp;" "&amp;'Общие данные'!B74&amp;"-sonli "&amp;'Общие данные'!C64&amp;" shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim"</f>
         <v xml:space="preserve">      Men, «CLEVER MIKROMOLIYA TASHKILOTI» MChJ Olmaliq filiali boshlig'ii V. Yerjanov, jismoniy shaxs  NUTFULLAYEV AKBARJON AXMEDOVICH  11 mart 2025 y.dan № -AL-sonli Mikroqarz shartnomasi bo‘yicha garovga qo‘yilgan mol-mulkni ko‘zdan kechirdim</v>
       </c>
-      <c r="B7" s="346"/>
-      <c r="C7" s="346"/>
-      <c r="D7" s="346"/>
-      <c r="E7" s="346"/>
-      <c r="F7" s="346"/>
-      <c r="G7" s="346"/>
-      <c r="H7" s="346"/>
+      <c r="B7" s="344"/>
+      <c r="C7" s="344"/>
+      <c r="D7" s="344"/>
+      <c r="E7" s="344"/>
+      <c r="F7" s="344"/>
+      <c r="G7" s="344"/>
+      <c r="H7" s="344"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A8" s="350" t="s">
+      <c r="A8" s="348" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="350"/>
-      <c r="C8" s="350"/>
-      <c r="D8" s="350"/>
-      <c r="E8" s="350"/>
-      <c r="F8" s="350"/>
-      <c r="G8" s="350"/>
-      <c r="H8" s="350"/>
+      <c r="B8" s="348"/>
+      <c r="C8" s="348"/>
+      <c r="D8" s="348"/>
+      <c r="E8" s="348"/>
+      <c r="F8" s="348"/>
+      <c r="G8" s="348"/>
+      <c r="H8" s="348"/>
     </row>
     <row r="9" spans="1:9" s="142" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A9" s="351" t="str">
+      <c r="A9" s="349" t="str">
         <f>' Акт мониторинга 1'!A9</f>
         <v>Nomi</v>
       </c>
-      <c r="B9" s="352"/>
-      <c r="C9" s="351" t="str">
+      <c r="B9" s="350"/>
+      <c r="C9" s="349" t="str">
         <f>' Акт мониторинга 1'!C9</f>
         <v>Kuzov turi  va kuzov raqami*</v>
       </c>
-      <c r="D9" s="352"/>
-      <c r="E9" s="351" t="str">
+      <c r="D9" s="350"/>
+      <c r="E9" s="349" t="str">
         <f>' Акт мониторинга 1'!E9</f>
         <v>Dvigatel va shassi raqami*</v>
       </c>
-      <c r="F9" s="352"/>
-      <c r="G9" s="351" t="str">
+      <c r="F9" s="350"/>
+      <c r="G9" s="349" t="str">
         <f>' Акт мониторинга 1'!G9</f>
         <v>Ishlab chiqarilgan yili va rangi**</v>
       </c>
-      <c r="H9" s="352"/>
+      <c r="H9" s="350"/>
     </row>
     <row r="10" spans="1:9" s="140" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A10" s="353" t="str">
+      <c r="A10" s="351" t="str">
         <f>' Акт мониторинга 1'!A10</f>
         <v>CHANGAN CHANGAN SC 1027SB</v>
       </c>
-      <c r="B10" s="353"/>
-      <c r="C10" s="353" t="str">
+      <c r="B10" s="351"/>
+      <c r="C10" s="351" t="str">
         <f>' Акт мониторинга 1'!C10</f>
         <v>kuzov turi - YUK BORTLI TENT, kuzov raqami LSCAB23D8EG228387</v>
       </c>
-      <c r="D10" s="353"/>
-      <c r="E10" s="353" t="str">
+      <c r="D10" s="351"/>
+      <c r="E10" s="351" t="str">
         <f>' Акт мониторинга 1'!E10</f>
         <v>dvigatel raqami JL466Q1%E61H022801, shassi raqami - URINDIKLAR SONI 5TA</v>
       </c>
-      <c r="F10" s="353"/>
-      <c r="G10" s="353" t="str">
+      <c r="F10" s="351"/>
+      <c r="G10" s="351" t="str">
         <f>' Акт мониторинга 1'!G10</f>
         <v>rangi -  OQ BELIY, ishlab chiqarilgan yili - 2014</v>
       </c>
-      <c r="H10" s="353"/>
+      <c r="H10" s="351"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A11" s="345" t="str">
+      <c r="A11" s="343" t="str">
         <f>'Акт согласования'!A22:E22</f>
         <v>-* avtotransport egasi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B11" s="345"/>
-      <c r="C11" s="345"/>
-      <c r="D11" s="345"/>
-      <c r="E11" s="345"/>
-      <c r="F11" s="345"/>
-      <c r="G11" s="345"/>
-      <c r="H11" s="345"/>
+      <c r="B11" s="343"/>
+      <c r="C11" s="343"/>
+      <c r="D11" s="343"/>
+      <c r="E11" s="343"/>
+      <c r="F11" s="343"/>
+      <c r="G11" s="343"/>
+      <c r="H11" s="343"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A12" s="345" t="str">
+      <c r="A12" s="343" t="str">
         <f>'Акт согласования'!A23:E23</f>
         <v>-* texnik pasport: AAG   2346592  13.09.2023y</v>
       </c>
-      <c r="B12" s="345"/>
-      <c r="C12" s="345"/>
-      <c r="D12" s="345"/>
-      <c r="E12" s="345"/>
-      <c r="F12" s="345"/>
-      <c r="G12" s="345"/>
-      <c r="H12" s="345"/>
+      <c r="B12" s="343"/>
+      <c r="C12" s="343"/>
+      <c r="D12" s="343"/>
+      <c r="E12" s="343"/>
+      <c r="F12" s="343"/>
+      <c r="G12" s="343"/>
+      <c r="H12" s="343"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A13" s="345" t="str">
+      <c r="A13" s="343" t="str">
         <f>'Акт согласования'!A24:E24</f>
         <v>-* roʻyxatdan oʻtgan manzili/garaj manzili: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY</v>
       </c>
-      <c r="B13" s="345"/>
-      <c r="C13" s="345"/>
-      <c r="D13" s="345"/>
-      <c r="E13" s="345"/>
-      <c r="F13" s="345"/>
-      <c r="G13" s="345"/>
-      <c r="H13" s="345"/>
+      <c r="B13" s="343"/>
+      <c r="C13" s="343"/>
+      <c r="D13" s="343"/>
+      <c r="E13" s="343"/>
+      <c r="F13" s="343"/>
+      <c r="G13" s="343"/>
+      <c r="H13" s="343"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A14" s="345" t="str">
+      <c r="A14" s="343" t="str">
         <f>'Акт согласования'!A25:E25</f>
         <v>-* davlat raqami: 80T312WA</v>
       </c>
-      <c r="B14" s="345"/>
-      <c r="C14" s="345"/>
-      <c r="D14" s="345"/>
-      <c r="E14" s="345"/>
-      <c r="F14" s="345"/>
-      <c r="G14" s="345"/>
-      <c r="H14" s="345"/>
+      <c r="B14" s="343"/>
+      <c r="C14" s="343"/>
+      <c r="D14" s="343"/>
+      <c r="E14" s="343"/>
+      <c r="F14" s="343"/>
+      <c r="G14" s="343"/>
+      <c r="H14" s="343"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A15" s="348" t="str">
+      <c r="A15" s="346" t="str">
         <f>+"Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati "&amp;'Акт согласования'!E30</f>
         <v>Shu bilan birga, yuqoridagi mulkning kelishilgan garov qiymati 40 500 000,00 
 (qirq million besh yuz ming so'm)</v>
       </c>
-      <c r="B15" s="348"/>
-      <c r="C15" s="348"/>
-      <c r="D15" s="348"/>
-      <c r="E15" s="348"/>
-      <c r="F15" s="348"/>
-      <c r="G15" s="348"/>
-      <c r="H15" s="348"/>
+      <c r="B15" s="346"/>
+      <c r="C15" s="346"/>
+      <c r="D15" s="346"/>
+      <c r="E15" s="346"/>
+      <c r="F15" s="346"/>
+      <c r="G15" s="346"/>
+      <c r="H15" s="346"/>
     </row>
     <row r="17" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A17" s="349" t="s">
+      <c r="A17" s="347" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="349"/>
-      <c r="C17" s="349"/>
-      <c r="D17" s="349"/>
-      <c r="E17" s="349"/>
-      <c r="F17" s="349"/>
-      <c r="G17" s="349"/>
-      <c r="H17" s="349"/>
+      <c r="B17" s="347"/>
+      <c r="C17" s="347"/>
+      <c r="D17" s="347"/>
+      <c r="E17" s="347"/>
+      <c r="F17" s="347"/>
+      <c r="G17" s="347"/>
+      <c r="H17" s="347"/>
     </row>
     <row r="21" spans="1:8" s="31" customFormat="1"/>
     <row r="22" spans="1:8" s="31" customFormat="1">
@@ -17881,6 +17881,13 @@
     <row r="29" spans="1:8" s="31" customFormat="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A2:H3"/>
     <mergeCell ref="A13:H13"/>
@@ -17891,13 +17898,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19094,10 +19094,10 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="252" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="254"/>
+      <c r="B4" s="252"/>
     </row>
     <row r="5" spans="1:4" ht="30">
       <c r="A5" s="3" t="s">
@@ -19577,10 +19577,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1">
-      <c r="A57" s="255" t="s">
+      <c r="A57" s="253" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="256"/>
+      <c r="B57" s="254"/>
     </row>
     <row r="58" spans="1:4" ht="20.25" hidden="1" customHeight="1">
       <c r="A58" s="3" t="s">
@@ -19644,10 +19644,10 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="254" t="s">
+      <c r="A64" s="252" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="254"/>
+      <c r="B64" s="252"/>
       <c r="C64" s="183" t="str">
         <f>PROPER(B65)</f>
         <v>Mikroqarz</v>
@@ -20144,10 +20144,10 @@
       </c>
     </row>
     <row r="91" spans="1:63">
-      <c r="A91" s="254" t="s">
+      <c r="A91" s="252" t="s">
         <v>126</v>
       </c>
-      <c r="B91" s="254"/>
+      <c r="B91" s="252"/>
     </row>
     <row r="92" spans="1:63" ht="18">
       <c r="A92" s="84"/>
@@ -20202,8 +20202,8 @@
       <c r="B96" s="139"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="254"/>
-      <c r="B97" s="254"/>
+      <c r="A97" s="252"/>
+      <c r="B97" s="252"/>
     </row>
     <row r="98" spans="1:4" ht="36">
       <c r="A98" s="8" t="s">
@@ -20812,10 +20812,10 @@
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="254" t="s">
+      <c r="A146" s="252" t="s">
         <v>357</v>
       </c>
-      <c r="B146" s="254"/>
+      <c r="B146" s="252"/>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="3" t="s">
@@ -21048,10 +21048,10 @@
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
-      <c r="E1" s="257" t="s">
+      <c r="E1" s="263" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="257"/>
+      <c r="F1" s="263"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="37"/>
@@ -21073,36 +21073,36 @@
       <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="258" t="s">
+      <c r="A4" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="258"/>
-      <c r="C4" s="258"/>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="258"/>
+      <c r="B4" s="264"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
     </row>
     <row r="5" spans="1:8" ht="7.5" customHeight="1"/>
     <row r="6" spans="1:8">
-      <c r="A6" s="259" t="s">
+      <c r="A6" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="260" t="s">
+      <c r="B6" s="266" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="260" t="s">
+      <c r="C6" s="266" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="261" t="s">
+      <c r="D6" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="267"/>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1">
-      <c r="A7" s="259"/>
-      <c r="B7" s="260"/>
-      <c r="C7" s="260"/>
+      <c r="A7" s="265"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="266"/>
       <c r="D7" s="17" t="s">
         <v>12</v>
       </c>
@@ -22340,231 +22340,217 @@
       <c r="F45" s="36"/>
     </row>
     <row r="46" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A46" s="235" t="s">
+      <c r="A46" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="235"/>
-      <c r="C46" s="235"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="235"/>
-      <c r="F46" s="235"/>
+      <c r="B46" s="233"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="233"/>
+      <c r="E46" s="233"/>
+      <c r="F46" s="233"/>
     </row>
     <row r="47" spans="1:8" ht="7.5" customHeight="1"/>
     <row r="48" spans="1:8">
-      <c r="A48" s="263" t="e">
+      <c r="A48" s="261" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B48" s="263"/>
-      <c r="C48" s="263"/>
-      <c r="D48" s="263" t="e">
+      <c r="B48" s="261"/>
+      <c r="C48" s="261"/>
+      <c r="D48" s="261" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E48" s="263"/>
-      <c r="F48" s="263"/>
+      <c r="E48" s="261"/>
+      <c r="F48" s="261"/>
     </row>
     <row r="49" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A49" s="264"/>
-      <c r="B49" s="264"/>
-      <c r="C49" s="264"/>
-      <c r="D49" s="264"/>
-      <c r="E49" s="264"/>
-      <c r="F49" s="264"/>
+      <c r="A49" s="262"/>
+      <c r="B49" s="262"/>
+      <c r="C49" s="262"/>
+      <c r="D49" s="262"/>
+      <c r="E49" s="262"/>
+      <c r="F49" s="262"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1">
-      <c r="A50" s="265" t="e">
+      <c r="A50" s="260" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B50" s="265"/>
-      <c r="C50" s="265"/>
-      <c r="D50" s="265" t="e">
+      <c r="B50" s="260"/>
+      <c r="C50" s="260"/>
+      <c r="D50" s="260" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E50" s="265"/>
-      <c r="F50" s="265"/>
+      <c r="E50" s="260"/>
+      <c r="F50" s="260"/>
     </row>
     <row r="51" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A51" s="262" t="e">
+      <c r="A51" s="256" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B51" s="262"/>
-      <c r="C51" s="262"/>
-      <c r="D51" s="262" t="e">
+      <c r="B51" s="256"/>
+      <c r="C51" s="256"/>
+      <c r="D51" s="256" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E51" s="262"/>
-      <c r="F51" s="262"/>
+      <c r="E51" s="256"/>
+      <c r="F51" s="256"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="262" t="e">
+      <c r="A52" s="256" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B52" s="262"/>
-      <c r="C52" s="262"/>
-      <c r="D52" s="262" t="str">
+      <c r="B52" s="256"/>
+      <c r="C52" s="256"/>
+      <c r="D52" s="256" t="str">
         <f>"паспорт серии "&amp;'Общие данные'!B16&amp;", "&amp;'Общие данные'!B20&amp;""</f>
         <v>паспорт серии AA 9481167, BUXORO VILOYATI BUXORO SHAHAR IIB tomonidan 24.04.2015 yilda berilgan</v>
       </c>
-      <c r="E52" s="262"/>
-      <c r="F52" s="262"/>
+      <c r="E52" s="256"/>
+      <c r="F52" s="256"/>
     </row>
     <row r="53" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A53" s="262" t="e">
+      <c r="A53" s="256" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B53" s="262"/>
-      <c r="C53" s="262"/>
-      <c r="D53" s="262"/>
-      <c r="E53" s="262"/>
-      <c r="F53" s="262"/>
+      <c r="B53" s="256"/>
+      <c r="C53" s="256"/>
+      <c r="D53" s="256"/>
+      <c r="E53" s="256"/>
+      <c r="F53" s="256"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="262" t="e">
+      <c r="A54" s="256" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B54" s="262"/>
-      <c r="C54" s="262"/>
-      <c r="D54" s="262" t="e">
+      <c r="B54" s="256"/>
+      <c r="C54" s="256"/>
+      <c r="D54" s="256" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E54" s="262"/>
-      <c r="F54" s="262"/>
+      <c r="E54" s="256"/>
+      <c r="F54" s="256"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="262" t="e">
+      <c r="A55" s="256" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B55" s="262"/>
-      <c r="C55" s="262"/>
-      <c r="D55" s="262" t="e">
+      <c r="B55" s="256"/>
+      <c r="C55" s="256"/>
+      <c r="D55" s="256" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E55" s="262"/>
-      <c r="F55" s="262"/>
+      <c r="E55" s="256"/>
+      <c r="F55" s="256"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="262" t="e">
+      <c r="A56" s="256" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B56" s="262"/>
-      <c r="C56" s="262"/>
-      <c r="D56" s="262" t="e">
+      <c r="B56" s="256"/>
+      <c r="C56" s="256"/>
+      <c r="D56" s="256" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="262"/>
-      <c r="F56" s="262"/>
+      <c r="E56" s="256"/>
+      <c r="F56" s="256"/>
     </row>
     <row r="57" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A57" s="262"/>
-      <c r="B57" s="262"/>
-      <c r="C57" s="262"/>
-      <c r="D57" s="262"/>
-      <c r="E57" s="262"/>
-      <c r="F57" s="262"/>
+      <c r="A57" s="256"/>
+      <c r="B57" s="256"/>
+      <c r="C57" s="256"/>
+      <c r="D57" s="256"/>
+      <c r="E57" s="256"/>
+      <c r="F57" s="256"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="265" t="e">
+      <c r="A58" s="260" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B58" s="265"/>
-      <c r="C58" s="265"/>
-      <c r="D58" s="265" t="e">
+      <c r="B58" s="260"/>
+      <c r="C58" s="260"/>
+      <c r="D58" s="260" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E58" s="265"/>
-      <c r="F58" s="265"/>
+      <c r="E58" s="260"/>
+      <c r="F58" s="260"/>
     </row>
     <row r="59" spans="1:6" ht="7.5" customHeight="1">
-      <c r="A59" s="265"/>
-      <c r="B59" s="265"/>
-      <c r="C59" s="265"/>
-      <c r="D59" s="265"/>
-      <c r="E59" s="265"/>
-      <c r="F59" s="265"/>
+      <c r="A59" s="260"/>
+      <c r="B59" s="260"/>
+      <c r="C59" s="260"/>
+      <c r="D59" s="260"/>
+      <c r="E59" s="260"/>
+      <c r="F59" s="260"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="265" t="e">
+      <c r="A60" s="260" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B60" s="265"/>
-      <c r="C60" s="265"/>
-      <c r="D60" s="265" t="e">
+      <c r="B60" s="260"/>
+      <c r="C60" s="260"/>
+      <c r="D60" s="260" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E60" s="265"/>
-      <c r="F60" s="265"/>
+      <c r="E60" s="260"/>
+      <c r="F60" s="260"/>
     </row>
     <row r="61" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A61" s="262"/>
-      <c r="B61" s="262"/>
-      <c r="C61" s="262"/>
-      <c r="D61" s="262"/>
-      <c r="E61" s="262"/>
-      <c r="F61" s="262"/>
+      <c r="A61" s="256"/>
+      <c r="B61" s="256"/>
+      <c r="C61" s="256"/>
+      <c r="D61" s="256"/>
+      <c r="E61" s="256"/>
+      <c r="F61" s="256"/>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1">
-      <c r="A62" s="267"/>
-      <c r="B62" s="267"/>
-      <c r="C62" s="267"/>
-      <c r="D62" s="268"/>
-      <c r="E62" s="268"/>
-      <c r="F62" s="268"/>
+      <c r="A62" s="257"/>
+      <c r="B62" s="257"/>
+      <c r="C62" s="257"/>
+      <c r="D62" s="258"/>
+      <c r="E62" s="258"/>
+      <c r="F62" s="258"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="269"/>
-      <c r="B63" s="269"/>
-      <c r="C63" s="269"/>
-      <c r="D63" s="269"/>
-      <c r="E63" s="269"/>
-      <c r="F63" s="269"/>
+      <c r="A63" s="259"/>
+      <c r="B63" s="259"/>
+      <c r="C63" s="259"/>
+      <c r="D63" s="259"/>
+      <c r="E63" s="259"/>
+      <c r="F63" s="259"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="266"/>
-      <c r="B64" s="266"/>
-      <c r="C64" s="266"/>
-      <c r="D64" s="266"/>
-      <c r="E64" s="266"/>
-      <c r="F64" s="266"/>
+      <c r="A64" s="255"/>
+      <c r="B64" s="255"/>
+      <c r="C64" s="255"/>
+      <c r="D64" s="255"/>
+      <c r="E64" s="255"/>
+      <c r="F64" s="255"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="A46:F46"/>
@@ -22579,12 +22565,26 @@
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="D52:F53"/>
     <mergeCell ref="A53:C53"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:B43">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
@@ -22624,233 +22624,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="269" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="274"/>
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
     </row>
     <row r="2" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="270" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="269" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="274"/>
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="274"/>
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="270" t="str">
+      <c r="A4" s="268" t="str">
         <f>'Заключение КК'!A4:E4</f>
         <v>Mijozning to'liq ismi sharifi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B4" s="270"/>
-      <c r="C4" s="270"/>
-      <c r="D4" s="270"/>
-      <c r="E4" s="270"/>
-      <c r="F4" s="270"/>
+      <c r="B4" s="268"/>
+      <c r="C4" s="268"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="270" t="str">
+      <c r="A5" s="268" t="str">
         <f>'Заключение КК'!A5:E5</f>
         <v>Tug'ilgan sanasi: 14.09.1989 y</v>
       </c>
-      <c r="B5" s="270"/>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="270"/>
-      <c r="F5" s="270"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
     </row>
     <row r="6" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A6" s="270" t="str">
+      <c r="A6" s="268" t="str">
         <f>'Заключение КК'!A6:E6</f>
         <v>Pasport seriyasi AA 9481167 BUXORO VILOYATI BUXORO SHAHAR IIB tomonidan 24.04.2015 yilda berilgan, amal qilish muddati - 23.04.2025 y.</v>
       </c>
-      <c r="B6" s="270"/>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="270" t="str">
+      <c r="A7" s="268" t="str">
         <f>"Fuqaroligi: "&amp;'Общие данные'!B32&amp;""</f>
         <v>Fuqaroligi: O’zbekiston Respublikasi</v>
       </c>
-      <c r="B7" s="270"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="270"/>
-      <c r="F7" s="270"/>
+      <c r="B7" s="268"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="268"/>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A8" s="270" t="str">
+      <c r="A8" s="268" t="str">
         <f>'Заключение КК'!A7:E7</f>
         <v>Ro‘yxatdan o‘tgan manzili: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY, mo'ljal: GOR VODAKANAL</v>
       </c>
-      <c r="B8" s="270"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="270"/>
-      <c r="E8" s="270"/>
-      <c r="F8" s="270"/>
+      <c r="B8" s="268"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="268"/>
+      <c r="F8" s="268"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="270" t="str">
+      <c r="A9" s="268" t="str">
         <f>IF('Общие данные'!B23="mos keladi"," ",'Анкета Клиента'!A10:F10)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B9" s="270"/>
-      <c r="C9" s="270"/>
-      <c r="D9" s="270"/>
-      <c r="E9" s="270"/>
-      <c r="F9" s="270"/>
+      <c r="B9" s="268"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" hidden="1" customHeight="1">
-      <c r="A10" s="270" t="str">
+      <c r="A10" s="268" t="str">
         <f>"Haqiqatdan yashash joy manzili: "&amp;'Общие данные'!B28&amp;""</f>
         <v>Haqiqatdan yashash joy manzili: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY</v>
       </c>
-      <c r="B10" s="270"/>
-      <c r="C10" s="270"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="270"/>
+      <c r="B10" s="268"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="268"/>
+      <c r="F10" s="268"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" hidden="1" customHeight="1">
-      <c r="A11" s="270" t="str">
+      <c r="A11" s="268" t="str">
         <f>'Заключение КК'!A8:E8</f>
         <v>Ish joyi:  lavozimi Yakka tartibdagi tadbirkorda Yakka tartibdagi tadbirkor</v>
       </c>
-      <c r="B11" s="270"/>
-      <c r="C11" s="270"/>
-      <c r="D11" s="270"/>
-      <c r="E11" s="270"/>
-      <c r="F11" s="270"/>
+      <c r="B11" s="268"/>
+      <c r="C11" s="268"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="268"/>
+      <c r="F11" s="268"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="274" t="s">
+      <c r="A12" s="269" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="274"/>
-      <c r="C12" s="274"/>
-      <c r="D12" s="274"/>
-      <c r="E12" s="274"/>
-      <c r="F12" s="274"/>
+      <c r="B12" s="269"/>
+      <c r="C12" s="269"/>
+      <c r="D12" s="269"/>
+      <c r="E12" s="269"/>
+      <c r="F12" s="269"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="270" t="str">
+      <c r="A13" s="268" t="str">
         <f>"Uy telefoni raqami: "&amp;'Общие данные'!B40&amp;""</f>
         <v>Uy telefoni raqami: 91 408 76 67  UZI</v>
       </c>
-      <c r="B13" s="270"/>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
+      <c r="B13" s="268"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="268"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="268"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="270" t="str">
+      <c r="A14" s="268" t="str">
         <f>"Uyali telefon raqami: "&amp;'Общие данные'!B41&amp;""</f>
         <v>Uyali telefon raqami: 88 305 76 67 AYOLI</v>
       </c>
-      <c r="B14" s="270"/>
-      <c r="C14" s="270"/>
-      <c r="D14" s="270"/>
-      <c r="E14" s="270"/>
-      <c r="F14" s="270"/>
+      <c r="B14" s="268"/>
+      <c r="C14" s="268"/>
+      <c r="D14" s="268"/>
+      <c r="E14" s="268"/>
+      <c r="F14" s="268"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="270" t="str">
+      <c r="A15" s="268" t="str">
         <f>"Uyali telefon raqami: "&amp;'Общие данные'!B42&amp;""</f>
         <v>Uyali telefon raqami: 88 870 76 67 AKASI</v>
       </c>
-      <c r="B15" s="270"/>
-      <c r="C15" s="270"/>
-      <c r="D15" s="270"/>
-      <c r="E15" s="270"/>
-      <c r="F15" s="270"/>
+      <c r="B15" s="268"/>
+      <c r="C15" s="268"/>
+      <c r="D15" s="268"/>
+      <c r="E15" s="268"/>
+      <c r="F15" s="268"/>
     </row>
     <row r="16" spans="1:6" hidden="1">
-      <c r="A16" s="270" t="str">
+      <c r="A16" s="268" t="str">
         <f>"Uyali telefon raqami: "&amp;'Общие данные'!B42&amp;""</f>
         <v>Uyali telefon raqami: 88 870 76 67 AKASI</v>
       </c>
-      <c r="B16" s="270"/>
-      <c r="C16" s="270"/>
-      <c r="D16" s="270"/>
-      <c r="E16" s="270"/>
-      <c r="F16" s="270"/>
+      <c r="B16" s="268"/>
+      <c r="C16" s="268"/>
+      <c r="D16" s="268"/>
+      <c r="E16" s="268"/>
+      <c r="F16" s="268"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="270" t="str">
+      <c r="A17" s="268" t="str">
         <f>"Ish telefoni raqami: "&amp;'Общие данные'!B43&amp;""</f>
         <v xml:space="preserve">Ish telefoni raqami: </v>
       </c>
-      <c r="B17" s="270"/>
-      <c r="C17" s="270"/>
-      <c r="D17" s="270"/>
-      <c r="E17" s="270"/>
-      <c r="F17" s="270"/>
+      <c r="B17" s="268"/>
+      <c r="C17" s="268"/>
+      <c r="D17" s="268"/>
+      <c r="E17" s="268"/>
+      <c r="F17" s="268"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="274" t="s">
+      <c r="A18" s="269" t="s">
         <v>221</v>
       </c>
-      <c r="B18" s="274"/>
-      <c r="C18" s="274"/>
-      <c r="D18" s="274"/>
-      <c r="E18" s="274"/>
-      <c r="F18" s="274"/>
+      <c r="B18" s="269"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="269"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="270" t="str">
+      <c r="A19" s="268" t="str">
         <f>"Muassasa nomlanishi:"&amp;'Общие данные'!B58&amp;""</f>
         <v>Muassasa nomlanishi:Yakka tartibdagi tadbirkor</v>
       </c>
-      <c r="B19" s="270"/>
-      <c r="C19" s="270"/>
-      <c r="D19" s="270"/>
-      <c r="E19" s="270"/>
-      <c r="F19" s="270"/>
+      <c r="B19" s="268"/>
+      <c r="C19" s="268"/>
+      <c r="D19" s="268"/>
+      <c r="E19" s="268"/>
+      <c r="F19" s="268"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="270" t="str">
+      <c r="A20" s="268" t="str">
         <f>"Ro‘yxatdan o‘tish manzili:"&amp;'Общие данные'!B50&amp;""</f>
         <v>Ro‘yxatdan o‘tish manzili:</v>
       </c>
-      <c r="B20" s="270"/>
-      <c r="C20" s="270"/>
-      <c r="D20" s="270"/>
-      <c r="E20" s="270"/>
-      <c r="F20" s="270"/>
+      <c r="B20" s="268"/>
+      <c r="C20" s="268"/>
+      <c r="D20" s="268"/>
+      <c r="E20" s="268"/>
+      <c r="F20" s="268"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="270" t="str">
+      <c r="A21" s="268" t="str">
         <f>"Lavozimi: "&amp;'Общие данные'!B59&amp;""</f>
         <v>Lavozimi: Yakka tartibdagi tadbirkor</v>
       </c>
-      <c r="B21" s="270"/>
-      <c r="C21" s="270"/>
-      <c r="D21" s="270"/>
-      <c r="E21" s="270"/>
-      <c r="F21" s="270"/>
+      <c r="B21" s="268"/>
+      <c r="C21" s="268"/>
+      <c r="D21" s="268"/>
+      <c r="E21" s="268"/>
+      <c r="F21" s="268"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="274" t="s">
+      <c r="A22" s="269" t="s">
         <v>222</v>
       </c>
       <c r="B22" s="271"/>
@@ -22964,66 +22964,66 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A28" s="270" t="str">
+      <c r="A28" s="268" t="str">
         <f>"Men, "&amp;'Общие данные'!B5&amp;", ushbu anketada ko‘rsatilgan barcha ma'lumotlar anketa to'ldirilgan sanada  to'g'ri va aniq ekanligini tasdiqlayman."</f>
         <v>Men, NUTFULLAYEV AKBARJON AXMEDOVICH, ushbu anketada ko‘rsatilgan barcha ma'lumotlar anketa to'ldirilgan sanada  to'g'ri va aniq ekanligini tasdiqlayman.</v>
       </c>
-      <c r="B28" s="270"/>
-      <c r="C28" s="270"/>
-      <c r="D28" s="270"/>
-      <c r="E28" s="270"/>
-      <c r="F28" s="270"/>
+      <c r="B28" s="268"/>
+      <c r="C28" s="268"/>
+      <c r="D28" s="268"/>
+      <c r="E28" s="268"/>
+      <c r="F28" s="268"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="270" t="str">
+      <c r="A29" s="268" t="str">
         <f>"Men,  "&amp;'Общие данные'!B5&amp;", quyidagilarni tan olaman va roziman::"</f>
         <v>Men,  NUTFULLAYEV AKBARJON AXMEDOVICH, quyidagilarni tan olaman va roziman::</v>
       </c>
-      <c r="B29" s="270"/>
-      <c r="C29" s="270"/>
-      <c r="D29" s="270"/>
-      <c r="E29" s="270"/>
-      <c r="F29" s="270"/>
+      <c r="B29" s="268"/>
+      <c r="C29" s="268"/>
+      <c r="D29" s="268"/>
+      <c r="E29" s="268"/>
+      <c r="F29" s="268"/>
     </row>
     <row r="30" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A30" s="270" t="str">
+      <c r="A30" s="268" t="str">
         <f>"1.  Ushbu anketada ko‘rsatilgan har qanday ma’lumot  "&amp;'Общие данные'!B147&amp;", uning xodimlari va huquqiy vorislari tomonidan istalgan manbaa va ma’lumotlardan foydalangan holda istalgan vaqtda tekshirilishi va qayta tekshirilishi mumkin."</f>
         <v>1.  Ushbu anketada ko‘rsatilgan har qanday ma’lumot  «CLEVER MIKROMOLIYA TASHKILOTI» MChJ, uning xodimlari va huquqiy vorislari tomonidan istalgan manbaa va ma’lumotlardan foydalangan holda istalgan vaqtda tekshirilishi va qayta tekshirilishi mumkin.</v>
       </c>
-      <c r="B30" s="270"/>
-      <c r="C30" s="270"/>
-      <c r="D30" s="270"/>
-      <c r="E30" s="270"/>
-      <c r="F30" s="270"/>
+      <c r="B30" s="268"/>
+      <c r="C30" s="268"/>
+      <c r="D30" s="268"/>
+      <c r="E30" s="268"/>
+      <c r="F30" s="268"/>
     </row>
     <row r="31" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A31" s="270" t="str">
+      <c r="A31" s="268" t="str">
         <f>"2. Mazkur anketaning "&amp;'Общие данные'!B147&amp;" tomonidan qabul qilinishi “Clever Mikromoliya Tashkiloti” MChJ tomonidan menga "&amp;'Общие данные'!B65&amp;" berish majburiyatini yuklamaydi."</f>
         <v>2. Mazkur anketaning «CLEVER MIKROMOLIYA TASHKILOTI» MChJ tomonidan qabul qilinishi “Clever Mikromoliya Tashkiloti” MChJ tomonidan menga mikroqarz berish majburiyatini yuklamaydi.</v>
       </c>
-      <c r="B31" s="270"/>
-      <c r="C31" s="270"/>
-      <c r="D31" s="270"/>
-      <c r="E31" s="270"/>
-      <c r="F31" s="270"/>
+      <c r="B31" s="268"/>
+      <c r="C31" s="268"/>
+      <c r="D31" s="268"/>
+      <c r="E31" s="268"/>
+      <c r="F31" s="268"/>
     </row>
     <row r="32" spans="1:6" ht="71.25" customHeight="1">
-      <c r="A32" s="270" t="s">
+      <c r="A32" s="268" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="270"/>
-      <c r="C32" s="270"/>
-      <c r="D32" s="270"/>
-      <c r="E32" s="270"/>
-      <c r="F32" s="270"/>
+      <c r="B32" s="268"/>
+      <c r="C32" s="268"/>
+      <c r="D32" s="268"/>
+      <c r="E32" s="268"/>
+      <c r="F32" s="268"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="270"/>
-      <c r="B33" s="270"/>
-      <c r="C33" s="270"/>
-      <c r="D33" s="270"/>
-      <c r="E33" s="270"/>
-      <c r="F33" s="270"/>
+      <c r="A33" s="268"/>
+      <c r="B33" s="268"/>
+      <c r="C33" s="268"/>
+      <c r="D33" s="268"/>
+      <c r="E33" s="268"/>
+      <c r="F33" s="268"/>
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1">
       <c r="A34" s="271" t="s">
@@ -23059,70 +23059,81 @@
       <c r="F36" s="272"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="270"/>
-      <c r="B37" s="270"/>
-      <c r="C37" s="270"/>
-      <c r="D37" s="270"/>
-      <c r="E37" s="270"/>
-      <c r="F37" s="270"/>
+      <c r="A37" s="268"/>
+      <c r="B37" s="268"/>
+      <c r="C37" s="268"/>
+      <c r="D37" s="268"/>
+      <c r="E37" s="268"/>
+      <c r="F37" s="268"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="270"/>
-      <c r="B38" s="270"/>
-      <c r="C38" s="270"/>
-      <c r="D38" s="270"/>
-      <c r="E38" s="270"/>
-      <c r="F38" s="270"/>
+      <c r="A38" s="268"/>
+      <c r="B38" s="268"/>
+      <c r="C38" s="268"/>
+      <c r="D38" s="268"/>
+      <c r="E38" s="268"/>
+      <c r="F38" s="268"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="270"/>
-      <c r="B39" s="270"/>
-      <c r="C39" s="270"/>
-      <c r="D39" s="270"/>
-      <c r="E39" s="270"/>
-      <c r="F39" s="270"/>
+      <c r="A39" s="268"/>
+      <c r="B39" s="268"/>
+      <c r="C39" s="268"/>
+      <c r="D39" s="268"/>
+      <c r="E39" s="268"/>
+      <c r="F39" s="268"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="270"/>
-      <c r="B40" s="270"/>
-      <c r="C40" s="270"/>
-      <c r="D40" s="270"/>
-      <c r="E40" s="270"/>
-      <c r="F40" s="270"/>
+      <c r="A40" s="268"/>
+      <c r="B40" s="268"/>
+      <c r="C40" s="268"/>
+      <c r="D40" s="268"/>
+      <c r="E40" s="268"/>
+      <c r="F40" s="268"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="270"/>
-      <c r="B41" s="270"/>
-      <c r="C41" s="270"/>
-      <c r="D41" s="270"/>
-      <c r="E41" s="270"/>
-      <c r="F41" s="270"/>
+      <c r="A41" s="268"/>
+      <c r="B41" s="268"/>
+      <c r="C41" s="268"/>
+      <c r="D41" s="268"/>
+      <c r="E41" s="268"/>
+      <c r="F41" s="268"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="270"/>
-      <c r="B42" s="270"/>
-      <c r="C42" s="270"/>
-      <c r="D42" s="270"/>
-      <c r="E42" s="270"/>
-      <c r="F42" s="270"/>
+      <c r="A42" s="268"/>
+      <c r="B42" s="268"/>
+      <c r="C42" s="268"/>
+      <c r="D42" s="268"/>
+      <c r="E42" s="268"/>
+      <c r="F42" s="268"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="270"/>
-      <c r="B43" s="270"/>
-      <c r="C43" s="270"/>
-      <c r="D43" s="270"/>
-      <c r="E43" s="270"/>
-      <c r="F43" s="270"/>
+      <c r="A43" s="268"/>
+      <c r="B43" s="268"/>
+      <c r="C43" s="268"/>
+      <c r="D43" s="268"/>
+      <c r="E43" s="268"/>
+      <c r="F43" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A28:F28"/>
@@ -23139,24 +23150,13 @@
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
@@ -23184,13 +23184,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="278" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
     </row>
     <row r="3" spans="1:5">
       <c r="E3" s="121" t="str">
@@ -23199,194 +23199,194 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="123" customFormat="1" ht="27" customHeight="1">
-      <c r="A5" s="280" t="s">
+      <c r="A5" s="282" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="281"/>
-      <c r="C5" s="277" t="str">
+      <c r="B5" s="283"/>
+      <c r="C5" s="279" t="str">
         <f>'Общие данные'!B8</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="D5" s="278"/>
-      <c r="E5" s="279"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="281"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="282" t="s">
+      <c r="A7" s="284" t="s">
         <v>358</v>
       </c>
-      <c r="B7" s="283"/>
-      <c r="C7" s="284"/>
+      <c r="B7" s="285"/>
+      <c r="C7" s="286"/>
       <c r="D7" s="124" t="s">
         <v>133</v>
       </c>
       <c r="E7" s="124"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="285"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="287"/>
+      <c r="A8" s="287"/>
+      <c r="B8" s="288"/>
+      <c r="C8" s="289"/>
       <c r="D8" s="124" t="s">
         <v>243</v>
       </c>
       <c r="E8" s="124"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="288" t="s">
+      <c r="A9" s="275" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="288"/>
-      <c r="C9" s="288"/>
+      <c r="B9" s="275"/>
+      <c r="C9" s="275"/>
       <c r="D9" s="124" t="s">
         <v>133</v>
       </c>
       <c r="E9" s="124"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="288"/>
-      <c r="B10" s="288"/>
-      <c r="C10" s="288"/>
+      <c r="A10" s="275"/>
+      <c r="B10" s="275"/>
+      <c r="C10" s="275"/>
       <c r="D10" s="124" t="s">
         <v>243</v>
       </c>
       <c r="E10" s="124"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A11" s="288" t="s">
+      <c r="A11" s="275" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="288"/>
-      <c r="C11" s="288"/>
+      <c r="B11" s="275"/>
+      <c r="C11" s="275"/>
       <c r="D11" s="124" t="s">
         <v>133</v>
       </c>
       <c r="E11" s="124"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="288"/>
-      <c r="B12" s="288"/>
-      <c r="C12" s="288"/>
+      <c r="A12" s="275"/>
+      <c r="B12" s="275"/>
+      <c r="C12" s="275"/>
       <c r="D12" s="124" t="s">
         <v>243</v>
       </c>
       <c r="E12" s="124"/>
     </row>
     <row r="13" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A13" s="289" t="s">
+      <c r="A13" s="276" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="289"/>
-      <c r="C13" s="289"/>
-      <c r="D13" s="289"/>
-      <c r="E13" s="289"/>
+      <c r="B13" s="276"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="276"/>
+      <c r="E13" s="276"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A14" s="290"/>
-      <c r="B14" s="290"/>
-      <c r="C14" s="290"/>
-      <c r="D14" s="290"/>
-      <c r="E14" s="290"/>
+      <c r="A14" s="277"/>
+      <c r="B14" s="277"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="277"/>
+      <c r="E14" s="277"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A15" s="290"/>
-      <c r="B15" s="290"/>
-      <c r="C15" s="290"/>
-      <c r="D15" s="290"/>
-      <c r="E15" s="290"/>
+      <c r="A15" s="277"/>
+      <c r="B15" s="277"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="277"/>
+      <c r="E15" s="277"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A16" s="290"/>
-      <c r="B16" s="290"/>
-      <c r="C16" s="290"/>
-      <c r="D16" s="290"/>
-      <c r="E16" s="290"/>
+      <c r="A16" s="277"/>
+      <c r="B16" s="277"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="277"/>
+      <c r="E16" s="277"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A18" s="288" t="s">
+      <c r="A18" s="275" t="s">
         <v>244</v>
       </c>
-      <c r="B18" s="288"/>
-      <c r="C18" s="288"/>
+      <c r="B18" s="275"/>
+      <c r="C18" s="275"/>
       <c r="D18" s="124" t="s">
         <v>133</v>
       </c>
       <c r="E18" s="124"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A19" s="288"/>
-      <c r="B19" s="288"/>
-      <c r="C19" s="288"/>
+      <c r="A19" s="275"/>
+      <c r="B19" s="275"/>
+      <c r="C19" s="275"/>
       <c r="D19" s="124" t="s">
         <v>243</v>
       </c>
       <c r="E19" s="124"/>
     </row>
     <row r="20" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A20" s="288" t="s">
+      <c r="A20" s="275" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="288"/>
-      <c r="C20" s="288"/>
+      <c r="B20" s="275"/>
+      <c r="C20" s="275"/>
       <c r="D20" s="124" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="124"/>
     </row>
     <row r="21" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A21" s="288"/>
-      <c r="B21" s="288"/>
-      <c r="C21" s="288"/>
+      <c r="A21" s="275"/>
+      <c r="B21" s="275"/>
+      <c r="C21" s="275"/>
       <c r="D21" s="124" t="s">
         <v>243</v>
       </c>
       <c r="E21" s="124"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="289" t="s">
+      <c r="A23" s="276" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="289"/>
-      <c r="C23" s="289"/>
-      <c r="D23" s="289"/>
-      <c r="E23" s="289"/>
+      <c r="B23" s="276"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="276"/>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A24" s="290"/>
-      <c r="B24" s="290"/>
-      <c r="C24" s="290"/>
-      <c r="D24" s="290"/>
-      <c r="E24" s="290"/>
+      <c r="A24" s="277"/>
+      <c r="B24" s="277"/>
+      <c r="C24" s="277"/>
+      <c r="D24" s="277"/>
+      <c r="E24" s="277"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A25" s="290"/>
-      <c r="B25" s="290"/>
-      <c r="C25" s="290"/>
-      <c r="D25" s="290"/>
-      <c r="E25" s="290"/>
+      <c r="A25" s="277"/>
+      <c r="B25" s="277"/>
+      <c r="C25" s="277"/>
+      <c r="D25" s="277"/>
+      <c r="E25" s="277"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A26" s="290"/>
-      <c r="B26" s="290"/>
-      <c r="C26" s="290"/>
-      <c r="D26" s="290"/>
-      <c r="E26" s="290"/>
+      <c r="A26" s="277"/>
+      <c r="B26" s="277"/>
+      <c r="C26" s="277"/>
+      <c r="D26" s="277"/>
+      <c r="E26" s="277"/>
     </row>
     <row r="28" spans="1:8" ht="78.75" customHeight="1">
-      <c r="A28" s="291" t="s">
+      <c r="A28" s="274" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="291"/>
-      <c r="C28" s="291"/>
-      <c r="D28" s="291"/>
-      <c r="E28" s="291"/>
+      <c r="B28" s="274"/>
+      <c r="C28" s="274"/>
+      <c r="D28" s="274"/>
+      <c r="E28" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="33" customHeight="1">
-      <c r="A30" s="291" t="s">
+      <c r="A30" s="274" t="s">
         <v>248</v>
       </c>
-      <c r="B30" s="291"/>
-      <c r="C30" s="291"/>
-      <c r="D30" s="291"/>
-      <c r="E30" s="291"/>
+      <c r="B30" s="274"/>
+      <c r="C30" s="274"/>
+      <c r="D30" s="274"/>
+      <c r="E30" s="274"/>
       <c r="F30" s="125"/>
       <c r="G30" s="125"/>
       <c r="H30" s="125"/>
@@ -23401,6 +23401,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A18:C19"/>
@@ -23409,16 +23419,6 @@
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A9:C10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23447,13 +23447,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="66.75" customHeight="1">
-      <c r="C1" s="296" t="str">
+      <c r="C1" s="291" t="str">
         <f>""&amp;'Общие данные'!B147&amp;"ning
 "&amp;'Общие данные'!A150&amp;""</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJning
 Olmaliq filiali boshlig'i</v>
       </c>
-      <c r="D1" s="296"/>
+      <c r="D1" s="291"/>
     </row>
     <row r="2" spans="1:4">
       <c r="C2" s="13"/>
@@ -23463,19 +23463,19 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="295" t="str">
+      <c r="A4" s="290" t="str">
         <f>""&amp;'Общие данные'!C64&amp;" olish uchun Ariza"</f>
         <v>Mikroqarz olish uchun Ariza</v>
       </c>
-      <c r="B4" s="295"/>
-      <c r="C4" s="295"/>
-      <c r="D4" s="295"/>
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="295"/>
-      <c r="B5" s="295"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
+      <c r="A5" s="290"/>
+      <c r="B5" s="290"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="290"/>
     </row>
     <row r="6" spans="1:4" ht="60" customHeight="1">
       <c r="A6" s="292" t="str">
@@ -23577,31 +23577,31 @@
       <c r="D16" s="292"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" hidden="1" customHeight="1">
-      <c r="A17" s="294" t="str">
+      <c r="A17" s="293" t="str">
         <f>" - "&amp;'Общие данные'!B65&amp;" shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi"</f>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B17" s="294"/>
-      <c r="C17" s="294"/>
-      <c r="D17" s="294"/>
+      <c r="B17" s="293"/>
+      <c r="C17" s="293"/>
+      <c r="D17" s="293"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" hidden="1" customHeight="1">
-      <c r="A18" s="294" t="str">
+      <c r="A18" s="293" t="str">
         <f>" - "&amp;'Общие данные'!B65&amp;" shartnomasi bo'yicha har oy annuitet to'lovlari amalga oshiriladi"</f>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy annuitet to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B18" s="294"/>
-      <c r="C18" s="294"/>
-      <c r="D18" s="294"/>
+      <c r="B18" s="293"/>
+      <c r="C18" s="293"/>
+      <c r="D18" s="293"/>
     </row>
     <row r="19" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A19" s="294" t="str">
+      <c r="A19" s="293" t="str">
         <f>IF('Общие данные'!B77='Общие данные'!C77,'Кредитная заявка'!A17:D17,IF('Общие данные'!B77='Общие данные'!D77,'Кредитная заявка'!A18:D18))</f>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B19" s="294"/>
-      <c r="C19" s="294"/>
-      <c r="D19" s="294"/>
+      <c r="B19" s="293"/>
+      <c r="C19" s="293"/>
+      <c r="D19" s="293"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" hidden="1" customHeight="1">
       <c r="A20" s="292" t="str">
@@ -23622,68 +23622,68 @@
       <c r="D21" s="292"/>
     </row>
     <row r="22" spans="1:5" ht="72.75" customHeight="1">
-      <c r="A22" s="294" t="str">
+      <c r="A22" s="293" t="str">
         <f>IF('Общие данные'!B103="Avtotransport",A26,A23)</f>
         <v xml:space="preserve">  Egalik huquqi NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli bo'lgan garovga olingan avtomobil markasi   CHANGAN CHANGAN SC 1027SB, rangi -  OQ BELIY, ishlab chiqarilgan yili - 2014, davlat raqam belgisi 80T312WA, kuzov turi - YUK BORTLI TENT, kuzov raqami LSCAB23D8EG228387, dvigatel raqami JL466Q1%E61H022801, shassi raqami - URINDIKLAR SONI 5TA</v>
       </c>
-      <c r="B22" s="294"/>
-      <c r="C22" s="294"/>
-      <c r="D22" s="294"/>
+      <c r="B22" s="293"/>
+      <c r="C22" s="293"/>
+      <c r="D22" s="293"/>
     </row>
     <row r="23" spans="1:5" ht="79.5" hidden="1" customHeight="1">
-      <c r="A23" s="294" t="str">
+      <c r="A23" s="293" t="str">
         <f>IF('Общие данные'!B92='Общие данные'!C92,A25,IF('Общие данные'!B92='Общие данные'!D92,A24,0))</f>
         <v xml:space="preserve"> Egalik huquqi NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli bo'lgan umumiy maydoni - 72,13  va yashash maydoni - 37,39 3 - xonali yakka tartibdagi uy-joy, SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON </v>
       </c>
-      <c r="B23" s="294"/>
-      <c r="C23" s="294"/>
-      <c r="D23" s="294"/>
+      <c r="B23" s="293"/>
+      <c r="C23" s="293"/>
+      <c r="D23" s="293"/>
     </row>
     <row r="24" spans="1:5" ht="96.75" hidden="1" customHeight="1">
-      <c r="A24" s="294" t="str">
+      <c r="A24" s="293" t="str">
         <f>" - Navbatdagi garov (ipoteka) Egalik huquqi asosida  "&amp;'Общие данные'!C117&amp;"ga "&amp;'Общие данные'!C126&amp;", umumiy maydoni - "&amp;'Общие данные'!C130&amp;" va yashash maydoni - "&amp;'Общие данные'!C133&amp;", manzili: "&amp;'Общие данные'!C123&amp;"."</f>
         <v xml:space="preserve"> - Navbatdagi garov (ipoteka) Egalik huquqi asosida  NUTFULLAYEV AKBARJON AXMEDOVICHga 3 - xonali yakka tartibdagi uy-joy, umumiy maydoni - 72,13 va yashash maydoni - 37,39, manzili: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON.</v>
       </c>
-      <c r="B24" s="294"/>
-      <c r="C24" s="294"/>
-      <c r="D24" s="294"/>
+      <c r="B24" s="293"/>
+      <c r="C24" s="293"/>
+      <c r="D24" s="293"/>
       <c r="E24" s="154"/>
     </row>
     <row r="25" spans="1:5" ht="92.25" hidden="1" customHeight="1">
-      <c r="A25" s="294" t="str">
+      <c r="A25" s="293" t="str">
         <f>" Egalik huquqi "&amp;'Общие данные'!C117&amp;"ga tegishli bo'lgan umumiy maydoni - "&amp;'Общие данные'!C130&amp;"  va yashash maydoni - "&amp;'Общие данные'!C133&amp;" "&amp;'Общие данные'!C126&amp;", "&amp;'Общие данные'!C123&amp;" "</f>
         <v xml:space="preserve"> Egalik huquqi NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli bo'lgan umumiy maydoni - 72,13  va yashash maydoni - 37,39 3 - xonali yakka tartibdagi uy-joy, SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON </v>
       </c>
-      <c r="B25" s="294"/>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
+      <c r="B25" s="293"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
     </row>
     <row r="26" spans="1:5" ht="78" hidden="1" customHeight="1">
-      <c r="A26" s="294" t="str">
+      <c r="A26" s="293" t="str">
         <f>IF('Общие данные'!B92='Общие данные'!C92,'Кредитная заявка'!A28:D28,IF('Общие данные'!B92='Общие данные'!D92,'Кредитная заявка'!A27:D27,0))</f>
         <v xml:space="preserve">  Egalik huquqi NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli bo'lgan garovga olingan avtomobil markasi   CHANGAN CHANGAN SC 1027SB, rangi -  OQ BELIY, ishlab chiqarilgan yili - 2014, davlat raqam belgisi 80T312WA, kuzov turi - YUK BORTLI TENT, kuzov raqami LSCAB23D8EG228387, dvigatel raqami JL466Q1%E61H022801, shassi raqami - URINDIKLAR SONI 5TA</v>
       </c>
-      <c r="B26" s="294"/>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
+      <c r="B26" s="293"/>
+      <c r="C26" s="293"/>
+      <c r="D26" s="293"/>
     </row>
     <row r="27" spans="1:5" ht="93" hidden="1" customHeight="1">
-      <c r="A27" s="294" t="str">
+      <c r="A27" s="293" t="str">
         <f>" Egalik huquqi "&amp;'Общие данные'!B117&amp;"ga tegishli bo'lgan "&amp;'Общие данные'!B125&amp;", "&amp;'Общие данные'!B133&amp;", davlat raqam belgisi "&amp;'Общие данные'!B126&amp;", "&amp;'Общие данные'!B127&amp;", "&amp;'Общие данные'!B130&amp;" avtotransport vositasi "</f>
         <v xml:space="preserve"> Egalik huquqi NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli bo'lgan CHANGAN CHANGAN SC 1027SB, rangi -  OQ BELIY, ishlab chiqarilgan yili - 2014, davlat raqam belgisi 80T312WA, kuzov turi - YUK BORTLI TENT, kuzov raqami LSCAB23D8EG228387, dvigatel raqami JL466Q1%E61H022801, shassi raqami - URINDIKLAR SONI 5TA avtotransport vositasi </v>
       </c>
-      <c r="B27" s="294"/>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
+      <c r="B27" s="293"/>
+      <c r="C27" s="293"/>
+      <c r="D27" s="293"/>
     </row>
     <row r="28" spans="1:5" ht="93.75" hidden="1" customHeight="1">
-      <c r="A28" s="294" t="str">
+      <c r="A28" s="293" t="str">
         <f>"  Egalik huquqi "&amp;'Общие данные'!B117&amp;"ga tegishli bo'lgan garovga olingan avtomobil markasi   "&amp;'Общие данные'!B125&amp;", "&amp;'Общие данные'!B133&amp;", davlat raqam belgisi "&amp;'Общие данные'!B126&amp;", "&amp;'Общие данные'!B127&amp;", "&amp;'Общие данные'!B130&amp;""</f>
         <v xml:space="preserve">  Egalik huquqi NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli bo'lgan garovga olingan avtomobil markasi   CHANGAN CHANGAN SC 1027SB, rangi -  OQ BELIY, ishlab chiqarilgan yili - 2014, davlat raqam belgisi 80T312WA, kuzov turi - YUK BORTLI TENT, kuzov raqami LSCAB23D8EG228387, dvigatel raqami JL466Q1%E61H022801, shassi raqami - URINDIKLAR SONI 5TA</v>
       </c>
-      <c r="B28" s="294"/>
-      <c r="C28" s="294"/>
-      <c r="D28" s="294"/>
+      <c r="B28" s="293"/>
+      <c r="C28" s="293"/>
+      <c r="D28" s="293"/>
     </row>
     <row r="29" spans="1:5" ht="10.5" customHeight="1">
       <c r="A29" s="292"/>
@@ -23692,37 +23692,37 @@
       <c r="D29" s="292"/>
     </row>
     <row r="30" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A30" s="294" t="str">
+      <c r="A30" s="293" t="str">
         <f>"Mazkur ariza bilan "&amp;'Общие данные'!B147&amp;"ga men va soʻralayotgan "&amp;'Общие данные'!B65&amp;" boʻyicha barcha zarur maʼlumotlarni quyida ko’rsatilgan tashkilotlarga taqdim etish va olishga roziligimni bildirib, ushbu amaliyotlarni o’tkazish uchun huquq beraman:"</f>
         <v>Mazkur ariza bilan «CLEVER MIKROMOLIYA TASHKILOTI» MChJga men va soʻralayotgan mikroqarz boʻyicha barcha zarur maʼlumotlarni quyida ko’rsatilgan tashkilotlarga taqdim etish va olishga roziligimni bildirib, ushbu amaliyotlarni o’tkazish uchun huquq beraman:</v>
       </c>
-      <c r="B30" s="294"/>
-      <c r="C30" s="294"/>
-      <c r="D30" s="294"/>
+      <c r="B30" s="293"/>
+      <c r="C30" s="293"/>
+      <c r="D30" s="293"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="294" t="s">
+      <c r="A31" s="293" t="s">
         <v>249</v>
       </c>
-      <c r="B31" s="294"/>
-      <c r="C31" s="294"/>
-      <c r="D31" s="294"/>
+      <c r="B31" s="293"/>
+      <c r="C31" s="293"/>
+      <c r="D31" s="293"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="294" t="s">
+      <c r="A32" s="293" t="s">
         <v>250</v>
       </c>
-      <c r="B32" s="294"/>
-      <c r="C32" s="294"/>
-      <c r="D32" s="294"/>
+      <c r="B32" s="293"/>
+      <c r="C32" s="293"/>
+      <c r="D32" s="293"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="294" t="s">
+      <c r="A33" s="293" t="s">
         <v>251</v>
       </c>
-      <c r="B33" s="294"/>
-      <c r="C33" s="294"/>
-      <c r="D33" s="294"/>
+      <c r="B33" s="293"/>
+      <c r="C33" s="293"/>
+      <c r="D33" s="293"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="292" t="str">
@@ -23760,12 +23760,12 @@
       <c r="D38" s="292"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A39" s="293" t="str">
+      <c r="A39" s="294" t="str">
         <f>'Общие данные'!B5</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B39" s="293"/>
-      <c r="C39" s="293"/>
+      <c r="B39" s="294"/>
+      <c r="C39" s="294"/>
       <c r="D39" s="11" t="s">
         <v>4</v>
       </c>
@@ -24001,64 +24001,6 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A77:D77"/>
@@ -24075,6 +24017,64 @@
     <mergeCell ref="A69:D69"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
@@ -24099,23 +24099,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="35.25" customHeight="1">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="295" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="297"/>
+      <c r="B3" s="295"/>
     </row>
     <row r="4" spans="1:2" ht="92.25" customHeight="1">
-      <c r="A4" s="235" t="str">
+      <c r="A4" s="233" t="str">
         <f>"     Men, fuqaro "&amp;'Общие данные'!B5&amp;" "&amp;'Общие данные'!B149&amp;" bilan "&amp;'Общие данные'!B69&amp;" sanasidagi "&amp;'Общие данные'!B66&amp;"-sonli shartnomaning garov ta'minoti sifatida taqdim etilayotgan mulk "&amp;'Общие данные'!B125&amp;" rusumli avtotransport vositasini qonunga xilof ravishda o‘zlashtirmaslikka, yashirmaslikka, nobud qilmaslikka yoki unga shikast yetkazmaslik majburiyatini olaman."</f>
         <v xml:space="preserve">     Men, fuqaro NUTFULLAYEV AKBARJON AXMEDOVICH «CLEVER MIKROMOLIYA TASHKILOTI» MChJ bilan 11 mart 2025 y. sanasidagi № -AL-sonli shartnomaning garov ta'minoti sifatida taqdim etilayotgan mulk CHANGAN CHANGAN SC 1027SB rusumli avtotransport vositasini qonunga xilof ravishda o‘zlashtirmaslikka, yashirmaslikka, nobud qilmaslikka yoki unga shikast yetkazmaslik majburiyatini olaman.</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="233"/>
     </row>
     <row r="5" spans="1:2" ht="56.25" customHeight="1">
-      <c r="A5" s="298" t="s">
+      <c r="A5" s="296" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="298"/>
+      <c r="B5" s="296"/>
     </row>
     <row r="6" spans="1:2" ht="42.75" customHeight="1"/>
     <row r="7" spans="1:2">
